--- a/covid_pie.xlsx
+++ b/covid_pie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carpaneto\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E25558C8-2CCD-428C-834E-749B97E44511}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA462D3-B9C8-49E1-B7BF-E2A2EE168AB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,6 @@
     <sheet name="Analisi-dead" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="36">
   <si>
     <t>data</t>
   </si>
@@ -148,7 +147,7 @@
     <t>attualmente_positivi'</t>
   </si>
   <si>
-    <t>Liguria</t>
+    <t>Piemonte</t>
   </si>
 </sst>
 </file>
@@ -597,6 +596,12 @@
                 <c:pt idx="33">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -707,6 +712,12 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>7671</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8206</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8712</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -853,6 +864,12 @@
                 <c:pt idx="33">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -960,6 +977,12 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>579</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>535</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>506</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1102,6 +1125,12 @@
                 <c:pt idx="33">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1206,6 +1235,12 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-44</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1352,6 +1387,12 @@
                 <c:pt idx="33">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1453,6 +1494,12 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-27</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-65</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1824,6 +1871,12 @@
                 <c:pt idx="33">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1931,6 +1984,12 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-105</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2077,6 +2136,12 @@
                 <c:pt idx="33">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2181,6 +2246,12 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-355</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>114</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2323,6 +2394,12 @@
                 <c:pt idx="33">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2424,6 +2501,12 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-118</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-363</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>469</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2804,6 +2887,12 @@
                 <c:pt idx="33">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2914,6 +3003,12 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>6851</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7268</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7655</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3060,6 +3155,12 @@
                 <c:pt idx="33">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3167,6 +3268,12 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>504</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>417</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>387</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3309,6 +3416,12 @@
                 <c:pt idx="33">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3413,6 +3526,12 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-87</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3559,6 +3678,12 @@
                 <c:pt idx="33">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3660,6 +3785,12 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-194</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>57</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4031,6 +4162,12 @@
                 <c:pt idx="33">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4138,6 +4275,12 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>504</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>417</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>387</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4284,6 +4427,12 @@
                 <c:pt idx="33">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4388,6 +4537,12 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-87</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4530,6 +4685,12 @@
                 <c:pt idx="33">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4631,6 +4792,12 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-194</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>57</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5036,6 +5203,9 @@
                 <c:pt idx="33">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -5146,6 +5316,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>6851</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7268</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5495,6 +5668,9 @@
                 <c:pt idx="33">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -5605,6 +5781,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>3318</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3840</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5751,6 +5930,9 @@
                 <c:pt idx="33">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -5858,6 +6040,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>522</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6000,6 +6185,9 @@
                 <c:pt idx="33">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -6104,6 +6292,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>268</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6250,6 +6441,9 @@
                 <c:pt idx="33">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -6351,6 +6545,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6722,6 +6919,12 @@
                 <c:pt idx="33">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -6829,6 +7032,12 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>522</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>378</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6975,6 +7184,12 @@
                 <c:pt idx="33">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -7079,6 +7294,12 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-144</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7221,6 +7442,12 @@
                 <c:pt idx="33">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -7322,6 +7549,12 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7738,6 +7971,12 @@
                 <c:pt idx="33">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -7848,6 +8087,12 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>21511</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>24058</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>25478</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8230,6 +8475,12 @@
                 <c:pt idx="33">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -8337,6 +8588,12 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>1806</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2547</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1420</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8730,6 +8987,12 @@
                 <c:pt idx="33">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -8837,6 +9100,12 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>2.8041976274279756</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.9317572507921033</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.9244719926538107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8983,6 +9252,12 @@
                 <c:pt idx="33">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -9090,6 +9365,12 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>3.1398336009341703</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.3101265822784809</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.3282821685173087</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9518,6 +9799,12 @@
                 <c:pt idx="33">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -9625,6 +9912,12 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>35.660824694342431</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34.109236012968658</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>34.194206766622187</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9771,6 +10064,12 @@
                 <c:pt idx="34">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -9878,6 +10177,12 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>31.848821533169076</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>30.210325047801149</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>30.045529476411023</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10270,6 +10575,9 @@
                 <c:pt idx="33">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -10377,6 +10685,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>579</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>535</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10523,6 +10834,9 @@
                 <c:pt idx="33">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -10627,6 +10941,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-44</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10769,6 +11086,9 @@
                 <c:pt idx="33">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -10870,6 +11190,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-27</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-65</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11367,6 +11690,12 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>6851</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7268</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7655</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12785,6 +13114,9 @@
                 <c:pt idx="33">
                   <c:v>6851</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>7268</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -13259,6 +13591,12 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>6851</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7268</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7655</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14697,6 +15035,12 @@
                 <c:pt idx="33">
                   <c:v>-72.307758986664339</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>-64.233524300499994</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-49.82662771449759</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -15173,6 +15517,12 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>617</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>684</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>749</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16323,6 +16673,12 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>617</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>684</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>749</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17767,6 +18123,12 @@
                 <c:pt idx="33">
                   <c:v>-39.739280282582172</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>-47.25799764717965</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-57.148839997277719</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -18157,6 +18519,12 @@
                 <c:pt idx="33">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -18267,6 +18635,12 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>7671</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8206</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8712</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18651,6 +19025,12 @@
                 <c:pt idx="33">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -18761,6 +19141,12 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>439</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>452</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18907,6 +19293,12 @@
                 <c:pt idx="34">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -19014,6 +19406,12 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19346,6 +19744,12 @@
                 <c:pt idx="34">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -19447,6 +19851,12 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19818,6 +20228,12 @@
                 <c:pt idx="33">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -19928,6 +20344,12 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>308</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20074,6 +20496,12 @@
                 <c:pt idx="33">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -20181,6 +20609,12 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>54</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20323,6 +20757,12 @@
                 <c:pt idx="33">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -20427,6 +20867,12 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20573,6 +21019,12 @@
                 <c:pt idx="33">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -20674,6 +21126,12 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21054,6 +21512,12 @@
                 <c:pt idx="33">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -21161,6 +21625,12 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>54</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21307,6 +21777,12 @@
                 <c:pt idx="33">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -21411,6 +21887,12 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21553,6 +22035,12 @@
                 <c:pt idx="33">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -21654,6 +22142,12 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22034,6 +22528,12 @@
                 <c:pt idx="33">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -22141,6 +22641,12 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>65</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22287,6 +22793,12 @@
                 <c:pt idx="33">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -22391,6 +22903,12 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-72</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22533,6 +23051,12 @@
                 <c:pt idx="33">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -22634,6 +23158,12 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-192</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23014,6 +23544,12 @@
                 <c:pt idx="33">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -23124,6 +23660,12 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>617</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>684</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>749</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23270,6 +23812,12 @@
                 <c:pt idx="33">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -23377,6 +23925,12 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>65</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23519,6 +24073,12 @@
                 <c:pt idx="33">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -23623,6 +24183,12 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-72</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23769,6 +24335,12 @@
                 <c:pt idx="33">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -23870,6 +24442,12 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-192</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24241,6 +24819,12 @@
                 <c:pt idx="33">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -24351,6 +24935,12 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>3533</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3428</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3437</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24497,6 +25087,12 @@
                 <c:pt idx="33">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -24604,6 +25200,12 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-105</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24746,6 +25348,12 @@
                 <c:pt idx="33">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -24850,6 +25458,12 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-355</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>114</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24996,6 +25610,12 @@
                 <c:pt idx="33">
                   <c:v>43918</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -25097,6 +25717,12 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-118</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-363</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>469</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -27596,16 +28222,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:L36"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="16.296875" customWidth="1"/>
-    <col min="2" max="2" width="6.59765625" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="19.69921875" customWidth="1"/>
     <col min="4" max="4" width="14.8984375" customWidth="1"/>
     <col min="5" max="5" width="12.296875" customWidth="1"/>
@@ -28948,6 +29574,82 @@
         <v>21511</v>
       </c>
     </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="18">
+        <v>43919</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>2985</v>
+      </c>
+      <c r="D37">
+        <v>443</v>
+      </c>
+      <c r="E37">
+        <v>3428</v>
+      </c>
+      <c r="F37">
+        <v>3840</v>
+      </c>
+      <c r="G37">
+        <v>7268</v>
+      </c>
+      <c r="H37">
+        <v>417</v>
+      </c>
+      <c r="I37">
+        <v>254</v>
+      </c>
+      <c r="J37">
+        <v>684</v>
+      </c>
+      <c r="K37">
+        <v>8206</v>
+      </c>
+      <c r="L37">
+        <v>24058</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="18">
+        <v>43920</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38">
+        <v>2985</v>
+      </c>
+      <c r="D38">
+        <v>452</v>
+      </c>
+      <c r="E38">
+        <v>3437</v>
+      </c>
+      <c r="F38">
+        <v>4218</v>
+      </c>
+      <c r="G38">
+        <v>7655</v>
+      </c>
+      <c r="H38">
+        <v>387</v>
+      </c>
+      <c r="I38">
+        <v>308</v>
+      </c>
+      <c r="J38">
+        <v>749</v>
+      </c>
+      <c r="K38">
+        <v>8712</v>
+      </c>
+      <c r="L38">
+        <v>25478</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -28962,7 +29664,7 @@
   <dimension ref="A1:K149"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="H37" sqref="H37:H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -29064,7 +29766,7 @@
         <v>6.7316395590617191</v>
       </c>
       <c r="H4" s="11">
-        <f t="shared" ref="H4:H36" si="2">C4-E4</f>
+        <f t="shared" ref="H4:H38" si="2">C4-E4</f>
         <v>-34.249816491698702</v>
       </c>
       <c r="J4" s="4" t="s">
@@ -30133,6 +30835,14 @@
       <c r="B37" s="10">
         <v>35</v>
       </c>
+      <c r="C37" s="3">
+        <f>Dati!G37</f>
+        <v>7268</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ref="D37" si="7">C37-C36</f>
+        <v>417</v>
+      </c>
       <c r="E37" s="11">
         <f t="shared" si="5"/>
         <v>7332.2335243005</v>
@@ -30145,6 +30855,10 @@
         <f t="shared" si="4"/>
         <v>408.92576531383565</v>
       </c>
+      <c r="H37" s="11">
+        <f t="shared" si="2"/>
+        <v>-64.233524300499994</v>
+      </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="2">
@@ -30153,6 +30867,14 @@
       <c r="B38" s="10">
         <v>36</v>
       </c>
+      <c r="C38" s="3">
+        <f>Dati!G38</f>
+        <v>7655</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ref="D38" si="8">C38-C37</f>
+        <v>387</v>
+      </c>
       <c r="E38" s="11">
         <f t="shared" si="5"/>
         <v>7704.8266277144976</v>
@@ -30165,6 +30887,10 @@
         <f t="shared" si="4"/>
         <v>372.5931034139976</v>
       </c>
+      <c r="H38" s="11">
+        <f t="shared" si="2"/>
+        <v>-49.82662771449759</v>
+      </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="2">
@@ -30774,7 +31500,7 @@
         <v>0</v>
       </c>
       <c r="E67" s="11">
-        <f t="shared" ref="E67:E98" si="7">$K$2/(1+$K$5*EXP(-$K$4*B67))</f>
+        <f t="shared" ref="E67:E98" si="9">$K$2/(1+$K$5*EXP(-$K$4*B67))</f>
         <v>9990.9894120580084</v>
       </c>
       <c r="F67" s="11">
@@ -30798,11 +31524,11 @@
         <v>0</v>
       </c>
       <c r="E68" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9992.6215493948876</v>
       </c>
       <c r="F68" s="11">
-        <f t="shared" ref="F68:F99" si="8">(E68-E67)*10</f>
+        <f t="shared" ref="F68:F99" si="10">(E68-E67)*10</f>
         <v>16.321373368791683</v>
       </c>
       <c r="G68" s="11">
@@ -30818,19 +31544,19 @@
         <v>67</v>
       </c>
       <c r="D69">
-        <f t="shared" ref="D69:D132" si="9">C69-C68</f>
+        <f t="shared" ref="D69:D132" si="11">C69-C68</f>
         <v>0</v>
       </c>
       <c r="E69" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9993.9582275008033</v>
       </c>
       <c r="F69" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>13.366781059157802</v>
       </c>
       <c r="G69" s="11">
-        <f t="shared" ref="G69:G132" si="10">E69-E68</f>
+        <f t="shared" ref="G69:G132" si="12">E69-E68</f>
         <v>1.3366781059157802</v>
       </c>
     </row>
@@ -30842,19 +31568,19 @@
         <v>68</v>
       </c>
       <c r="D70">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E70" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E70" s="11">
-        <f t="shared" si="7"/>
         <v>9995.0528732486455</v>
       </c>
       <c r="F70" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10.946457478421507</v>
       </c>
       <c r="G70" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.0946457478421507</v>
       </c>
     </row>
@@ -30866,19 +31592,19 @@
         <v>69</v>
       </c>
       <c r="D71">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E71" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E71" s="11">
-        <f t="shared" si="7"/>
         <v>9995.949271935413</v>
       </c>
       <c r="F71" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>8.9639868676749757</v>
       </c>
       <c r="G71" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.89639868676749757</v>
       </c>
     </row>
@@ -30890,19 +31616,19 @@
         <v>70</v>
       </c>
       <c r="D72">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E72" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E72" s="11">
-        <f t="shared" si="7"/>
         <v>9996.6833008250924</v>
       </c>
       <c r="F72" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7.3402888967939361</v>
       </c>
       <c r="G72" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.73402888967939361</v>
       </c>
     </row>
@@ -30914,19 +31640,19 @@
         <v>71</v>
       </c>
       <c r="D73">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E73" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E73" s="11">
-        <f t="shared" si="7"/>
         <v>9997.2843531178787</v>
       </c>
       <c r="F73" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6.0105229278633487</v>
       </c>
       <c r="G73" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.60105229278633487</v>
       </c>
     </row>
@@ -30938,19 +31664,19 @@
         <v>72</v>
       </c>
       <c r="D74">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E74" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E74" s="11">
-        <f t="shared" si="7"/>
         <v>9997.7765069287125</v>
       </c>
       <c r="F74" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4.9215381083376997</v>
       </c>
       <c r="G74" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.49215381083376997</v>
       </c>
     </row>
@@ -30962,19 +31688,19 @@
         <v>73</v>
       </c>
       <c r="D75">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E75" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E75" s="11">
-        <f t="shared" si="7"/>
         <v>9998.1794844672331</v>
       </c>
       <c r="F75" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4.0297753852064488</v>
       </c>
       <c r="G75" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.40297753852064488</v>
       </c>
     </row>
@@ -30986,19 +31712,19 @@
         <v>74</v>
       </c>
       <c r="D76">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E76" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E76" s="11">
-        <f t="shared" si="7"/>
         <v>9998.5094387578301</v>
       </c>
       <c r="F76" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3.2995429059701564</v>
       </c>
       <c r="G76" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.32995429059701564</v>
       </c>
     </row>
@@ -31010,19 +31736,19 @@
         <v>75</v>
       </c>
       <c r="D77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E77" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E77" s="11">
-        <f t="shared" si="7"/>
         <v>9998.7795986973106</v>
       </c>
       <c r="F77" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.7015993948043615</v>
       </c>
       <c r="G77" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.27015993948043615</v>
       </c>
     </row>
@@ -31034,19 +31760,19 @@
         <v>76</v>
       </c>
       <c r="D78">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E78" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E78" s="11">
-        <f t="shared" si="7"/>
         <v>9999.0007978179183</v>
       </c>
       <c r="F78" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.211991206077073</v>
       </c>
       <c r="G78" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.2211991206077073</v>
       </c>
     </row>
@@ -31058,19 +31784,19 @@
         <v>77</v>
       </c>
       <c r="D79">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E79" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E79" s="11">
-        <f t="shared" si="7"/>
         <v>9999.1819076273205</v>
       </c>
       <c r="F79" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.8110980940218724</v>
       </c>
       <c r="G79" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.18110980940218724</v>
       </c>
     </row>
@@ -31082,19 +31808,19 @@
         <v>78</v>
       </c>
       <c r="D80">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E80" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E80" s="11">
-        <f t="shared" si="7"/>
         <v>9999.3301926827226</v>
       </c>
       <c r="F80" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.4828505540208425</v>
       </c>
       <c r="G80" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.14828505540208425</v>
       </c>
     </row>
@@ -31106,19 +31832,19 @@
         <v>79</v>
       </c>
       <c r="D81">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E81" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E81" s="11">
-        <f t="shared" si="7"/>
         <v>9999.4516014923011</v>
       </c>
       <c r="F81" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.2140880957849731</v>
       </c>
       <c r="G81" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.12140880957849731</v>
       </c>
     </row>
@@ -31130,19 +31856,19 @@
         <v>80</v>
       </c>
       <c r="D82">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E82" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E82" s="11">
-        <f t="shared" si="7"/>
         <v>9999.551004813442</v>
       </c>
       <c r="F82" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.99403321140925982</v>
       </c>
       <c r="G82" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>9.9403321140925982E-2</v>
       </c>
     </row>
@@ -31154,19 +31880,19 @@
         <v>81</v>
       </c>
       <c r="D83">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E83" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E83" s="11">
-        <f t="shared" si="7"/>
         <v>9999.6323908408485</v>
       </c>
       <c r="F83" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.81386027406551875</v>
       </c>
       <c r="G83" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>8.1386027406551875E-2</v>
       </c>
     </row>
@@ -31178,19 +31904,19 @@
         <v>82</v>
       </c>
       <c r="D84">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E84" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E84" s="11">
-        <f t="shared" si="7"/>
         <v>9999.699025070704</v>
       </c>
       <c r="F84" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.66634229855480953</v>
       </c>
       <c r="G84" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>6.6634229855480953E-2</v>
       </c>
     </row>
@@ -31202,19 +31928,19 @@
         <v>83</v>
       </c>
       <c r="D85">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E85" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E85" s="11">
-        <f t="shared" si="7"/>
         <v>9999.7535812250808</v>
       </c>
       <c r="F85" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.54556154376768973</v>
       </c>
       <c r="G85" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>5.4556154376768973E-2</v>
       </c>
     </row>
@@ -31226,19 +31952,19 @@
         <v>84</v>
       </c>
       <c r="D86">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E86" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E86" s="11">
-        <f t="shared" si="7"/>
         <v>9999.7982484696513</v>
       </c>
       <c r="F86" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.4466724457051896</v>
       </c>
       <c r="G86" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>4.466724457051896E-2</v>
       </c>
     </row>
@@ -31250,19 +31976,19 @@
         <v>85</v>
       </c>
       <c r="D87">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E87" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E87" s="11">
-        <f t="shared" si="7"/>
         <v>9999.8348192135345</v>
       </c>
       <c r="F87" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.36570743883203249</v>
       </c>
       <c r="G87" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3.6570743883203249E-2</v>
       </c>
     </row>
@@ -31274,19 +32000,19 @@
         <v>86</v>
       </c>
       <c r="D88">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E88" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E88" s="11">
-        <f t="shared" si="7"/>
         <v>9999.8647610053686</v>
       </c>
       <c r="F88" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.29941791834062315</v>
       </c>
       <c r="G88" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.9941791834062315E-2</v>
       </c>
     </row>
@@ -31298,19 +32024,19 @@
         <v>87</v>
       </c>
       <c r="D89">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E89" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E89" s="11">
-        <f t="shared" si="7"/>
         <v>9999.8892754046428</v>
       </c>
       <c r="F89" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.24514399274266907</v>
       </c>
       <c r="G89" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.4514399274266907E-2</v>
       </c>
     </row>
@@ -31322,19 +32048,19 @@
         <v>88</v>
       </c>
       <c r="D90">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E90" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E90" s="11">
-        <f t="shared" si="7"/>
         <v>9999.9093461867069</v>
       </c>
       <c r="F90" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.20070782064067316</v>
       </c>
       <c r="G90" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.0070782064067316E-2</v>
       </c>
     </row>
@@ -31346,19 +32072,19 @@
         <v>89</v>
       </c>
       <c r="D91">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E91" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E91" s="11">
-        <f t="shared" si="7"/>
         <v>9999.9257788132072</v>
       </c>
       <c r="F91" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.16432626500318293</v>
       </c>
       <c r="G91" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.6432626500318293E-2</v>
       </c>
     </row>
@@ -31370,19 +32096,19 @@
         <v>90</v>
       </c>
       <c r="D92">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E92" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E92" s="11">
-        <f t="shared" si="7"/>
         <v>9999.9392327500864</v>
       </c>
       <c r="F92" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.13453936879159301</v>
       </c>
       <c r="G92" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.3453936879159301E-2</v>
       </c>
     </row>
@@ -31394,19 +32120,19 @@
         <v>91</v>
       </c>
       <c r="D93">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E93" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E93" s="11">
-        <f t="shared" si="7"/>
         <v>9999.9502479289113</v>
       </c>
       <c r="F93" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.11015178824891336</v>
       </c>
       <c r="G93" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.1015178824891336E-2</v>
       </c>
     </row>
@@ -31418,19 +32144,19 @@
         <v>92</v>
       </c>
       <c r="D94">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E94" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E94" s="11">
-        <f t="shared" si="7"/>
         <v>9999.9592664126358</v>
       </c>
       <c r="F94" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>9.0184837245033123E-2</v>
       </c>
       <c r="G94" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>9.0184837245033123E-3</v>
       </c>
     </row>
@@ -31442,19 +32168,19 @@
         <v>93</v>
       </c>
       <c r="D95">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E95" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E95" s="11">
-        <f t="shared" si="7"/>
         <v>9999.9666501347165</v>
       </c>
       <c r="F95" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7.3837220807035919E-2</v>
       </c>
       <c r="G95" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>7.3837220807035919E-3</v>
       </c>
     </row>
@@ -31466,19 +32192,19 @@
         <v>94</v>
       </c>
       <c r="D96">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E96" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E96" s="11">
-        <f t="shared" si="7"/>
         <v>9999.9726954231774</v>
       </c>
       <c r="F96" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6.0452884608821478E-2</v>
       </c>
       <c r="G96" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>6.0452884608821478E-3</v>
       </c>
     </row>
@@ -31487,19 +32213,19 @@
         <v>95</v>
       </c>
       <c r="D97">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E97" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E97" s="11">
-        <f t="shared" si="7"/>
         <v>9999.9776448921912</v>
       </c>
       <c r="F97" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4.9494690138089936E-2</v>
       </c>
       <c r="G97" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>4.9494690138089936E-3</v>
       </c>
     </row>
@@ -31508,19 +32234,19 @@
         <v>96</v>
       </c>
       <c r="D98">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E98" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E98" s="11">
-        <f t="shared" si="7"/>
         <v>9999.9816971783293</v>
       </c>
       <c r="F98" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4.0522861381759867E-2</v>
       </c>
       <c r="G98" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>4.0522861381759867E-3</v>
       </c>
     </row>
@@ -31529,19 +32255,19 @@
         <v>97</v>
       </c>
       <c r="D99">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E99" s="11">
-        <f t="shared" ref="E99:E130" si="11">$K$2/(1+$K$5*EXP(-$K$4*B99))</f>
+        <f t="shared" ref="E99:E130" si="13">$K$2/(1+$K$5*EXP(-$K$4*B99))</f>
         <v>9999.9850149120575</v>
       </c>
       <c r="F99" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3.3177337281813379E-2</v>
       </c>
       <c r="G99" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3.3177337281813379E-3</v>
       </c>
     </row>
@@ -31550,19 +32276,19 @@
         <v>98</v>
       </c>
       <c r="D100">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E100" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9999.9877312443332</v>
       </c>
       <c r="F100" s="11">
-        <f t="shared" ref="F100:F131" si="12">(E100-E99)*10</f>
+        <f t="shared" ref="F100:F131" si="14">(E100-E99)*10</f>
         <v>2.7163322756678099E-2</v>
       </c>
       <c r="G100" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.7163322756678099E-3</v>
       </c>
     </row>
@@ -31571,19 +32297,19 @@
         <v>99</v>
       </c>
       <c r="D101">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E101" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9999.9899551901981</v>
       </c>
       <c r="F101" s="11">
+        <f t="shared" si="14"/>
+        <v>2.2239458648982691E-2</v>
+      </c>
+      <c r="G101" s="11">
         <f t="shared" si="12"/>
-        <v>2.2239458648982691E-2</v>
-      </c>
-      <c r="G101" s="11">
-        <f t="shared" si="10"/>
         <v>2.2239458648982691E-3</v>
       </c>
     </row>
@@ -31592,19 +32318,19 @@
         <v>100</v>
       </c>
       <c r="D102">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E102" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9999.9917760038097</v>
       </c>
       <c r="F102" s="11">
+        <f t="shared" si="14"/>
+        <v>1.8208136116300011E-2</v>
+      </c>
+      <c r="G102" s="11">
         <f t="shared" si="12"/>
-        <v>1.8208136116300011E-2</v>
-      </c>
-      <c r="G102" s="11">
-        <f t="shared" si="10"/>
         <v>1.8208136116300011E-3</v>
       </c>
     </row>
@@ -31613,19 +32339,19 @@
         <v>101</v>
       </c>
       <c r="D103">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E103" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9999.9932667604025</v>
       </c>
       <c r="F103" s="11">
+        <f t="shared" si="14"/>
+        <v>1.4907565928297117E-2</v>
+      </c>
+      <c r="G103" s="11">
         <f t="shared" si="12"/>
-        <v>1.4907565928297117E-2</v>
-      </c>
-      <c r="G103" s="11">
-        <f t="shared" si="10"/>
         <v>1.4907565928297117E-3</v>
       </c>
     </row>
@@ -31634,19 +32360,19 @@
         <v>102</v>
       </c>
       <c r="D104">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E104" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9999.994487289001</v>
       </c>
       <c r="F104" s="11">
+        <f t="shared" si="14"/>
+        <v>1.220528598423698E-2</v>
+      </c>
+      <c r="G104" s="11">
         <f t="shared" si="12"/>
-        <v>1.220528598423698E-2</v>
-      </c>
-      <c r="G104" s="11">
-        <f t="shared" si="10"/>
         <v>1.220528598423698E-3</v>
       </c>
     </row>
@@ -31655,19 +32381,19 @@
         <v>103</v>
       </c>
       <c r="D105">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E105" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9999.9954865735217</v>
       </c>
       <c r="F105" s="11">
+        <f t="shared" si="14"/>
+        <v>9.9928452073072549E-3</v>
+      </c>
+      <c r="G105" s="11">
         <f t="shared" si="12"/>
-        <v>9.9928452073072549E-3</v>
-      </c>
-      <c r="G105" s="11">
-        <f t="shared" si="10"/>
         <v>9.9928452073072549E-4</v>
       </c>
     </row>
@@ -31676,19 +32402,19 @@
         <v>104</v>
       </c>
       <c r="D106">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E106" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9999.9963047186375</v>
       </c>
       <c r="F106" s="11">
+        <f t="shared" si="14"/>
+        <v>8.1814511577249505E-3</v>
+      </c>
+      <c r="G106" s="11">
         <f t="shared" si="12"/>
-        <v>8.1814511577249505E-3</v>
-      </c>
-      <c r="G106" s="11">
-        <f t="shared" si="10"/>
         <v>8.1814511577249505E-4</v>
       </c>
     </row>
@@ -31697,19 +32423,19 @@
         <v>105</v>
       </c>
       <c r="D107">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E107" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9999.9969745593044</v>
       </c>
       <c r="F107" s="11">
+        <f t="shared" si="14"/>
+        <v>6.698406668874668E-3</v>
+      </c>
+      <c r="G107" s="11">
         <f t="shared" si="12"/>
-        <v>6.698406668874668E-3</v>
-      </c>
-      <c r="G107" s="11">
-        <f t="shared" si="10"/>
         <v>6.698406668874668E-4</v>
       </c>
     </row>
@@ -31718,19 +32444,19 @@
         <v>106</v>
       </c>
       <c r="D108">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E108" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9999.9975229785268</v>
       </c>
       <c r="F108" s="11">
+        <f t="shared" si="14"/>
+        <v>5.4841922246851027E-3</v>
+      </c>
+      <c r="G108" s="11">
         <f t="shared" si="12"/>
-        <v>5.4841922246851027E-3</v>
-      </c>
-      <c r="G108" s="11">
-        <f t="shared" si="10"/>
         <v>5.4841922246851027E-4</v>
       </c>
     </row>
@@ -31739,19 +32465,19 @@
         <v>107</v>
       </c>
       <c r="D109">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E109" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9999.9979719862531</v>
       </c>
       <c r="F109" s="11">
+        <f t="shared" si="14"/>
+        <v>4.4900772627443075E-3</v>
+      </c>
+      <c r="G109" s="11">
         <f t="shared" si="12"/>
-        <v>4.4900772627443075E-3</v>
-      </c>
-      <c r="G109" s="11">
-        <f t="shared" si="10"/>
         <v>4.4900772627443075E-4</v>
       </c>
     </row>
@@ -31760,19 +32486,19 @@
         <v>108</v>
       </c>
       <c r="D110">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E110" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9999.9983396027164</v>
       </c>
       <c r="F110" s="11">
+        <f t="shared" si="14"/>
+        <v>3.6761646333616227E-3</v>
+      </c>
+      <c r="G110" s="11">
         <f t="shared" si="12"/>
-        <v>3.6761646333616227E-3</v>
-      </c>
-      <c r="G110" s="11">
-        <f t="shared" si="10"/>
         <v>3.6761646333616227E-4</v>
       </c>
     </row>
@@ -31781,19 +32507,19 @@
         <v>109</v>
       </c>
       <c r="D111">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E111" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9999.9986405816398</v>
       </c>
       <c r="F111" s="11">
+        <f t="shared" si="14"/>
+        <v>3.0097892340563703E-3</v>
+      </c>
+      <c r="G111" s="11">
         <f t="shared" si="12"/>
-        <v>3.0097892340563703E-3</v>
-      </c>
-      <c r="G111" s="11">
-        <f t="shared" si="10"/>
         <v>3.0097892340563703E-4</v>
       </c>
     </row>
@@ -31802,19 +32528,19 @@
         <v>110</v>
       </c>
       <c r="D112">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E112" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9999.9988870023535</v>
       </c>
       <c r="F112" s="11">
+        <f t="shared" si="14"/>
+        <v>2.464207136654295E-3</v>
+      </c>
+      <c r="G112" s="11">
         <f t="shared" si="12"/>
-        <v>2.464207136654295E-3</v>
-      </c>
-      <c r="G112" s="11">
-        <f t="shared" si="10"/>
         <v>2.464207136654295E-4</v>
       </c>
     </row>
@@ -31823,19 +32549,19 @@
         <v>111</v>
       </c>
       <c r="D113">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E113" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9999.999088754581</v>
       </c>
       <c r="F113" s="11">
+        <f t="shared" si="14"/>
+        <v>2.0175222744001076E-3</v>
+      </c>
+      <c r="G113" s="11">
         <f t="shared" si="12"/>
-        <v>2.0175222744001076E-3</v>
-      </c>
-      <c r="G113" s="11">
-        <f t="shared" si="10"/>
         <v>2.0175222744001076E-4</v>
       </c>
     </row>
@@ -31844,19 +32570,19 @@
         <v>112</v>
       </c>
       <c r="D114">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E114" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9999.9992539353389</v>
       </c>
       <c r="F114" s="11">
+        <f t="shared" si="14"/>
+        <v>1.6518075790372677E-3</v>
+      </c>
+      <c r="G114" s="11">
         <f t="shared" si="12"/>
-        <v>1.6518075790372677E-3</v>
-      </c>
-      <c r="G114" s="11">
-        <f t="shared" si="10"/>
         <v>1.6518075790372677E-4</v>
       </c>
     </row>
@@ -31865,19 +32591,19 @@
         <v>113</v>
       </c>
       <c r="D115">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E115" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9999.9993891739105</v>
       </c>
       <c r="F115" s="11">
+        <f t="shared" si="14"/>
+        <v>1.3523857160180341E-3</v>
+      </c>
+      <c r="G115" s="11">
         <f t="shared" si="12"/>
-        <v>1.3523857160180341E-3</v>
-      </c>
-      <c r="G115" s="11">
-        <f t="shared" si="10"/>
         <v>1.3523857160180341E-4</v>
       </c>
     </row>
@@ -31886,19 +32612,19 @@
         <v>114</v>
       </c>
       <c r="D116">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E116" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9999.9994998978891</v>
       </c>
       <c r="F116" s="11">
+        <f t="shared" si="14"/>
+        <v>1.1072397865063976E-3</v>
+      </c>
+      <c r="G116" s="11">
         <f t="shared" si="12"/>
-        <v>1.1072397865063976E-3</v>
-      </c>
-      <c r="G116" s="11">
-        <f t="shared" si="10"/>
         <v>1.1072397865063976E-4</v>
       </c>
     </row>
@@ -31907,19 +32633,19 @@
         <v>115</v>
       </c>
       <c r="D117">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E117" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9999.9995905510204</v>
       </c>
       <c r="F117" s="11">
+        <f t="shared" si="14"/>
+        <v>9.0653131337603554E-4</v>
+      </c>
+      <c r="G117" s="11">
         <f t="shared" si="12"/>
-        <v>9.0653131337603554E-4</v>
-      </c>
-      <c r="G117" s="11">
-        <f t="shared" si="10"/>
         <v>9.0653131337603554E-5</v>
       </c>
     </row>
@@ -31928,19 +32654,19 @@
         <v>116</v>
       </c>
       <c r="D118">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E118" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9999.999664771527</v>
       </c>
       <c r="F118" s="11">
+        <f t="shared" si="14"/>
+        <v>7.4220506576239131E-4</v>
+      </c>
+      <c r="G118" s="11">
         <f t="shared" si="12"/>
-        <v>7.4220506576239131E-4</v>
-      </c>
-      <c r="G118" s="11">
-        <f t="shared" si="10"/>
         <v>7.4220506576239131E-5</v>
       </c>
     </row>
@@ -31949,19 +32675,19 @@
         <v>117</v>
       </c>
       <c r="D119">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E119" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9999.9997255381368</v>
       </c>
       <c r="F119" s="11">
+        <f t="shared" si="14"/>
+        <v>6.0766609749407507E-4</v>
+      </c>
+      <c r="G119" s="11">
         <f t="shared" si="12"/>
-        <v>6.0766609749407507E-4</v>
-      </c>
-      <c r="G119" s="11">
-        <f t="shared" si="10"/>
         <v>6.0766609749407507E-5</v>
       </c>
     </row>
@@ -31970,19 +32696,19 @@
         <v>118</v>
       </c>
       <c r="D120">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E120" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9999.9997752896306</v>
       </c>
       <c r="F120" s="11">
+        <f t="shared" si="14"/>
+        <v>4.9751493861549534E-4</v>
+      </c>
+      <c r="G120" s="11">
         <f t="shared" si="12"/>
-        <v>4.9751493861549534E-4</v>
-      </c>
-      <c r="G120" s="11">
-        <f t="shared" si="10"/>
         <v>4.9751493861549534E-5</v>
       </c>
     </row>
@@ -31991,19 +32717,19 @@
         <v>119</v>
       </c>
       <c r="D121">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E121" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9999.9998160227096</v>
       </c>
       <c r="F121" s="11">
+        <f t="shared" si="14"/>
+        <v>4.073307900398504E-4</v>
+      </c>
+      <c r="G121" s="11">
         <f t="shared" si="12"/>
-        <v>4.073307900398504E-4</v>
-      </c>
-      <c r="G121" s="11">
-        <f t="shared" si="10"/>
         <v>4.073307900398504E-5</v>
       </c>
     </row>
@@ -32012,19 +32738,19 @@
         <v>120</v>
       </c>
       <c r="D122">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E122" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9999.9998493721341</v>
       </c>
       <c r="F122" s="11">
+        <f t="shared" si="14"/>
+        <v>3.3349424484185874E-4</v>
+      </c>
+      <c r="G122" s="11">
         <f t="shared" si="12"/>
-        <v>3.3349424484185874E-4</v>
-      </c>
-      <c r="G122" s="11">
-        <f t="shared" si="10"/>
         <v>3.3349424484185874E-5</v>
       </c>
     </row>
@@ -32033,19 +32759,19 @@
         <v>121</v>
       </c>
       <c r="D123">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E123" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9999.9998766763329</v>
       </c>
       <c r="F123" s="11">
+        <f t="shared" si="14"/>
+        <v>2.7304198738420382E-4</v>
+      </c>
+      <c r="G123" s="11">
         <f t="shared" si="12"/>
-        <v>2.7304198738420382E-4</v>
-      </c>
-      <c r="G123" s="11">
-        <f t="shared" si="10"/>
         <v>2.7304198738420382E-5</v>
       </c>
     </row>
@@ -32054,19 +32780,19 @@
         <v>122</v>
       </c>
       <c r="D124">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E124" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9999.9998990311215</v>
       </c>
       <c r="F124" s="11">
+        <f t="shared" si="14"/>
+        <v>2.2354788598022424E-4</v>
+      </c>
+      <c r="G124" s="11">
         <f t="shared" si="12"/>
-        <v>2.2354788598022424E-4</v>
-      </c>
-      <c r="G124" s="11">
-        <f t="shared" si="10"/>
         <v>2.2354788598022424E-5</v>
       </c>
     </row>
@@ -32075,19 +32801,19 @@
         <v>123</v>
       </c>
       <c r="D125">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E125" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9999.9999173336728</v>
       </c>
       <c r="F125" s="11">
+        <f t="shared" si="14"/>
+        <v>1.8302551325177774E-4</v>
+      </c>
+      <c r="G125" s="11">
         <f t="shared" si="12"/>
-        <v>1.8302551325177774E-4</v>
-      </c>
-      <c r="G125" s="11">
-        <f t="shared" si="10"/>
         <v>1.8302551325177774E-5</v>
       </c>
     </row>
@@ -32096,19 +32822,19 @@
         <v>124</v>
       </c>
       <c r="D126">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E126" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9999.9999323185348</v>
       </c>
       <c r="F126" s="11">
+        <f t="shared" si="14"/>
+        <v>1.4984861991251819E-4</v>
+      </c>
+      <c r="G126" s="11">
         <f t="shared" si="12"/>
-        <v>1.4984861991251819E-4</v>
-      </c>
-      <c r="G126" s="11">
-        <f t="shared" si="10"/>
         <v>1.4984861991251819E-5</v>
       </c>
     </row>
@@ -32117,19 +32843,19 @@
         <v>125</v>
       </c>
       <c r="D127">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E127" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9999.9999445871035</v>
       </c>
       <c r="F127" s="11">
+        <f t="shared" si="14"/>
+        <v>1.2268568752915598E-4</v>
+      </c>
+      <c r="G127" s="11">
         <f t="shared" si="12"/>
-        <v>1.2268568752915598E-4</v>
-      </c>
-      <c r="G127" s="11">
-        <f t="shared" si="10"/>
         <v>1.2268568752915598E-5</v>
       </c>
     </row>
@@ -32138,19 +32864,19 @@
         <v>126</v>
       </c>
       <c r="D128">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E128" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9999.9999546317576</v>
       </c>
       <c r="F128" s="11">
+        <f t="shared" si="14"/>
+        <v>1.0044654118246399E-4</v>
+      </c>
+      <c r="G128" s="11">
         <f t="shared" si="12"/>
-        <v>1.0044654118246399E-4</v>
-      </c>
-      <c r="G128" s="11">
-        <f t="shared" si="10"/>
         <v>1.0044654118246399E-5</v>
       </c>
     </row>
@@ -32159,19 +32885,19 @@
         <v>127</v>
       </c>
       <c r="D129">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E129" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9999.9999628556252</v>
       </c>
       <c r="F129" s="11">
+        <f t="shared" si="14"/>
+        <v>8.2238675531698391E-5</v>
+      </c>
+      <c r="G129" s="11">
         <f t="shared" si="12"/>
-        <v>8.2238675531698391E-5</v>
-      </c>
-      <c r="G129" s="11">
-        <f t="shared" si="10"/>
         <v>8.2238675531698391E-6</v>
       </c>
     </row>
@@ -32180,19 +32906,19 @@
         <v>128</v>
       </c>
       <c r="D130">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E130" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9999.9999695887582</v>
       </c>
       <c r="F130" s="11">
+        <f t="shared" si="14"/>
+        <v>6.7331329773878679E-5</v>
+      </c>
+      <c r="G130" s="11">
         <f t="shared" si="12"/>
-        <v>6.7331329773878679E-5</v>
-      </c>
-      <c r="G130" s="11">
-        <f t="shared" si="10"/>
         <v>6.7331329773878679E-6</v>
       </c>
     </row>
@@ -32201,19 +32927,19 @@
         <v>129</v>
       </c>
       <c r="D131">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E131" s="11">
-        <f t="shared" ref="E131:E149" si="13">$K$2/(1+$K$5*EXP(-$K$4*B131))</f>
+        <f t="shared" ref="E131:E149" si="15">$K$2/(1+$K$5*EXP(-$K$4*B131))</f>
         <v>9999.999975101382</v>
       </c>
       <c r="F131" s="11">
+        <f t="shared" si="14"/>
+        <v>5.512623829417862E-5</v>
+      </c>
+      <c r="G131" s="11">
         <f t="shared" si="12"/>
-        <v>5.512623829417862E-5</v>
-      </c>
-      <c r="G131" s="11">
-        <f t="shared" si="10"/>
         <v>5.512623829417862E-6</v>
       </c>
     </row>
@@ -32222,19 +32948,19 @@
         <v>130</v>
       </c>
       <c r="D132">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E132" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>9999.9999796147349</v>
       </c>
       <c r="F132" s="11">
-        <f t="shared" ref="F132:F149" si="14">(E132-E131)*10</f>
+        <f t="shared" ref="F132:F149" si="16">(E132-E131)*10</f>
         <v>4.513352905632928E-5</v>
       </c>
       <c r="G132" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>4.513352905632928E-6</v>
       </c>
     </row>
@@ -32243,19 +32969,19 @@
         <v>131</v>
       </c>
       <c r="D133">
-        <f t="shared" ref="D133:D149" si="15">C133-C132</f>
+        <f t="shared" ref="D133:D149" si="17">C133-C132</f>
         <v>0</v>
       </c>
       <c r="E133" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>9999.9999833099573</v>
       </c>
       <c r="F133" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3.6952224036213011E-5</v>
       </c>
       <c r="G133" s="11">
-        <f t="shared" ref="G133:G149" si="16">E133-E132</f>
+        <f t="shared" ref="G133:G149" si="18">E133-E132</f>
         <v>3.6952224036213011E-6</v>
       </c>
     </row>
@@ -32264,19 +32990,19 @@
         <v>132</v>
       </c>
       <c r="D134">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="E134" s="11">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="E134" s="11">
-        <f t="shared" si="13"/>
         <v>9999.9999863353478</v>
       </c>
       <c r="F134" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3.0253904697019607E-5</v>
       </c>
       <c r="G134" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>3.0253904697019607E-6</v>
       </c>
     </row>
@@ -32285,19 +33011,19 @@
         <v>133</v>
       </c>
       <c r="D135">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="E135" s="11">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="E135" s="11">
-        <f t="shared" si="13"/>
         <v>9999.9999888123293</v>
       </c>
       <c r="F135" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2.4769815354375169E-5</v>
       </c>
       <c r="G135" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2.4769815354375169E-6</v>
       </c>
     </row>
@@ -32306,19 +33032,19 @@
         <v>134</v>
       </c>
       <c r="D136">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="E136" s="11">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="E136" s="11">
-        <f t="shared" si="13"/>
         <v>9999.9999908403097</v>
       </c>
       <c r="F136" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2.0279803720768541E-5</v>
       </c>
       <c r="G136" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2.0279803720768541E-6</v>
       </c>
     </row>
@@ -32327,19 +33053,19 @@
         <v>135</v>
       </c>
       <c r="D137">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="E137" s="11">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="E137" s="11">
-        <f t="shared" si="13"/>
         <v>9999.9999925006814</v>
       </c>
       <c r="F137" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1.6603717085672542E-5</v>
       </c>
       <c r="G137" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.6603717085672542E-6</v>
       </c>
     </row>
@@ -32348,19 +33074,19 @@
         <v>136</v>
       </c>
       <c r="D138">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="E138" s="11">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="E138" s="11">
-        <f t="shared" si="13"/>
         <v>9999.9999938600758</v>
       </c>
       <c r="F138" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1.3593944458989426E-5</v>
       </c>
       <c r="G138" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.3593944458989426E-6</v>
       </c>
     </row>
@@ -32369,19 +33095,19 @@
         <v>137</v>
       </c>
       <c r="D139">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="E139" s="11">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="E139" s="11">
-        <f t="shared" si="13"/>
         <v>9999.9999949730536</v>
       </c>
       <c r="F139" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1.112977770389989E-5</v>
       </c>
       <c r="G139" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.112977770389989E-6</v>
       </c>
     </row>
@@ -32390,19 +33116,19 @@
         <v>138</v>
       </c>
       <c r="D140">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="E140" s="11">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="E140" s="11">
-        <f t="shared" si="13"/>
         <v>9999.9999958842855</v>
       </c>
       <c r="F140" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>9.1123183665331453E-6</v>
       </c>
       <c r="G140" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>9.1123183665331453E-7</v>
       </c>
     </row>
@@ -32411,19 +33137,19 @@
         <v>139</v>
       </c>
       <c r="D141">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="E141" s="11">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="E141" s="11">
-        <f t="shared" si="13"/>
         <v>9999.9999966303385</v>
       </c>
       <c r="F141" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>7.460530468961224E-6</v>
       </c>
       <c r="G141" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>7.460530468961224E-7</v>
       </c>
     </row>
@@ -32432,19 +33158,19 @@
         <v>140</v>
       </c>
       <c r="D142">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="E142" s="11">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="E142" s="11">
-        <f t="shared" si="13"/>
         <v>9999.9999972411533</v>
       </c>
       <c r="F142" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>6.1081482272129506E-6</v>
       </c>
       <c r="G142" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>6.1081482272129506E-7</v>
       </c>
     </row>
@@ -32453,19 +33179,19 @@
         <v>141</v>
       </c>
       <c r="D143">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="E143" s="11">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="E143" s="11">
-        <f t="shared" si="13"/>
         <v>9999.9999977412499</v>
       </c>
       <c r="F143" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>5.0009657570626587E-6</v>
       </c>
       <c r="G143" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>5.0009657570626587E-7</v>
       </c>
     </row>
@@ -32474,19 +33200,19 @@
         <v>142</v>
       </c>
       <c r="D144">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="E144" s="11">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="E144" s="11">
-        <f t="shared" si="13"/>
         <v>9999.9999981506899</v>
       </c>
       <c r="F144" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>4.0943996282294393E-6</v>
       </c>
       <c r="G144" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>4.0943996282294393E-7</v>
       </c>
     </row>
@@ -32495,19 +33221,19 @@
         <v>143</v>
       </c>
       <c r="D145">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="E145" s="11">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="E145" s="11">
-        <f t="shared" si="13"/>
         <v>9999.9999984859132</v>
       </c>
       <c r="F145" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3.3522337616886944E-6</v>
       </c>
       <c r="G145" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>3.3522337616886944E-7</v>
       </c>
     </row>
@@ -32516,19 +33242,19 @@
         <v>144</v>
       </c>
       <c r="D146">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="E146" s="11">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="E146" s="11">
-        <f t="shared" si="13"/>
         <v>9999.9999987603715</v>
       </c>
       <c r="F146" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2.7445821615401655E-6</v>
       </c>
       <c r="G146" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2.7445821615401655E-7</v>
       </c>
     </row>
@@ -32537,19 +33263,19 @@
         <v>145</v>
       </c>
       <c r="D147">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="E147" s="11">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="E147" s="11">
-        <f t="shared" si="13"/>
         <v>9999.9999989850767</v>
       </c>
       <c r="F147" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2.2470521798823029E-6</v>
       </c>
       <c r="G147" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2.2470521798823029E-7</v>
       </c>
     </row>
@@ -32558,19 +33284,19 @@
         <v>146</v>
       </c>
       <c r="D148">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="E148" s="11">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="E148" s="11">
-        <f t="shared" si="13"/>
         <v>9999.9999991690511</v>
       </c>
       <c r="F148" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1.8397440726403147E-6</v>
       </c>
       <c r="G148" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.8397440726403147E-7</v>
       </c>
     </row>
@@ -32579,19 +33305,19 @@
         <v>147</v>
       </c>
       <c r="D149">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="E149" s="11">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="E149" s="11">
-        <f t="shared" si="13"/>
         <v>9999.999999319678</v>
       </c>
       <c r="F149" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1.5062687452882528E-6</v>
       </c>
       <c r="G149" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.5062687452882528E-7</v>
       </c>
     </row>
@@ -32611,7 +33337,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="I37" sqref="I37:I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -32764,7 +33490,7 @@
         <v>0.42852209210034164</v>
       </c>
       <c r="I5" s="11">
-        <f t="shared" ref="I5:I36" si="5">C5-F5</f>
+        <f t="shared" ref="I5:I38" si="5">C5-F5</f>
         <v>-2.3670678976232833</v>
       </c>
       <c r="J5" s="11"/>
@@ -33958,9 +34684,20 @@
       <c r="B37" s="10">
         <v>35</v>
       </c>
-      <c r="C37" s="3"/>
+      <c r="C37" s="3">
+        <f>Dati!J37</f>
+        <v>684</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ref="D37" si="7">C37-C36</f>
+        <v>67</v>
+      </c>
+      <c r="E37">
+        <f t="shared" ref="E37" si="8">10*(C37-C36)</f>
+        <v>670</v>
+      </c>
       <c r="F37" s="11">
-        <f t="shared" ref="F37:F59" si="7">$L$2/(1+$L$5*EXP(-$L$4*B37))</f>
+        <f t="shared" ref="F37:F59" si="9">$L$2/(1+$L$5*EXP(-$L$4*B37))</f>
         <v>731.25799764717965</v>
       </c>
       <c r="G37" s="11">
@@ -33971,7 +34708,10 @@
         <f t="shared" si="4"/>
         <v>74.518717364597478</v>
       </c>
-      <c r="I37" s="11"/>
+      <c r="I37" s="11">
+        <f t="shared" si="5"/>
+        <v>-47.25799764717965</v>
+      </c>
       <c r="J37" s="11"/>
     </row>
     <row r="38" spans="1:10">
@@ -33981,9 +34721,20 @@
       <c r="B38" s="10">
         <v>36</v>
       </c>
-      <c r="C38" s="3"/>
+      <c r="C38" s="3">
+        <f>Dati!J38</f>
+        <v>749</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ref="D38" si="10">C38-C37</f>
+        <v>65</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ref="E38" si="11">10*(C38-C37)</f>
+        <v>650</v>
+      </c>
       <c r="F38" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>806.14883999727772</v>
       </c>
       <c r="G38" s="11">
@@ -33994,7 +34745,10 @@
         <f t="shared" si="4"/>
         <v>74.890842350098069</v>
       </c>
-      <c r="I38" s="11"/>
+      <c r="I38" s="11">
+        <f t="shared" si="5"/>
+        <v>-57.148839997277719</v>
+      </c>
       <c r="J38" s="11"/>
     </row>
     <row r="39" spans="1:10">
@@ -34006,7 +34760,7 @@
       </c>
       <c r="C39" s="3"/>
       <c r="F39" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>879.93034041283602</v>
       </c>
       <c r="G39" s="11">
@@ -34029,7 +34783,7 @@
       </c>
       <c r="C40" s="3"/>
       <c r="F40" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>951.20718673198485</v>
       </c>
       <c r="G40" s="11">
@@ -34052,7 +34806,7 @@
       </c>
       <c r="C41" s="3"/>
       <c r="F41" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1018.7716178161419</v>
       </c>
       <c r="G41" s="11">
@@ -34075,7 +34829,7 @@
       </c>
       <c r="C42" s="3"/>
       <c r="F42" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1081.6760611213165</v>
       </c>
       <c r="G42" s="11">
@@ -34098,7 +34852,7 @@
       </c>
       <c r="C43" s="3"/>
       <c r="F43" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1139.26936723882</v>
       </c>
       <c r="G43" s="11">
@@ -34121,7 +34875,7 @@
       </c>
       <c r="C44" s="3"/>
       <c r="F44" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1191.1971201745266</v>
       </c>
       <c r="G44" s="11">
@@ -34144,7 +34898,7 @@
       </c>
       <c r="C45" s="3"/>
       <c r="F45" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1237.3729634866761</v>
       </c>
       <c r="G45" s="11">
@@ -34167,7 +34921,7 @@
       </c>
       <c r="C46" s="3"/>
       <c r="F46" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1277.931268906525</v>
       </c>
       <c r="G46" s="11">
@@ -34190,7 +34944,7 @@
       </c>
       <c r="C47" s="3"/>
       <c r="F47" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1313.1717487537842</v>
       </c>
       <c r="G47" s="11">
@@ -34213,7 +34967,7 @@
       </c>
       <c r="C48" s="3"/>
       <c r="F48" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1343.5046959382366</v>
       </c>
       <c r="G48" s="11">
@@ -34236,7 +34990,7 @@
       </c>
       <c r="C49" s="3"/>
       <c r="F49" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1369.4026432814512</v>
       </c>
       <c r="G49" s="11">
@@ -34259,7 +35013,7 @@
       </c>
       <c r="C50" s="3"/>
       <c r="F50" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1391.3613723570697</v>
       </c>
       <c r="G50" s="11">
@@ -34282,7 +35036,7 @@
       </c>
       <c r="C51" s="3"/>
       <c r="F51" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1409.8709497998905</v>
       </c>
       <c r="G51" s="11">
@@ -34305,7 +35059,7 @@
       </c>
       <c r="C52" s="3"/>
       <c r="F52" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1425.3960068098686</v>
       </c>
       <c r="G52" s="11">
@@ -34328,7 +35082,7 @@
       </c>
       <c r="C53" s="3"/>
       <c r="F53" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1438.3637281028443</v>
       </c>
       <c r="G53" s="11">
@@ -34351,7 +35105,7 @@
       </c>
       <c r="C54" s="3"/>
       <c r="F54" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1449.1577901335907</v>
       </c>
       <c r="G54" s="11">
@@ -34374,7 +35128,7 @@
       </c>
       <c r="C55" s="3"/>
       <c r="F55" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1458.1165839148912</v>
       </c>
       <c r="G55" s="11">
@@ -34397,7 +35151,7 @@
       </c>
       <c r="C56" s="3"/>
       <c r="F56" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1465.5343128482104</v>
       </c>
       <c r="G56" s="11">
@@ -34420,7 +35174,7 @@
       </c>
       <c r="C57" s="3"/>
       <c r="F57" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1471.6638606761974</v>
       </c>
       <c r="G57" s="11">
@@ -34443,7 +35197,7 @@
       </c>
       <c r="C58" s="3"/>
       <c r="F58" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1476.7206153951374</v>
       </c>
       <c r="G58" s="11">
@@ -34466,7 +35220,7 @@
       </c>
       <c r="C59" s="3"/>
       <c r="F59" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1480.8866818593795</v>
       </c>
       <c r="G59" s="11">
@@ -34489,7 +35243,7 @@
       </c>
       <c r="C60" s="3"/>
       <c r="F60" s="11">
-        <f t="shared" ref="F60:F67" si="8">$L$2/(1+$L$5*EXP(-$L$4*B60))</f>
+        <f t="shared" ref="F60:F67" si="12">$L$2/(1+$L$5*EXP(-$L$4*B60))</f>
         <v>1484.3151101381839</v>
       </c>
       <c r="G60" s="11">
@@ -34512,7 +35266,7 @@
       </c>
       <c r="C61" s="3"/>
       <c r="F61" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1487.1339111704256</v>
       </c>
       <c r="G61" s="11">
@@ -34535,7 +35289,7 @@
       </c>
       <c r="C62" s="3"/>
       <c r="F62" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1489.4497336647862</v>
       </c>
       <c r="G62" s="11">
@@ -34558,7 +35312,7 @@
       </c>
       <c r="C63" s="3"/>
       <c r="F63" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1491.3511455614687</v>
       </c>
       <c r="G63" s="11">
@@ -34581,7 +35335,7 @@
       </c>
       <c r="C64" s="3"/>
       <c r="F64" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1492.9115081360642</v>
       </c>
       <c r="G64" s="11">
@@ -34604,7 +35358,7 @@
       </c>
       <c r="C65" s="3"/>
       <c r="F65" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1494.1914580219316</v>
       </c>
       <c r="G65" s="11">
@@ -34627,7 +35381,7 @@
       </c>
       <c r="C66" s="3"/>
       <c r="F66" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1495.2410275387863</v>
       </c>
       <c r="G66" s="11">
@@ -34650,7 +35404,7 @@
       </c>
       <c r="C67" s="3"/>
       <c r="F67" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1496.1014408176516</v>
       </c>
       <c r="G67" s="11">
@@ -34677,10 +35431,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -35397,6 +36151,52 @@
         <v>-27</v>
       </c>
     </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="2">
+        <v>43919</v>
+      </c>
+      <c r="B37" s="3">
+        <f>Dati!K37</f>
+        <v>8206</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ref="C37" si="3">B37-B36</f>
+        <v>535</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ref="D37" si="4">C37-C36</f>
+        <v>-44</v>
+      </c>
+      <c r="E37">
+        <f t="shared" ref="E37" si="5">D37-D36</f>
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="2">
+        <v>43920</v>
+      </c>
+      <c r="B38" s="3">
+        <f>Dati!K38</f>
+        <v>8712</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ref="C38:C39" si="6">B38-B37</f>
+        <v>506</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ref="D38:D39" si="7">C38-C37</f>
+        <v>-29</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ref="E38:E39" si="8">D38-D37</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="2"/>
+      <c r="B39" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -35409,10 +36209,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B36"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -36129,6 +36929,48 @@
         <v>-11</v>
       </c>
     </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="2">
+        <v>43919</v>
+      </c>
+      <c r="B37" s="3">
+        <f>Dati!D37</f>
+        <v>443</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ref="C37" si="3">B37-B36</f>
+        <v>4</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ref="D37" si="4">C37-C36</f>
+        <v>-4</v>
+      </c>
+      <c r="E37">
+        <f t="shared" ref="E37" si="5">D37-D36</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="2">
+        <v>43920</v>
+      </c>
+      <c r="B38" s="3">
+        <f>Dati!D38</f>
+        <v>452</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ref="C38" si="6">B38-B37</f>
+        <v>9</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ref="D38" si="7">C38-C37</f>
+        <v>5</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ref="E38" si="8">D38-D37</f>
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
   <drawing r:id="rId1"/>
@@ -36137,10 +36979,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B36"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -36858,6 +37700,48 @@
         <v>61</v>
       </c>
     </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="2">
+        <v>43919</v>
+      </c>
+      <c r="B37" s="3">
+        <f>Dati!I37</f>
+        <v>254</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ref="C37" si="3">B37-B36</f>
+        <v>51</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ref="D37" si="4">C37-C36</f>
+        <v>24</v>
+      </c>
+      <c r="E37">
+        <f t="shared" ref="E37" si="5">D37-D36</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="2">
+        <v>43920</v>
+      </c>
+      <c r="B38" s="3">
+        <f>Dati!I38</f>
+        <v>308</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ref="C38" si="6">B38-B37</f>
+        <v>54</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ref="D38" si="7">C38-C37</f>
+        <v>3</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ref="E38" si="8">D38-D37</f>
+        <v>-21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -36870,10 +37754,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B36"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -37591,6 +38475,48 @@
         <v>-192</v>
       </c>
     </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="2">
+        <v>43919</v>
+      </c>
+      <c r="B37" s="3">
+        <f>Dati!J37</f>
+        <v>684</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ref="C37" si="3">B37-B36</f>
+        <v>67</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ref="D37" si="4">C37-C36</f>
+        <v>19</v>
+      </c>
+      <c r="E37">
+        <f t="shared" ref="E37" si="5">D37-D36</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="2">
+        <v>43920</v>
+      </c>
+      <c r="B38" s="3">
+        <f>Dati!J38</f>
+        <v>749</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ref="C38" si="6">B38-B37</f>
+        <v>65</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ref="D38" si="7">C38-C37</f>
+        <v>-2</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ref="E38" si="8">D38-D37</f>
+        <v>-21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -37603,10 +38529,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B36"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -38324,6 +39250,48 @@
         <v>-118</v>
       </c>
     </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="2">
+        <v>43919</v>
+      </c>
+      <c r="B37" s="3">
+        <f>Dati!E37</f>
+        <v>3428</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ref="C37" si="3">B37-B36</f>
+        <v>-105</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ref="D37" si="4">C37-C36</f>
+        <v>-355</v>
+      </c>
+      <c r="E37">
+        <f t="shared" ref="E37" si="5">D37-D36</f>
+        <v>-363</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="2">
+        <v>43920</v>
+      </c>
+      <c r="B38" s="3">
+        <f>Dati!E38</f>
+        <v>3437</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ref="C38" si="6">B38-B37</f>
+        <v>9</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ref="D38" si="7">C38-C37</f>
+        <v>114</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ref="E38" si="8">D38-D37</f>
+        <v>469</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -38336,10 +39304,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B36"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -39058,6 +40026,48 @@
         <v>104</v>
       </c>
     </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="2">
+        <v>43919</v>
+      </c>
+      <c r="B37" s="3">
+        <f>Dati!G37</f>
+        <v>7268</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ref="C37" si="3">B37-B36</f>
+        <v>417</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ref="D37" si="4">C37-C36</f>
+        <v>-87</v>
+      </c>
+      <c r="E37">
+        <f t="shared" ref="E37" si="5">D37-D36</f>
+        <v>-194</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="2">
+        <v>43920</v>
+      </c>
+      <c r="B38" s="3">
+        <f>Dati!G38</f>
+        <v>7655</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ref="C38" si="6">B38-B37</f>
+        <v>387</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ref="D38" si="7">C38-C37</f>
+        <v>-30</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ref="E38" si="8">D38-D37</f>
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -39070,10 +40080,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B36"/>
+      <selection activeCell="A37" sqref="A37:E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -39791,6 +40801,48 @@
         <v>222</v>
       </c>
     </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="2">
+        <v>43919</v>
+      </c>
+      <c r="B37" s="3">
+        <f>Dati!F37</f>
+        <v>3840</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ref="C37" si="3">B37-B36</f>
+        <v>522</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ref="D37" si="4">C37-C36</f>
+        <v>268</v>
+      </c>
+      <c r="E37">
+        <f t="shared" ref="E37" si="5">D37-D36</f>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="2">
+        <v>43920</v>
+      </c>
+      <c r="B38" s="3">
+        <f>Dati!F38</f>
+        <v>4218</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ref="C38" si="6">B38-B37</f>
+        <v>378</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ref="D38" si="7">C38-C37</f>
+        <v>-144</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ref="E38" si="8">D38-D37</f>
+        <v>-412</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -39803,10 +40855,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -39890,11 +40942,11 @@
         <v>47</v>
       </c>
       <c r="J4" s="6">
-        <f t="shared" ref="J3:J36" si="1">100/H4</f>
+        <f t="shared" ref="J4:J36" si="1">100/H4</f>
         <v>2.1276595744680851</v>
       </c>
       <c r="K4" s="6">
-        <f t="shared" ref="K3:K36" si="2">100/I4</f>
+        <f t="shared" ref="K4:K36" si="2">100/I4</f>
         <v>2.1276595744680851</v>
       </c>
     </row>
@@ -41055,6 +42107,78 @@
       <c r="K36" s="6">
         <f t="shared" si="2"/>
         <v>31.848821533169076</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="2">
+        <v>43919</v>
+      </c>
+      <c r="B37" s="10">
+        <v>35</v>
+      </c>
+      <c r="C37" s="3">
+        <f>Dati!L37</f>
+        <v>24058</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ref="D37" si="4">C37-C36</f>
+        <v>2547</v>
+      </c>
+      <c r="E37">
+        <f t="shared" ref="E37" si="5">D37-D36</f>
+        <v>741</v>
+      </c>
+      <c r="H37" s="5">
+        <f>C37/Casi_totali!B37</f>
+        <v>2.9317572507921033</v>
+      </c>
+      <c r="I37" s="5">
+        <f>C37/Positivi!B37</f>
+        <v>3.3101265822784809</v>
+      </c>
+      <c r="J37" s="6">
+        <f t="shared" ref="J37" si="6">100/H37</f>
+        <v>34.109236012968658</v>
+      </c>
+      <c r="K37" s="6">
+        <f t="shared" ref="K37" si="7">100/I37</f>
+        <v>30.210325047801149</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="2">
+        <v>43920</v>
+      </c>
+      <c r="B38" s="10">
+        <v>36</v>
+      </c>
+      <c r="C38" s="3">
+        <f>Dati!L38</f>
+        <v>25478</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ref="D38" si="8">C38-C37</f>
+        <v>1420</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ref="E38" si="9">D38-D37</f>
+        <v>-1127</v>
+      </c>
+      <c r="H38" s="5">
+        <f>C38/Casi_totali!B38</f>
+        <v>2.9244719926538107</v>
+      </c>
+      <c r="I38" s="5">
+        <f>C38/Positivi!B38</f>
+        <v>3.3282821685173087</v>
+      </c>
+      <c r="J38" s="6">
+        <f t="shared" ref="J38" si="10">100/H38</f>
+        <v>34.194206766622187</v>
+      </c>
+      <c r="K38" s="6">
+        <f t="shared" ref="K38" si="11">100/I38</f>
+        <v>30.045529476411023</v>
       </c>
     </row>
   </sheetData>

--- a/covid_pie.xlsx
+++ b/covid_pie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carpaneto\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA462D3-B9C8-49E1-B7BF-E2A2EE168AB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC6978B7-2348-4414-B686-DEED2C1E971F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="37">
   <si>
     <t>data</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>Piemonte</t>
+  </si>
+  <si>
+    <t>nuovi positivi</t>
   </si>
 </sst>
 </file>
@@ -602,6 +605,12 @@
                 <c:pt idx="35">
                   <c:v>43920</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -718,6 +727,12 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>8712</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9301</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9795</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -870,6 +885,12 @@
                 <c:pt idx="35">
                   <c:v>43920</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -983,6 +1004,12 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>506</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>589</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>494</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1131,6 +1158,12 @@
                 <c:pt idx="35">
                   <c:v>43920</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1241,6 +1274,12 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>-29</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-95</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1393,6 +1432,12 @@
                 <c:pt idx="35">
                   <c:v>43920</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1500,6 +1545,12 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-178</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1741,7 +1792,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Ospedalizzati!$C$1:$C$1</c:f>
+              <c:f>Ospedalizzati!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1765,10 +1816,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Ospedalizzati!$A$3:$A$40</c:f>
+              <c:f>Ospedalizzati!$A$3:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -1876,16 +1927,22 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Ospedalizzati!$C$3:$C$40</c:f>
+              <c:f>Ospedalizzati!$C$3:$C$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1990,6 +2047,12 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2006,7 +2069,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Ospedalizzati!$D$1:$D$1</c:f>
+              <c:f>Ospedalizzati!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2030,10 +2093,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Ospedalizzati!$A$3:$A$40</c:f>
+              <c:f>Ospedalizzati!$A$3:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -2141,16 +2204,22 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Ospedalizzati!$D$3:$D$40</c:f>
+              <c:f>Ospedalizzati!$D$3:$D$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2252,6 +2321,12 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2268,7 +2343,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Ospedalizzati!$E$1:$E$1</c:f>
+              <c:f>Ospedalizzati!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2288,10 +2363,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Ospedalizzati!$A$3:$A$40</c:f>
+              <c:f>Ospedalizzati!$A$3:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -2399,16 +2474,22 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Ospedalizzati!$E$3:$E$40</c:f>
+              <c:f>Ospedalizzati!$E$3:$E$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2507,6 +2588,12 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>469</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-396</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2757,7 +2844,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Positivi!$B$1:$B$1</c:f>
+              <c:f>Positivi!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2781,10 +2868,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Positivi!$A$3:$A$38</c:f>
+              <c:f>Positivi!$A$3:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -2892,16 +2979,22 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Positivi!$B$3:$B$38</c:f>
+              <c:f>Positivi!$B$3:$B$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -3009,6 +3102,12 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>7655</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8082</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8470</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3025,7 +3124,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Positivi!$C$1:$C$1</c:f>
+              <c:f>Positivi!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3049,10 +3148,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Positivi!$A$3:$A$38</c:f>
+              <c:f>Positivi!$A$3:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -3160,16 +3259,22 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Positivi!$C$3:$C$38</c:f>
+              <c:f>Positivi!$C$3:$C$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3274,6 +3379,12 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>387</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>427</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>388</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3290,7 +3401,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Positivi!$D$1:$D$1</c:f>
+              <c:f>Positivi!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3310,10 +3421,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Positivi!$A$3:$A$38</c:f>
+              <c:f>Positivi!$A$3:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -3421,16 +3532,22 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Positivi!$D$3:$D$38</c:f>
+              <c:f>Positivi!$D$3:$D$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3532,6 +3649,12 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-39</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3548,7 +3671,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Positivi!$E$1:$E$1</c:f>
+              <c:f>Positivi!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3572,10 +3695,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Positivi!$A$3:$A$38</c:f>
+              <c:f>Positivi!$A$3:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -3683,16 +3806,22 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Positivi!$E$3:$E$38</c:f>
+              <c:f>Positivi!$E$3:$E$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="3">
                   <c:v>-1</c:v>
                 </c:pt>
@@ -3791,6 +3920,12 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-79</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4032,7 +4167,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Positivi!$C$1:$C$1</c:f>
+              <c:f>Positivi!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4056,10 +4191,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Positivi!$A$3:$A$38</c:f>
+              <c:f>Positivi!$A$3:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -4167,16 +4302,22 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Positivi!$C$3:$C$38</c:f>
+              <c:f>Positivi!$C$3:$C$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4281,6 +4422,12 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>387</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>427</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>388</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4297,7 +4444,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Positivi!$D$1:$D$1</c:f>
+              <c:f>Positivi!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4321,10 +4468,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Positivi!$A$3:$A$38</c:f>
+              <c:f>Positivi!$A$3:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -4432,16 +4579,22 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Positivi!$D$3:$D$38</c:f>
+              <c:f>Positivi!$D$3:$D$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4543,6 +4696,12 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-39</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4559,7 +4718,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Positivi!$E$1:$E$1</c:f>
+              <c:f>Positivi!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4579,10 +4738,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Positivi!$A$3:$A$38</c:f>
+              <c:f>Positivi!$A$3:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -4690,16 +4849,22 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Positivi!$E$3:$E$38</c:f>
+              <c:f>Positivi!$E$3:$E$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="3">
                   <c:v>-1</c:v>
                 </c:pt>
@@ -4798,6 +4963,12 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-79</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5097,10 +5268,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Positivi!$A$3:$A$37</c:f>
+              <c:f>Positivi!$A$3:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -5205,16 +5376,25 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Positivi!$B$3:$B$37</c:f>
+              <c:f>Positivi!$B$3:$B$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -5319,6 +5499,15 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>7268</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7655</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8082</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8470</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5538,7 +5727,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Quarantena!$B$1:$B$1</c:f>
+              <c:f>Quarantena!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5562,10 +5751,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Quarantena!$A$3:$A$37</c:f>
+              <c:f>Quarantena!$A$3:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -5670,16 +5859,25 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Quarantena!$B$3:$B$37</c:f>
+              <c:f>Quarantena!$B$3:$B$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -5784,6 +5982,15 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>3840</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4218</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4456</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4871</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5800,7 +6007,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Quarantena!$C$1:$C$1</c:f>
+              <c:f>Quarantena!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5824,10 +6031,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Quarantena!$A$3:$A$37</c:f>
+              <c:f>Quarantena!$A$3:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -5932,16 +6139,25 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Quarantena!$C$3:$C$37</c:f>
+              <c:f>Quarantena!$C$3:$C$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6043,6 +6259,15 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>522</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>415</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6059,7 +6284,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Quarantena!$D$1:$D$1</c:f>
+              <c:f>Quarantena!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6079,10 +6304,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Quarantena!$A$3:$A$37</c:f>
+              <c:f>Quarantena!$A$3:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -6187,16 +6412,25 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Quarantena!$D$3:$D$37</c:f>
+              <c:f>Quarantena!$D$3:$D$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6295,6 +6529,15 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-144</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-140</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>177</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6311,7 +6554,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Quarantena!$E$1:$E$1</c:f>
+              <c:f>Quarantena!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6335,10 +6578,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Quarantena!$A$3:$A$37</c:f>
+              <c:f>Quarantena!$A$3:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -6443,16 +6686,25 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Quarantena!$E$3:$E$37</c:f>
+              <c:f>Quarantena!$E$3:$E$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="3">
                   <c:v>-1</c:v>
                 </c:pt>
@@ -6548,6 +6800,15 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-412</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>317</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6789,7 +7050,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Quarantena!$C$1:$C$1</c:f>
+              <c:f>Quarantena!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6813,10 +7074,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Quarantena!$A$3:$A$39</c:f>
+              <c:f>Quarantena!$A$3:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -6924,16 +7185,22 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Quarantena!$C$3:$C$39</c:f>
+              <c:f>Quarantena!$C$3:$C$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7038,6 +7305,12 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>415</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7054,7 +7327,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Quarantena!$D$1:$D$1</c:f>
+              <c:f>Quarantena!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7078,10 +7351,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Quarantena!$A$3:$A$39</c:f>
+              <c:f>Quarantena!$A$3:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -7189,16 +7462,22 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Quarantena!$D$3:$D$39</c:f>
+              <c:f>Quarantena!$D$3:$D$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7300,6 +7579,12 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>-144</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-140</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>177</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7316,7 +7601,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Quarantena!$E$1:$E$1</c:f>
+              <c:f>Quarantena!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7336,10 +7621,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Quarantena!$A$3:$A$39</c:f>
+              <c:f>Quarantena!$A$3:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -7447,16 +7732,22 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Quarantena!$E$3:$E$39</c:f>
+              <c:f>Quarantena!$E$3:$E$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="3">
                   <c:v>-1</c:v>
                 </c:pt>
@@ -7555,6 +7846,12 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>-412</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>317</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7977,6 +8274,12 @@
                 <c:pt idx="35">
                   <c:v>43920</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -8093,6 +8396,12 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>25478</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>27658</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>30060</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8481,6 +8790,9 @@
                 <c:pt idx="35">
                   <c:v>43920</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -8594,6 +8906,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>1420</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2180</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8993,6 +9308,12 @@
                 <c:pt idx="35">
                   <c:v>43920</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -9106,6 +9427,12 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>2.9244719926538107</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.973658746371358</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.0689127105666154</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9258,6 +9585,12 @@
                 <c:pt idx="35">
                   <c:v>43920</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -9371,6 +9704,12 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>3.3282821685173087</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.4221727295223956</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.548996458087367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9669,7 +10008,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tamponi!$J$1:$J$1</c:f>
+              <c:f>Tamponi!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9693,10 +10032,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tamponi!$A$3:$A$39</c:f>
+              <c:f>Tamponi!$A$3:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>43885</c:v>
                 </c:pt>
@@ -9804,16 +10143,22 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tamponi!$J$3:$J$39</c:f>
+              <c:f>Tamponi!$J$3:$J$42</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="1">
                   <c:v>2.1276595744680851</c:v>
                 </c:pt>
@@ -9918,6 +10263,12 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>34.194206766622187</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>33.628606551449849</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>32.584830339321357</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9934,7 +10285,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tamponi!$K$1:$K$1</c:f>
+              <c:f>Tamponi!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9958,10 +10309,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tamponi!$A$2:$A$39</c:f>
+              <c:f>Tamponi!$A$2:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="1">
                   <c:v>43885</c:v>
                 </c:pt>
@@ -10069,16 +10420,22 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43922</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tamponi!$K$2:$K$39</c:f>
+              <c:f>Tamponi!$K$2:$K$42</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="2">
                   <c:v>2.1276595744680851</c:v>
                 </c:pt>
@@ -10183,6 +10540,12 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>30.045529476411023</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>29.221201822257573</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>28.176979374584167</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10445,7 +10808,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Casi_totali!$C$1:$C$1</c:f>
+              <c:f>Casi_totali!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10469,10 +10832,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Casi_totali!$A$3:$A$37</c:f>
+              <c:f>Casi_totali!$A$3:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -10577,16 +10940,25 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Casi_totali!$C$3:$C$37</c:f>
+              <c:f>Casi_totali!$C$3:$C$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10688,6 +11060,15 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>535</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>506</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>589</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>494</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10704,7 +11085,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Casi_totali!$D$1:$D$1</c:f>
+              <c:f>Casi_totali!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10728,10 +11109,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Casi_totali!$A$3:$A$37</c:f>
+              <c:f>Casi_totali!$A$3:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -10836,16 +11217,25 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Casi_totali!$D$3:$D$37</c:f>
+              <c:f>Casi_totali!$D$3:$D$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10944,6 +11334,15 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>-44</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-29</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-95</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10960,7 +11359,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Casi_totali!$E$1:$E$1</c:f>
+              <c:f>Casi_totali!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10980,10 +11379,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Casi_totali!$A$3:$A$37</c:f>
+              <c:f>Casi_totali!$A$3:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -11088,16 +11487,25 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Casi_totali!$E$3:$E$37</c:f>
+              <c:f>Casi_totali!$E$3:$E$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="3">
                   <c:v>-1</c:v>
                 </c:pt>
@@ -11193,6 +11601,15 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>-65</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-178</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11444,7 +11861,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Analisi-pos'!$C$1:$C$1</c:f>
+              <c:f>'Analisi-pos'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11468,10 +11885,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Analisi-pos'!$B$3:$B$38</c:f>
+              <c:f>'Analisi-pos'!$B$3:$B$42</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -11579,16 +11996,28 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Analisi-pos'!$C$3:$C$38</c:f>
+              <c:f>'Analisi-pos'!$C$3:$C$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -11696,6 +12125,12 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>7655</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8082</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8470</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12894,10 +13329,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Analisi-pos'!$A$3:$A$37</c:f>
+              <c:f>'Analisi-pos'!$A$3:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -13002,16 +13437,37 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43925</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43926</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Analisi-pos'!$C$3:$C$37</c:f>
+              <c:f>'Analisi-pos'!$C$3:$C$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -13116,6 +13572,15 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>7268</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7655</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8082</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8470</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13345,7 +13810,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Analisi-pos'!$C$1:$C$1</c:f>
+              <c:f>'Analisi-pos'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13369,10 +13834,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Analisi-pos'!$B$3:$B$38</c:f>
+              <c:f>'Analisi-pos'!$B$3:$B$45</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -13480,16 +13945,37 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Analisi-pos'!$C$3:$C$38</c:f>
+              <c:f>'Analisi-pos'!$C$3:$C$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -13597,6 +14083,12 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>7655</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8082</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8470</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14581,7 +15073,7 @@
         <c:axId val="448855200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="40"/>
+          <c:max val="50"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -15040,6 +15532,12 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>-49.82662771449759</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>42.702962237399333</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>134.44469897054296</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15265,7 +15763,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Analisi-dead'!$C$1:$C$1</c:f>
+              <c:f>'Analisi-dead'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -15289,10 +15787,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Analisi-dead'!$A$3:$A$40</c:f>
+              <c:f>'Analisi-dead'!$A$3:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -15406,16 +15904,28 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43925</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43926</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Analisi-dead'!$C$3:$C$40</c:f>
+              <c:f>'Analisi-dead'!$C$3:$C$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15523,6 +16033,12 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>749</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>854</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>886</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15539,7 +16055,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Analisi-dead'!$F$1:$F$1</c:f>
+              <c:f>'Analisi-dead'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -15559,10 +16075,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>'Analisi-dead'!$A$3:$A$40</c:f>
+              <c:f>'Analisi-dead'!$A$3:$A$48</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -15676,16 +16192,40 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43925</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43926</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Analisi-dead'!$F$3:$F$40</c:f>
+              <c:f>'Analisi-dead'!$F$3:$F$48</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>1.5875189686736977</c:v>
                 </c:pt>
@@ -15799,6 +16339,30 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>951.20718673198485</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1018.7716178161419</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1081.6760611213165</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1139.26936723882</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1191.1971201745266</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1237.3729634866761</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1277.931268906525</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1313.1717487537842</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1343.5046959382366</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15815,7 +16379,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Analisi-dead'!$G$1:$G$1</c:f>
+              <c:f>'Analisi-dead'!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -15852,10 +16416,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Analisi-dead'!$A$3:$A$40</c:f>
+              <c:f>'Analisi-dead'!$A$3:$A$46</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -15969,16 +16533,34 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43925</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43926</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Analisi-dead'!$G$3:$G$40</c:f>
+              <c:f>'Analisi-dead'!$G$3:$G$46</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="1">
                   <c:v>3.5102683684924396</c:v>
                 </c:pt>
@@ -16089,6 +16671,24 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>712.76846319148831</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>675.64431084157036</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>629.04443305174595</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>575.93306117503516</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>519.27752935706621</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>461.75843312149482</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>405.58305419848921</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16176,7 +16776,7 @@
         <c:axId val="448850608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="43930"/>
+          <c:max val="43940"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -16679,6 +17279,12 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>749</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>854</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>886</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18129,6 +18735,12 @@
                 <c:pt idx="35">
                   <c:v>-57.148839997277719</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>-25.930340412836017</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-65.207186731984848</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -18525,6 +19137,12 @@
                 <c:pt idx="35">
                   <c:v>43920</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -18641,6 +19259,12 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>8712</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9301</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9795</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19031,6 +19655,12 @@
                 <c:pt idx="35">
                   <c:v>43920</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -19147,6 +19777,12 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>452</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>452</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>453</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19299,6 +19935,12 @@
                 <c:pt idx="36">
                   <c:v>43920</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -19412,6 +20054,12 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19750,6 +20398,12 @@
                 <c:pt idx="36">
                   <c:v>43920</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -19857,6 +20511,12 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20098,7 +20758,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Guariti!$B$1:$B$1</c:f>
+              <c:f>Guariti!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -20122,10 +20782,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Guariti!$A$3:$A$39</c:f>
+              <c:f>Guariti!$A$3:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -20233,16 +20893,22 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Guariti!$B$3:$B$39</c:f>
+              <c:f>Guariti!$B$3:$B$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -20350,6 +21016,12 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>439</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20366,7 +21038,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Guariti!$C$1:$C$1</c:f>
+              <c:f>Guariti!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -20390,10 +21062,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Guariti!$A$3:$A$39</c:f>
+              <c:f>Guariti!$A$3:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -20501,16 +21173,22 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Guariti!$C$3:$C$39</c:f>
+              <c:f>Guariti!$C$3:$C$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
@@ -20615,6 +21293,12 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20631,7 +21315,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Guariti!$D$1:$D$1</c:f>
+              <c:f>Guariti!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -20651,10 +21335,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Guariti!$A$3:$A$39</c:f>
+              <c:f>Guariti!$A$3:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -20762,16 +21446,22 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Guariti!$D$3:$D$39</c:f>
+              <c:f>Guariti!$D$3:$D$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
@@ -20873,6 +21563,12 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20889,7 +21585,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Guariti!$E$1:$E$1</c:f>
+              <c:f>Guariti!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -20913,10 +21609,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Guariti!$A$3:$A$39</c:f>
+              <c:f>Guariti!$A$3:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -21024,16 +21720,22 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Guariti!$E$3:$E$39</c:f>
+              <c:f>Guariti!$E$3:$E$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
@@ -21132,6 +21834,12 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>-21</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21382,7 +22090,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Guariti!$C$1:$C$1</c:f>
+              <c:f>Guariti!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -21406,10 +22114,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Guariti!$A$3:$A$40</c:f>
+              <c:f>Guariti!$A$3:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -21517,16 +22225,22 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Guariti!$C$3:$C$40</c:f>
+              <c:f>Guariti!$C$3:$C$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
@@ -21631,6 +22345,12 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21647,7 +22367,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Guariti!$D$1:$D$1</c:f>
+              <c:f>Guariti!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -21671,10 +22391,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Guariti!$A$3:$A$40</c:f>
+              <c:f>Guariti!$A$3:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -21782,16 +22502,22 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Guariti!$D$3:$D$40</c:f>
+              <c:f>Guariti!$D$3:$D$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
@@ -21893,6 +22619,12 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21909,7 +22641,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Guariti!$E$1:$E$1</c:f>
+              <c:f>Guariti!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -21929,10 +22661,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Guariti!$A$3:$A$40</c:f>
+              <c:f>Guariti!$A$3:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -22040,16 +22772,22 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Guariti!$E$3:$E$40</c:f>
+              <c:f>Guariti!$E$3:$E$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
@@ -22148,6 +22886,12 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>-21</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22534,6 +23278,12 @@
                 <c:pt idx="35">
                   <c:v>43920</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -22647,6 +23397,12 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22799,6 +23555,12 @@
                 <c:pt idx="35">
                   <c:v>43920</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -22909,6 +23671,12 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-73</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23057,6 +23825,12 @@
                 <c:pt idx="35">
                   <c:v>43920</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -23164,6 +23938,12 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>-21</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-113</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23414,7 +24194,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Deceduti!$B$1:$B$1</c:f>
+              <c:f>Deceduti!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -23438,10 +24218,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Deceduti!$A$3:$A$40</c:f>
+              <c:f>Deceduti!$A$3:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -23549,16 +24329,22 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Deceduti!$B$3:$B$40</c:f>
+              <c:f>Deceduti!$B$3:$B$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -23666,6 +24452,12 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>749</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>854</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>886</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23682,7 +24474,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Deceduti!$C$1:$C$1</c:f>
+              <c:f>Deceduti!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -23706,10 +24498,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Deceduti!$A$3:$A$40</c:f>
+              <c:f>Deceduti!$A$3:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -23817,16 +24609,22 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Deceduti!$C$3:$C$40</c:f>
+              <c:f>Deceduti!$C$3:$C$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
@@ -23931,6 +24729,12 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23947,7 +24751,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Deceduti!$D$1:$D$1</c:f>
+              <c:f>Deceduti!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -23967,10 +24771,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Deceduti!$A$3:$A$40</c:f>
+              <c:f>Deceduti!$A$3:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -24078,16 +24882,22 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Deceduti!$D$3:$D$40</c:f>
+              <c:f>Deceduti!$D$3:$D$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
@@ -24189,6 +24999,12 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-73</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24205,7 +25021,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Deceduti!$E$1:$E$1</c:f>
+              <c:f>Deceduti!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -24229,10 +25045,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Deceduti!$A$3:$A$40</c:f>
+              <c:f>Deceduti!$A$3:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -24340,16 +25156,22 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Deceduti!$E$3:$E$40</c:f>
+              <c:f>Deceduti!$E$3:$E$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
@@ -24448,6 +25270,12 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>-21</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-113</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24825,6 +25653,12 @@
                 <c:pt idx="35">
                   <c:v>43920</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -24941,6 +25775,12 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>3437</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3626</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25093,6 +25933,12 @@
                 <c:pt idx="35">
                   <c:v>43920</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -25206,6 +26052,12 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25354,6 +26206,12 @@
                 <c:pt idx="35">
                   <c:v>43920</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -25464,6 +26322,12 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25616,6 +26480,12 @@
                 <c:pt idx="35">
                   <c:v>43920</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -25723,6 +26593,12 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>469</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-396</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -27202,16 +28078,16 @@
   </xdr:absoluteAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>354330</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>125730</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>415290</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>232410</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>64770</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>293370</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -28222,10 +29098,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:B38"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40:M40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -28237,14 +29113,14 @@
     <col min="5" max="5" width="12.296875" customWidth="1"/>
     <col min="6" max="6" width="20.69921875" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="22.8984375" customWidth="1"/>
-    <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="11" width="10.69921875" customWidth="1"/>
-    <col min="12" max="12" width="23.69921875" customWidth="1"/>
-    <col min="13" max="13" width="8.796875" customWidth="1"/>
+    <col min="8" max="9" width="22.8984375" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="11" max="12" width="10.69921875" customWidth="1"/>
+    <col min="13" max="13" width="23.69921875" customWidth="1"/>
+    <col min="14" max="14" width="8.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -28270,19 +29146,22 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" s="18">
         <v>43885</v>
       </c>
@@ -28307,20 +29186,21 @@
       <c r="H3" s="17">
         <v>3</v>
       </c>
-      <c r="I3" s="17">
-        <v>0</v>
-      </c>
+      <c r="I3" s="17"/>
       <c r="J3" s="17">
         <v>0</v>
       </c>
       <c r="K3" s="17">
+        <v>0</v>
+      </c>
+      <c r="L3" s="17">
         <v>3</v>
       </c>
-      <c r="L3" s="17">
+      <c r="M3" s="17">
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="18">
         <v>43886</v>
       </c>
@@ -28345,20 +29225,21 @@
       <c r="H4" s="17">
         <v>0</v>
       </c>
-      <c r="I4" s="17">
-        <v>0</v>
-      </c>
+      <c r="I4" s="17"/>
       <c r="J4" s="17">
         <v>0</v>
       </c>
       <c r="K4" s="17">
+        <v>0</v>
+      </c>
+      <c r="L4" s="17">
         <v>3</v>
       </c>
-      <c r="L4" s="17">
+      <c r="M4" s="17">
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="18">
         <v>43887</v>
       </c>
@@ -28383,20 +29264,21 @@
       <c r="H5" s="17">
         <v>0</v>
       </c>
-      <c r="I5" s="17">
-        <v>0</v>
-      </c>
+      <c r="I5" s="17"/>
       <c r="J5" s="17">
         <v>0</v>
       </c>
       <c r="K5" s="17">
+        <v>0</v>
+      </c>
+      <c r="L5" s="17">
         <v>3</v>
       </c>
-      <c r="L5" s="17">
+      <c r="M5" s="17">
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" s="18">
         <v>43888</v>
       </c>
@@ -28421,20 +29303,21 @@
       <c r="H6" s="17">
         <v>-1</v>
       </c>
-      <c r="I6" s="17">
-        <v>0</v>
-      </c>
+      <c r="I6" s="17"/>
       <c r="J6" s="17">
         <v>0</v>
       </c>
       <c r="K6" s="17">
+        <v>0</v>
+      </c>
+      <c r="L6" s="17">
         <v>2</v>
       </c>
-      <c r="L6" s="17">
+      <c r="M6" s="17">
         <v>156</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" s="18">
         <v>43889</v>
       </c>
@@ -28459,20 +29342,21 @@
       <c r="H7" s="17">
         <v>9</v>
       </c>
-      <c r="I7" s="17">
-        <v>0</v>
-      </c>
+      <c r="I7" s="17"/>
       <c r="J7" s="17">
         <v>0</v>
       </c>
       <c r="K7" s="17">
+        <v>0</v>
+      </c>
+      <c r="L7" s="17">
         <v>11</v>
       </c>
-      <c r="L7" s="17">
+      <c r="M7" s="17">
         <v>227</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" s="18">
         <v>43890</v>
       </c>
@@ -28497,20 +29381,21 @@
       <c r="H8" s="17">
         <v>0</v>
       </c>
-      <c r="I8" s="17">
-        <v>0</v>
-      </c>
+      <c r="I8" s="17"/>
       <c r="J8" s="17">
         <v>0</v>
       </c>
       <c r="K8" s="17">
+        <v>0</v>
+      </c>
+      <c r="L8" s="17">
         <v>11</v>
       </c>
-      <c r="L8" s="17">
+      <c r="M8" s="17">
         <v>308</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" s="18">
         <v>43891</v>
       </c>
@@ -28535,20 +29420,21 @@
       <c r="H9" s="17">
         <v>38</v>
       </c>
-      <c r="I9" s="17">
-        <v>0</v>
-      </c>
+      <c r="I9" s="17"/>
       <c r="J9" s="17">
         <v>0</v>
       </c>
       <c r="K9" s="17">
+        <v>0</v>
+      </c>
+      <c r="L9" s="17">
         <v>49</v>
       </c>
-      <c r="L9" s="17">
+      <c r="M9" s="17">
         <v>362</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" s="18">
         <v>43892</v>
       </c>
@@ -28573,20 +29459,21 @@
       <c r="H10" s="17">
         <v>2</v>
       </c>
-      <c r="I10" s="17">
-        <v>0</v>
-      </c>
+      <c r="I10" s="17"/>
       <c r="J10" s="17">
         <v>0</v>
       </c>
       <c r="K10" s="17">
+        <v>0</v>
+      </c>
+      <c r="L10" s="17">
         <v>51</v>
       </c>
-      <c r="L10" s="17">
+      <c r="M10" s="17">
         <v>434</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" s="18">
         <v>43893</v>
       </c>
@@ -28611,20 +29498,21 @@
       <c r="H11" s="17">
         <v>5</v>
       </c>
-      <c r="I11" s="17">
-        <v>0</v>
-      </c>
+      <c r="I11" s="17"/>
       <c r="J11" s="17">
         <v>0</v>
       </c>
       <c r="K11" s="17">
+        <v>0</v>
+      </c>
+      <c r="L11" s="17">
         <v>56</v>
       </c>
-      <c r="L11" s="17">
+      <c r="M11" s="17">
         <v>458</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" s="18">
         <v>43894</v>
       </c>
@@ -28649,20 +29537,21 @@
       <c r="H12" s="17">
         <v>26</v>
       </c>
-      <c r="I12" s="17">
-        <v>0</v>
-      </c>
+      <c r="I12" s="17"/>
       <c r="J12" s="17">
         <v>0</v>
       </c>
       <c r="K12" s="17">
+        <v>0</v>
+      </c>
+      <c r="L12" s="17">
         <v>82</v>
       </c>
-      <c r="L12" s="17">
+      <c r="M12" s="17">
         <v>543</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13" s="18">
         <v>43895</v>
       </c>
@@ -28687,20 +29576,21 @@
       <c r="H13" s="17">
         <v>24</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I13" s="17"/>
+      <c r="J13" s="17">
         <v>0</v>
       </c>
-      <c r="J13" s="17">
+      <c r="K13" s="17">
         <v>2</v>
       </c>
-      <c r="K13" s="17">
+      <c r="L13" s="17">
         <v>108</v>
       </c>
-      <c r="L13" s="17">
+      <c r="M13" s="17">
         <v>543</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14" s="18">
         <v>43896</v>
       </c>
@@ -28725,20 +29615,21 @@
       <c r="H14" s="17">
         <v>33</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I14" s="17"/>
+      <c r="J14" s="17">
         <v>0</v>
       </c>
-      <c r="J14" s="17">
+      <c r="K14" s="17">
         <v>4</v>
       </c>
-      <c r="K14" s="17">
+      <c r="L14" s="17">
         <v>143</v>
       </c>
-      <c r="L14" s="17">
+      <c r="M14" s="17">
         <v>793</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="A15" s="18">
         <v>43897</v>
       </c>
@@ -28763,20 +29654,21 @@
       <c r="H15" s="17">
         <v>63</v>
       </c>
-      <c r="I15" s="17">
+      <c r="I15" s="17"/>
+      <c r="J15" s="17">
         <v>0</v>
       </c>
-      <c r="J15" s="17">
+      <c r="K15" s="17">
         <v>5</v>
       </c>
-      <c r="K15" s="17">
+      <c r="L15" s="17">
         <v>207</v>
       </c>
-      <c r="L15" s="17">
+      <c r="M15" s="17">
         <v>1046</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="A16" s="18">
         <v>43898</v>
       </c>
@@ -28801,20 +29693,21 @@
       <c r="H16" s="17">
         <v>153</v>
       </c>
-      <c r="I16" s="17">
+      <c r="I16" s="17"/>
+      <c r="J16" s="17">
         <v>0</v>
       </c>
-      <c r="J16" s="17">
+      <c r="K16" s="17">
         <v>5</v>
       </c>
-      <c r="K16" s="17">
+      <c r="L16" s="17">
         <v>360</v>
       </c>
-      <c r="L16" s="17">
+      <c r="M16" s="17">
         <v>1636</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:13">
       <c r="A17" s="18">
         <v>43899</v>
       </c>
@@ -28839,20 +29732,21 @@
       <c r="H17" s="17">
         <v>-18</v>
       </c>
-      <c r="I17" s="17">
+      <c r="I17" s="17"/>
+      <c r="J17" s="17">
         <v>0</v>
       </c>
-      <c r="J17" s="17">
+      <c r="K17" s="17">
         <v>13</v>
       </c>
-      <c r="K17" s="17">
+      <c r="L17" s="17">
         <v>350</v>
       </c>
-      <c r="L17" s="17">
+      <c r="M17" s="17">
         <v>1681</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:13">
       <c r="A18" s="18">
         <v>43900</v>
       </c>
@@ -28877,20 +29771,21 @@
       <c r="H18" s="17">
         <v>99</v>
       </c>
-      <c r="I18" s="17">
+      <c r="I18" s="17"/>
+      <c r="J18" s="17">
         <v>0</v>
       </c>
-      <c r="J18" s="17">
+      <c r="K18" s="17">
         <v>17</v>
       </c>
-      <c r="K18" s="17">
+      <c r="L18" s="17">
         <v>453</v>
       </c>
-      <c r="L18" s="17">
+      <c r="M18" s="17">
         <v>2374</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:13">
       <c r="A19" s="18">
         <v>43901</v>
       </c>
@@ -28915,20 +29810,21 @@
       <c r="H19" s="17">
         <v>44</v>
       </c>
-      <c r="I19" s="17">
+      <c r="I19" s="17"/>
+      <c r="J19" s="17">
         <v>0</v>
       </c>
-      <c r="J19" s="17">
+      <c r="K19" s="17">
         <v>21</v>
       </c>
-      <c r="K19" s="17">
+      <c r="L19" s="17">
         <v>501</v>
       </c>
-      <c r="L19" s="17">
+      <c r="M19" s="17">
         <v>2431</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:13">
       <c r="A20" s="18">
         <v>43902</v>
       </c>
@@ -28953,20 +29849,21 @@
       <c r="H20" s="17">
         <v>74</v>
       </c>
-      <c r="I20" s="17">
+      <c r="I20" s="17"/>
+      <c r="J20" s="17">
         <v>0</v>
       </c>
-      <c r="J20" s="17">
+      <c r="K20" s="17">
         <v>26</v>
       </c>
-      <c r="K20" s="17">
+      <c r="L20" s="17">
         <v>580</v>
       </c>
-      <c r="L20" s="17">
+      <c r="M20" s="17">
         <v>2879</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:13">
       <c r="A21" s="18">
         <v>43903</v>
       </c>
@@ -28991,20 +29888,21 @@
       <c r="H21" s="17">
         <v>240</v>
       </c>
-      <c r="I21" s="17">
+      <c r="I21" s="17"/>
+      <c r="J21" s="17">
         <v>0</v>
       </c>
-      <c r="J21" s="17">
+      <c r="K21" s="17">
         <v>46</v>
       </c>
-      <c r="K21" s="17">
+      <c r="L21" s="17">
         <v>840</v>
       </c>
-      <c r="L21" s="17">
+      <c r="M21" s="17">
         <v>3105</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:13">
       <c r="A22" s="18">
         <v>43904</v>
       </c>
@@ -29029,20 +29927,21 @@
       <c r="H22" s="17">
         <v>20</v>
       </c>
-      <c r="I22" s="17">
+      <c r="I22" s="17"/>
+      <c r="J22" s="17">
         <v>0</v>
       </c>
-      <c r="J22" s="17">
+      <c r="K22" s="17">
         <v>59</v>
       </c>
-      <c r="K22" s="17">
+      <c r="L22" s="17">
         <v>873</v>
       </c>
-      <c r="L22" s="17">
+      <c r="M22" s="17">
         <v>3680</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:13">
       <c r="A23" s="18">
         <v>43905</v>
       </c>
@@ -29067,20 +29966,21 @@
       <c r="H23" s="17">
         <v>216</v>
       </c>
-      <c r="I23" s="17">
+      <c r="I23" s="17"/>
+      <c r="J23" s="17">
         <v>0</v>
       </c>
-      <c r="J23" s="17">
+      <c r="K23" s="17">
         <v>81</v>
       </c>
-      <c r="K23" s="17">
+      <c r="L23" s="17">
         <v>1111</v>
       </c>
-      <c r="L23" s="17">
+      <c r="M23" s="17">
         <v>4375</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:13">
       <c r="A24" s="18">
         <v>43906</v>
       </c>
@@ -29105,20 +30005,21 @@
       <c r="H24" s="17">
         <v>375</v>
       </c>
-      <c r="I24" s="17">
+      <c r="I24" s="17"/>
+      <c r="J24" s="17">
         <v>0</v>
       </c>
-      <c r="J24" s="17">
+      <c r="K24" s="17">
         <v>111</v>
       </c>
-      <c r="K24" s="17">
+      <c r="L24" s="17">
         <v>1516</v>
       </c>
-      <c r="L24" s="17">
+      <c r="M24" s="17">
         <v>5588</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:13">
       <c r="A25" s="18">
         <v>43907</v>
       </c>
@@ -29143,20 +30044,21 @@
       <c r="H25" s="17">
         <v>359</v>
       </c>
-      <c r="I25" s="17">
+      <c r="I25" s="17"/>
+      <c r="J25" s="17">
         <v>0</v>
       </c>
-      <c r="J25" s="17">
+      <c r="K25" s="17">
         <v>133</v>
       </c>
-      <c r="K25" s="17">
+      <c r="L25" s="17">
         <v>1897</v>
       </c>
-      <c r="L25" s="17">
+      <c r="M25" s="17">
         <v>6543</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:13">
       <c r="A26" s="18">
         <v>43908</v>
       </c>
@@ -29181,20 +30083,21 @@
       <c r="H26" s="17">
         <v>423</v>
       </c>
-      <c r="I26" s="17">
+      <c r="I26" s="17"/>
+      <c r="J26" s="17">
         <v>0</v>
       </c>
-      <c r="J26" s="17">
+      <c r="K26" s="17">
         <v>154</v>
       </c>
-      <c r="K26" s="17">
+      <c r="L26" s="17">
         <v>2341</v>
       </c>
-      <c r="L26" s="17">
+      <c r="M26" s="17">
         <v>7516</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:13">
       <c r="A27" s="18">
         <v>43909</v>
       </c>
@@ -29219,20 +30122,21 @@
       <c r="H27" s="17">
         <v>567</v>
       </c>
-      <c r="I27" s="17">
+      <c r="I27" s="17"/>
+      <c r="J27" s="17">
         <v>3</v>
       </c>
-      <c r="J27" s="17">
+      <c r="K27" s="17">
         <v>175</v>
       </c>
-      <c r="K27" s="17">
+      <c r="L27" s="17">
         <v>2932</v>
       </c>
-      <c r="L27" s="17">
+      <c r="M27" s="17">
         <v>8853</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:13">
       <c r="A28" s="18">
         <v>43910</v>
       </c>
@@ -29257,20 +30161,21 @@
       <c r="H28" s="17">
         <v>490</v>
       </c>
-      <c r="I28" s="17">
+      <c r="I28" s="17"/>
+      <c r="J28" s="17">
         <v>8</v>
       </c>
-      <c r="J28" s="17">
+      <c r="K28" s="17">
         <v>209</v>
       </c>
-      <c r="K28" s="17">
+      <c r="L28" s="17">
         <v>3461</v>
       </c>
-      <c r="L28" s="17">
+      <c r="M28" s="17">
         <v>9975</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:13">
       <c r="A29" s="18">
         <v>43911</v>
       </c>
@@ -29295,20 +30200,21 @@
       <c r="H29" s="17">
         <v>262</v>
       </c>
-      <c r="I29" s="17">
+      <c r="I29" s="17"/>
+      <c r="J29" s="17">
         <v>8</v>
       </c>
-      <c r="J29" s="17">
+      <c r="K29" s="17">
         <v>238</v>
       </c>
-      <c r="K29" s="17">
+      <c r="L29" s="17">
         <v>3752</v>
       </c>
-      <c r="L29" s="17">
+      <c r="M29" s="17">
         <v>10701</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:13">
       <c r="A30" s="18">
         <v>43912</v>
       </c>
@@ -29333,20 +30239,21 @@
       <c r="H30" s="17">
         <v>621</v>
       </c>
-      <c r="I30" s="17">
+      <c r="I30" s="17"/>
+      <c r="J30" s="17">
         <v>10</v>
       </c>
-      <c r="J30" s="17">
+      <c r="K30" s="17">
         <v>283</v>
       </c>
-      <c r="K30" s="17">
+      <c r="L30" s="17">
         <v>4420</v>
       </c>
-      <c r="L30" s="17">
+      <c r="M30" s="17">
         <v>12701</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:13">
       <c r="A31" s="18">
         <v>43913</v>
       </c>
@@ -29371,20 +30278,21 @@
       <c r="H31" s="17">
         <v>402</v>
       </c>
-      <c r="I31" s="17">
+      <c r="I31" s="17"/>
+      <c r="J31" s="17">
         <v>17</v>
       </c>
-      <c r="J31" s="17">
+      <c r="K31" s="17">
         <v>315</v>
       </c>
-      <c r="K31" s="17">
+      <c r="L31" s="17">
         <v>4861</v>
       </c>
-      <c r="L31" s="17">
+      <c r="M31" s="17">
         <v>13560</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:13">
       <c r="A32" s="18">
         <v>43914</v>
       </c>
@@ -29409,20 +30317,21 @@
       <c r="H32" s="17">
         <v>595</v>
       </c>
-      <c r="I32" s="17">
+      <c r="I32" s="17"/>
+      <c r="J32" s="17">
         <v>17</v>
       </c>
-      <c r="J32" s="17">
+      <c r="K32" s="17">
         <v>374</v>
       </c>
-      <c r="K32" s="17">
+      <c r="L32" s="17">
         <v>5515</v>
       </c>
-      <c r="L32" s="17">
+      <c r="M32" s="17">
         <v>15469</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:14">
       <c r="A33" s="18">
         <v>43915</v>
       </c>
@@ -29447,20 +30356,21 @@
       <c r="H33" s="17">
         <v>432</v>
       </c>
-      <c r="I33" s="17">
+      <c r="I33" s="17"/>
+      <c r="J33" s="17">
         <v>19</v>
       </c>
-      <c r="J33" s="17">
+      <c r="K33" s="17">
         <v>449</v>
       </c>
-      <c r="K33" s="17">
+      <c r="L33" s="17">
         <v>6024</v>
       </c>
-      <c r="L33" s="17">
+      <c r="M33" s="17">
         <v>16655</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:14">
       <c r="A34" s="18">
         <v>43916</v>
       </c>
@@ -29485,20 +30395,21 @@
       <c r="H34" s="17">
         <v>394</v>
       </c>
-      <c r="I34" s="17">
+      <c r="I34" s="17"/>
+      <c r="J34" s="17">
         <v>135</v>
       </c>
-      <c r="J34" s="17">
+      <c r="K34" s="17">
         <v>449</v>
       </c>
-      <c r="K34" s="17">
+      <c r="L34" s="17">
         <v>6534</v>
       </c>
-      <c r="L34" s="17">
+      <c r="M34" s="17">
         <v>18054</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:14">
       <c r="A35" s="18">
         <v>43917</v>
       </c>
@@ -29523,20 +30434,21 @@
       <c r="H35" s="17">
         <v>397</v>
       </c>
-      <c r="I35" s="17">
+      <c r="I35" s="17"/>
+      <c r="J35" s="17">
         <v>176</v>
       </c>
-      <c r="J35" s="17">
+      <c r="K35" s="17">
         <v>569</v>
       </c>
-      <c r="K35" s="17">
+      <c r="L35" s="17">
         <v>7092</v>
       </c>
-      <c r="L35" s="17">
+      <c r="M35" s="17">
         <v>19705</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:14">
       <c r="A36" s="18">
         <v>43918</v>
       </c>
@@ -29561,20 +30473,21 @@
       <c r="H36" s="17">
         <v>504</v>
       </c>
-      <c r="I36" s="17">
+      <c r="I36" s="17"/>
+      <c r="J36" s="17">
         <v>203</v>
       </c>
-      <c r="J36" s="17">
+      <c r="K36" s="17">
         <v>617</v>
       </c>
-      <c r="K36" s="17">
+      <c r="L36" s="17">
         <v>7671</v>
       </c>
-      <c r="L36" s="17">
+      <c r="M36" s="17">
         <v>21511</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:14">
       <c r="A37" s="18">
         <v>43919</v>
       </c>
@@ -29599,20 +30512,20 @@
       <c r="H37">
         <v>417</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>254</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>684</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>8206</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>24058</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:14">
       <c r="A38" s="18">
         <v>43920</v>
       </c>
@@ -29637,17 +30550,100 @@
       <c r="H38">
         <v>387</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>308</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>749</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <v>8712</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>25478</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="18">
+        <v>43921</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="17">
+        <v>3174</v>
+      </c>
+      <c r="D39" s="17">
+        <v>452</v>
+      </c>
+      <c r="E39" s="17">
+        <v>3626</v>
+      </c>
+      <c r="F39" s="17">
+        <v>4456</v>
+      </c>
+      <c r="G39" s="17">
+        <v>8082</v>
+      </c>
+      <c r="H39" s="17">
+        <v>427</v>
+      </c>
+      <c r="I39" s="17">
+        <v>589</v>
+      </c>
+      <c r="J39" s="17">
+        <v>365</v>
+      </c>
+      <c r="K39" s="17">
+        <v>854</v>
+      </c>
+      <c r="L39" s="17">
+        <v>9301</v>
+      </c>
+      <c r="M39" s="17">
+        <v>27658</v>
+      </c>
+      <c r="N39" s="17"/>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="18">
+        <v>43922</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" s="17">
+        <v>3146</v>
+      </c>
+      <c r="D40" s="17">
+        <v>453</v>
+      </c>
+      <c r="E40" s="17">
+        <v>3599</v>
+      </c>
+      <c r="F40" s="17">
+        <v>4871</v>
+      </c>
+      <c r="G40" s="17">
+        <v>8470</v>
+      </c>
+      <c r="H40" s="17">
+        <v>388</v>
+      </c>
+      <c r="I40" s="17">
+        <v>494</v>
+      </c>
+      <c r="J40" s="17">
+        <v>439</v>
+      </c>
+      <c r="K40" s="17">
+        <v>886</v>
+      </c>
+      <c r="L40" s="17">
+        <v>9795</v>
+      </c>
+      <c r="M40" s="17">
+        <v>30060</v>
       </c>
     </row>
   </sheetData>
@@ -29663,8 +30659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:K149"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37:H38"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="K57" sqref="K57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -29766,7 +30762,7 @@
         <v>6.7316395590617191</v>
       </c>
       <c r="H4" s="11">
-        <f t="shared" ref="H4:H38" si="2">C4-E4</f>
+        <f t="shared" ref="H4:H40" si="2">C4-E4</f>
         <v>-34.249816491698702</v>
       </c>
       <c r="J4" s="4" t="s">
@@ -30899,6 +31895,14 @@
       <c r="B39" s="10">
         <v>37</v>
       </c>
+      <c r="C39" s="3">
+        <f>Dati!G39</f>
+        <v>8082</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ref="D39:D40" si="9">C39-C38</f>
+        <v>427</v>
+      </c>
       <c r="E39" s="11">
         <f t="shared" si="5"/>
         <v>8039.2970377626007</v>
@@ -30911,6 +31915,10 @@
         <f t="shared" si="4"/>
         <v>334.47041004810308</v>
       </c>
+      <c r="H39" s="11">
+        <f t="shared" si="2"/>
+        <v>42.702962237399333</v>
+      </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="2">
@@ -30919,6 +31927,14 @@
       <c r="B40" s="10">
         <v>38</v>
       </c>
+      <c r="C40" s="3">
+        <f>Dati!G40</f>
+        <v>8470</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="9"/>
+        <v>388</v>
+      </c>
       <c r="E40" s="11">
         <f t="shared" si="5"/>
         <v>8335.555301029457</v>
@@ -30931,6 +31947,10 @@
         <f t="shared" si="4"/>
         <v>296.25826326685637</v>
       </c>
+      <c r="H40" s="11">
+        <f t="shared" si="2"/>
+        <v>134.44469897054296</v>
+      </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="2">
@@ -31500,7 +32520,7 @@
         <v>0</v>
       </c>
       <c r="E67" s="11">
-        <f t="shared" ref="E67:E98" si="9">$K$2/(1+$K$5*EXP(-$K$4*B67))</f>
+        <f t="shared" ref="E67:E98" si="10">$K$2/(1+$K$5*EXP(-$K$4*B67))</f>
         <v>9990.9894120580084</v>
       </c>
       <c r="F67" s="11">
@@ -31524,11 +32544,11 @@
         <v>0</v>
       </c>
       <c r="E68" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9992.6215493948876</v>
       </c>
       <c r="F68" s="11">
-        <f t="shared" ref="F68:F99" si="10">(E68-E67)*10</f>
+        <f t="shared" ref="F68:F99" si="11">(E68-E67)*10</f>
         <v>16.321373368791683</v>
       </c>
       <c r="G68" s="11">
@@ -31544,19 +32564,19 @@
         <v>67</v>
       </c>
       <c r="D69">
-        <f t="shared" ref="D69:D132" si="11">C69-C68</f>
+        <f t="shared" ref="D69:D132" si="12">C69-C68</f>
         <v>0</v>
       </c>
       <c r="E69" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9993.9582275008033</v>
       </c>
       <c r="F69" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>13.366781059157802</v>
       </c>
       <c r="G69" s="11">
-        <f t="shared" ref="G69:G132" si="12">E69-E68</f>
+        <f t="shared" ref="G69:G132" si="13">E69-E68</f>
         <v>1.3366781059157802</v>
       </c>
     </row>
@@ -31568,19 +32588,19 @@
         <v>68</v>
       </c>
       <c r="D70">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E70" s="11">
+        <f t="shared" si="10"/>
+        <v>9995.0528732486455</v>
+      </c>
+      <c r="F70" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E70" s="11">
-        <f t="shared" si="9"/>
-        <v>9995.0528732486455</v>
-      </c>
-      <c r="F70" s="11">
-        <f t="shared" si="10"/>
         <v>10.946457478421507</v>
       </c>
       <c r="G70" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.0946457478421507</v>
       </c>
     </row>
@@ -31592,19 +32612,19 @@
         <v>69</v>
       </c>
       <c r="D71">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E71" s="11">
+        <f t="shared" si="10"/>
+        <v>9995.949271935413</v>
+      </c>
+      <c r="F71" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E71" s="11">
-        <f t="shared" si="9"/>
-        <v>9995.949271935413</v>
-      </c>
-      <c r="F71" s="11">
-        <f t="shared" si="10"/>
         <v>8.9639868676749757</v>
       </c>
       <c r="G71" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.89639868676749757</v>
       </c>
     </row>
@@ -31616,19 +32636,19 @@
         <v>70</v>
       </c>
       <c r="D72">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E72" s="11">
+        <f t="shared" si="10"/>
+        <v>9996.6833008250924</v>
+      </c>
+      <c r="F72" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E72" s="11">
-        <f t="shared" si="9"/>
-        <v>9996.6833008250924</v>
-      </c>
-      <c r="F72" s="11">
-        <f t="shared" si="10"/>
         <v>7.3402888967939361</v>
       </c>
       <c r="G72" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.73402888967939361</v>
       </c>
     </row>
@@ -31640,19 +32660,19 @@
         <v>71</v>
       </c>
       <c r="D73">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E73" s="11">
+        <f t="shared" si="10"/>
+        <v>9997.2843531178787</v>
+      </c>
+      <c r="F73" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E73" s="11">
-        <f t="shared" si="9"/>
-        <v>9997.2843531178787</v>
-      </c>
-      <c r="F73" s="11">
-        <f t="shared" si="10"/>
         <v>6.0105229278633487</v>
       </c>
       <c r="G73" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.60105229278633487</v>
       </c>
     </row>
@@ -31664,19 +32684,19 @@
         <v>72</v>
       </c>
       <c r="D74">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E74" s="11">
+        <f t="shared" si="10"/>
+        <v>9997.7765069287125</v>
+      </c>
+      <c r="F74" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E74" s="11">
-        <f t="shared" si="9"/>
-        <v>9997.7765069287125</v>
-      </c>
-      <c r="F74" s="11">
-        <f t="shared" si="10"/>
         <v>4.9215381083376997</v>
       </c>
       <c r="G74" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.49215381083376997</v>
       </c>
     </row>
@@ -31688,19 +32708,19 @@
         <v>73</v>
       </c>
       <c r="D75">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E75" s="11">
+        <f t="shared" si="10"/>
+        <v>9998.1794844672331</v>
+      </c>
+      <c r="F75" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E75" s="11">
-        <f t="shared" si="9"/>
-        <v>9998.1794844672331</v>
-      </c>
-      <c r="F75" s="11">
-        <f t="shared" si="10"/>
         <v>4.0297753852064488</v>
       </c>
       <c r="G75" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.40297753852064488</v>
       </c>
     </row>
@@ -31712,19 +32732,19 @@
         <v>74</v>
       </c>
       <c r="D76">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E76" s="11">
+        <f t="shared" si="10"/>
+        <v>9998.5094387578301</v>
+      </c>
+      <c r="F76" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E76" s="11">
-        <f t="shared" si="9"/>
-        <v>9998.5094387578301</v>
-      </c>
-      <c r="F76" s="11">
-        <f t="shared" si="10"/>
         <v>3.2995429059701564</v>
       </c>
       <c r="G76" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.32995429059701564</v>
       </c>
     </row>
@@ -31736,19 +32756,19 @@
         <v>75</v>
       </c>
       <c r="D77">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E77" s="11">
+        <f t="shared" si="10"/>
+        <v>9998.7795986973106</v>
+      </c>
+      <c r="F77" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E77" s="11">
-        <f t="shared" si="9"/>
-        <v>9998.7795986973106</v>
-      </c>
-      <c r="F77" s="11">
-        <f t="shared" si="10"/>
         <v>2.7015993948043615</v>
       </c>
       <c r="G77" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.27015993948043615</v>
       </c>
     </row>
@@ -31760,19 +32780,19 @@
         <v>76</v>
       </c>
       <c r="D78">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E78" s="11">
+        <f t="shared" si="10"/>
+        <v>9999.0007978179183</v>
+      </c>
+      <c r="F78" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E78" s="11">
-        <f t="shared" si="9"/>
-        <v>9999.0007978179183</v>
-      </c>
-      <c r="F78" s="11">
-        <f t="shared" si="10"/>
         <v>2.211991206077073</v>
       </c>
       <c r="G78" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.2211991206077073</v>
       </c>
     </row>
@@ -31784,19 +32804,19 @@
         <v>77</v>
       </c>
       <c r="D79">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E79" s="11">
+        <f t="shared" si="10"/>
+        <v>9999.1819076273205</v>
+      </c>
+      <c r="F79" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E79" s="11">
-        <f t="shared" si="9"/>
-        <v>9999.1819076273205</v>
-      </c>
-      <c r="F79" s="11">
-        <f t="shared" si="10"/>
         <v>1.8110980940218724</v>
       </c>
       <c r="G79" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.18110980940218724</v>
       </c>
     </row>
@@ -31808,19 +32828,19 @@
         <v>78</v>
       </c>
       <c r="D80">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E80" s="11">
+        <f t="shared" si="10"/>
+        <v>9999.3301926827226</v>
+      </c>
+      <c r="F80" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E80" s="11">
-        <f t="shared" si="9"/>
-        <v>9999.3301926827226</v>
-      </c>
-      <c r="F80" s="11">
-        <f t="shared" si="10"/>
         <v>1.4828505540208425</v>
       </c>
       <c r="G80" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.14828505540208425</v>
       </c>
     </row>
@@ -31832,19 +32852,19 @@
         <v>79</v>
       </c>
       <c r="D81">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E81" s="11">
+        <f t="shared" si="10"/>
+        <v>9999.4516014923011</v>
+      </c>
+      <c r="F81" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E81" s="11">
-        <f t="shared" si="9"/>
-        <v>9999.4516014923011</v>
-      </c>
-      <c r="F81" s="11">
-        <f t="shared" si="10"/>
         <v>1.2140880957849731</v>
       </c>
       <c r="G81" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.12140880957849731</v>
       </c>
     </row>
@@ -31856,19 +32876,19 @@
         <v>80</v>
       </c>
       <c r="D82">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E82" s="11">
+        <f t="shared" si="10"/>
+        <v>9999.551004813442</v>
+      </c>
+      <c r="F82" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E82" s="11">
-        <f t="shared" si="9"/>
-        <v>9999.551004813442</v>
-      </c>
-      <c r="F82" s="11">
-        <f t="shared" si="10"/>
         <v>0.99403321140925982</v>
       </c>
       <c r="G82" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9.9403321140925982E-2</v>
       </c>
     </row>
@@ -31880,19 +32900,19 @@
         <v>81</v>
       </c>
       <c r="D83">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E83" s="11">
+        <f t="shared" si="10"/>
+        <v>9999.6323908408485</v>
+      </c>
+      <c r="F83" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E83" s="11">
-        <f t="shared" si="9"/>
-        <v>9999.6323908408485</v>
-      </c>
-      <c r="F83" s="11">
-        <f t="shared" si="10"/>
         <v>0.81386027406551875</v>
       </c>
       <c r="G83" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8.1386027406551875E-2</v>
       </c>
     </row>
@@ -31904,19 +32924,19 @@
         <v>82</v>
       </c>
       <c r="D84">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E84" s="11">
+        <f t="shared" si="10"/>
+        <v>9999.699025070704</v>
+      </c>
+      <c r="F84" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E84" s="11">
-        <f t="shared" si="9"/>
-        <v>9999.699025070704</v>
-      </c>
-      <c r="F84" s="11">
-        <f t="shared" si="10"/>
         <v>0.66634229855480953</v>
       </c>
       <c r="G84" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6.6634229855480953E-2</v>
       </c>
     </row>
@@ -31928,19 +32948,19 @@
         <v>83</v>
       </c>
       <c r="D85">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E85" s="11">
+        <f t="shared" si="10"/>
+        <v>9999.7535812250808</v>
+      </c>
+      <c r="F85" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E85" s="11">
-        <f t="shared" si="9"/>
-        <v>9999.7535812250808</v>
-      </c>
-      <c r="F85" s="11">
-        <f t="shared" si="10"/>
         <v>0.54556154376768973</v>
       </c>
       <c r="G85" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>5.4556154376768973E-2</v>
       </c>
     </row>
@@ -31952,19 +32972,19 @@
         <v>84</v>
       </c>
       <c r="D86">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E86" s="11">
+        <f t="shared" si="10"/>
+        <v>9999.7982484696513</v>
+      </c>
+      <c r="F86" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E86" s="11">
-        <f t="shared" si="9"/>
-        <v>9999.7982484696513</v>
-      </c>
-      <c r="F86" s="11">
-        <f t="shared" si="10"/>
         <v>0.4466724457051896</v>
       </c>
       <c r="G86" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4.466724457051896E-2</v>
       </c>
     </row>
@@ -31976,19 +32996,19 @@
         <v>85</v>
       </c>
       <c r="D87">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E87" s="11">
+        <f t="shared" si="10"/>
+        <v>9999.8348192135345</v>
+      </c>
+      <c r="F87" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E87" s="11">
-        <f t="shared" si="9"/>
-        <v>9999.8348192135345</v>
-      </c>
-      <c r="F87" s="11">
-        <f t="shared" si="10"/>
         <v>0.36570743883203249</v>
       </c>
       <c r="G87" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3.6570743883203249E-2</v>
       </c>
     </row>
@@ -32000,19 +33020,19 @@
         <v>86</v>
       </c>
       <c r="D88">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E88" s="11">
+        <f t="shared" si="10"/>
+        <v>9999.8647610053686</v>
+      </c>
+      <c r="F88" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E88" s="11">
-        <f t="shared" si="9"/>
-        <v>9999.8647610053686</v>
-      </c>
-      <c r="F88" s="11">
-        <f t="shared" si="10"/>
         <v>0.29941791834062315</v>
       </c>
       <c r="G88" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.9941791834062315E-2</v>
       </c>
     </row>
@@ -32024,19 +33044,19 @@
         <v>87</v>
       </c>
       <c r="D89">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E89" s="11">
+        <f t="shared" si="10"/>
+        <v>9999.8892754046428</v>
+      </c>
+      <c r="F89" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E89" s="11">
-        <f t="shared" si="9"/>
-        <v>9999.8892754046428</v>
-      </c>
-      <c r="F89" s="11">
-        <f t="shared" si="10"/>
         <v>0.24514399274266907</v>
       </c>
       <c r="G89" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.4514399274266907E-2</v>
       </c>
     </row>
@@ -32048,19 +33068,19 @@
         <v>88</v>
       </c>
       <c r="D90">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E90" s="11">
+        <f t="shared" si="10"/>
+        <v>9999.9093461867069</v>
+      </c>
+      <c r="F90" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E90" s="11">
-        <f t="shared" si="9"/>
-        <v>9999.9093461867069</v>
-      </c>
-      <c r="F90" s="11">
-        <f t="shared" si="10"/>
         <v>0.20070782064067316</v>
       </c>
       <c r="G90" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.0070782064067316E-2</v>
       </c>
     </row>
@@ -32072,19 +33092,19 @@
         <v>89</v>
       </c>
       <c r="D91">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E91" s="11">
+        <f t="shared" si="10"/>
+        <v>9999.9257788132072</v>
+      </c>
+      <c r="F91" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E91" s="11">
-        <f t="shared" si="9"/>
-        <v>9999.9257788132072</v>
-      </c>
-      <c r="F91" s="11">
-        <f t="shared" si="10"/>
         <v>0.16432626500318293</v>
       </c>
       <c r="G91" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.6432626500318293E-2</v>
       </c>
     </row>
@@ -32096,19 +33116,19 @@
         <v>90</v>
       </c>
       <c r="D92">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E92" s="11">
+        <f t="shared" si="10"/>
+        <v>9999.9392327500864</v>
+      </c>
+      <c r="F92" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E92" s="11">
-        <f t="shared" si="9"/>
-        <v>9999.9392327500864</v>
-      </c>
-      <c r="F92" s="11">
-        <f t="shared" si="10"/>
         <v>0.13453936879159301</v>
       </c>
       <c r="G92" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.3453936879159301E-2</v>
       </c>
     </row>
@@ -32120,19 +33140,19 @@
         <v>91</v>
       </c>
       <c r="D93">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E93" s="11">
+        <f t="shared" si="10"/>
+        <v>9999.9502479289113</v>
+      </c>
+      <c r="F93" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E93" s="11">
-        <f t="shared" si="9"/>
-        <v>9999.9502479289113</v>
-      </c>
-      <c r="F93" s="11">
-        <f t="shared" si="10"/>
         <v>0.11015178824891336</v>
       </c>
       <c r="G93" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.1015178824891336E-2</v>
       </c>
     </row>
@@ -32144,19 +33164,19 @@
         <v>92</v>
       </c>
       <c r="D94">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E94" s="11">
+        <f t="shared" si="10"/>
+        <v>9999.9592664126358</v>
+      </c>
+      <c r="F94" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E94" s="11">
-        <f t="shared" si="9"/>
-        <v>9999.9592664126358</v>
-      </c>
-      <c r="F94" s="11">
-        <f t="shared" si="10"/>
         <v>9.0184837245033123E-2</v>
       </c>
       <c r="G94" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9.0184837245033123E-3</v>
       </c>
     </row>
@@ -32168,19 +33188,19 @@
         <v>93</v>
       </c>
       <c r="D95">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E95" s="11">
+        <f t="shared" si="10"/>
+        <v>9999.9666501347165</v>
+      </c>
+      <c r="F95" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E95" s="11">
-        <f t="shared" si="9"/>
-        <v>9999.9666501347165</v>
-      </c>
-      <c r="F95" s="11">
-        <f t="shared" si="10"/>
         <v>7.3837220807035919E-2</v>
       </c>
       <c r="G95" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7.3837220807035919E-3</v>
       </c>
     </row>
@@ -32192,19 +33212,19 @@
         <v>94</v>
       </c>
       <c r="D96">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E96" s="11">
+        <f t="shared" si="10"/>
+        <v>9999.9726954231774</v>
+      </c>
+      <c r="F96" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E96" s="11">
-        <f t="shared" si="9"/>
-        <v>9999.9726954231774</v>
-      </c>
-      <c r="F96" s="11">
-        <f t="shared" si="10"/>
         <v>6.0452884608821478E-2</v>
       </c>
       <c r="G96" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6.0452884608821478E-3</v>
       </c>
     </row>
@@ -32213,19 +33233,19 @@
         <v>95</v>
       </c>
       <c r="D97">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E97" s="11">
+        <f t="shared" si="10"/>
+        <v>9999.9776448921912</v>
+      </c>
+      <c r="F97" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E97" s="11">
-        <f t="shared" si="9"/>
-        <v>9999.9776448921912</v>
-      </c>
-      <c r="F97" s="11">
-        <f t="shared" si="10"/>
         <v>4.9494690138089936E-2</v>
       </c>
       <c r="G97" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4.9494690138089936E-3</v>
       </c>
     </row>
@@ -32234,19 +33254,19 @@
         <v>96</v>
       </c>
       <c r="D98">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E98" s="11">
+        <f t="shared" si="10"/>
+        <v>9999.9816971783293</v>
+      </c>
+      <c r="F98" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E98" s="11">
-        <f t="shared" si="9"/>
-        <v>9999.9816971783293</v>
-      </c>
-      <c r="F98" s="11">
-        <f t="shared" si="10"/>
         <v>4.0522861381759867E-2</v>
       </c>
       <c r="G98" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4.0522861381759867E-3</v>
       </c>
     </row>
@@ -32255,19 +33275,19 @@
         <v>97</v>
       </c>
       <c r="D99">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E99" s="11">
+        <f t="shared" ref="E99:E130" si="14">$K$2/(1+$K$5*EXP(-$K$4*B99))</f>
+        <v>9999.9850149120575</v>
+      </c>
+      <c r="F99" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E99" s="11">
-        <f t="shared" ref="E99:E130" si="13">$K$2/(1+$K$5*EXP(-$K$4*B99))</f>
-        <v>9999.9850149120575</v>
-      </c>
-      <c r="F99" s="11">
-        <f t="shared" si="10"/>
         <v>3.3177337281813379E-2</v>
       </c>
       <c r="G99" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3.3177337281813379E-3</v>
       </c>
     </row>
@@ -32276,19 +33296,19 @@
         <v>98</v>
       </c>
       <c r="D100">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E100" s="11">
+        <f t="shared" si="14"/>
+        <v>9999.9877312443332</v>
+      </c>
+      <c r="F100" s="11">
+        <f t="shared" ref="F100:F131" si="15">(E100-E99)*10</f>
+        <v>2.7163322756678099E-2</v>
+      </c>
+      <c r="G100" s="11">
         <f t="shared" si="13"/>
-        <v>9999.9877312443332</v>
-      </c>
-      <c r="F100" s="11">
-        <f t="shared" ref="F100:F131" si="14">(E100-E99)*10</f>
-        <v>2.7163322756678099E-2</v>
-      </c>
-      <c r="G100" s="11">
-        <f t="shared" si="12"/>
         <v>2.7163322756678099E-3</v>
       </c>
     </row>
@@ -32297,19 +33317,19 @@
         <v>99</v>
       </c>
       <c r="D101">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E101" s="11">
+        <f t="shared" si="14"/>
+        <v>9999.9899551901981</v>
+      </c>
+      <c r="F101" s="11">
+        <f t="shared" si="15"/>
+        <v>2.2239458648982691E-2</v>
+      </c>
+      <c r="G101" s="11">
         <f t="shared" si="13"/>
-        <v>9999.9899551901981</v>
-      </c>
-      <c r="F101" s="11">
-        <f t="shared" si="14"/>
-        <v>2.2239458648982691E-2</v>
-      </c>
-      <c r="G101" s="11">
-        <f t="shared" si="12"/>
         <v>2.2239458648982691E-3</v>
       </c>
     </row>
@@ -32318,19 +33338,19 @@
         <v>100</v>
       </c>
       <c r="D102">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E102" s="11">
+        <f t="shared" si="14"/>
+        <v>9999.9917760038097</v>
+      </c>
+      <c r="F102" s="11">
+        <f t="shared" si="15"/>
+        <v>1.8208136116300011E-2</v>
+      </c>
+      <c r="G102" s="11">
         <f t="shared" si="13"/>
-        <v>9999.9917760038097</v>
-      </c>
-      <c r="F102" s="11">
-        <f t="shared" si="14"/>
-        <v>1.8208136116300011E-2</v>
-      </c>
-      <c r="G102" s="11">
-        <f t="shared" si="12"/>
         <v>1.8208136116300011E-3</v>
       </c>
     </row>
@@ -32339,19 +33359,19 @@
         <v>101</v>
       </c>
       <c r="D103">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E103" s="11">
+        <f t="shared" si="14"/>
+        <v>9999.9932667604025</v>
+      </c>
+      <c r="F103" s="11">
+        <f t="shared" si="15"/>
+        <v>1.4907565928297117E-2</v>
+      </c>
+      <c r="G103" s="11">
         <f t="shared" si="13"/>
-        <v>9999.9932667604025</v>
-      </c>
-      <c r="F103" s="11">
-        <f t="shared" si="14"/>
-        <v>1.4907565928297117E-2</v>
-      </c>
-      <c r="G103" s="11">
-        <f t="shared" si="12"/>
         <v>1.4907565928297117E-3</v>
       </c>
     </row>
@@ -32360,19 +33380,19 @@
         <v>102</v>
       </c>
       <c r="D104">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E104" s="11">
+        <f t="shared" si="14"/>
+        <v>9999.994487289001</v>
+      </c>
+      <c r="F104" s="11">
+        <f t="shared" si="15"/>
+        <v>1.220528598423698E-2</v>
+      </c>
+      <c r="G104" s="11">
         <f t="shared" si="13"/>
-        <v>9999.994487289001</v>
-      </c>
-      <c r="F104" s="11">
-        <f t="shared" si="14"/>
-        <v>1.220528598423698E-2</v>
-      </c>
-      <c r="G104" s="11">
-        <f t="shared" si="12"/>
         <v>1.220528598423698E-3</v>
       </c>
     </row>
@@ -32381,19 +33401,19 @@
         <v>103</v>
       </c>
       <c r="D105">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E105" s="11">
+        <f t="shared" si="14"/>
+        <v>9999.9954865735217</v>
+      </c>
+      <c r="F105" s="11">
+        <f t="shared" si="15"/>
+        <v>9.9928452073072549E-3</v>
+      </c>
+      <c r="G105" s="11">
         <f t="shared" si="13"/>
-        <v>9999.9954865735217</v>
-      </c>
-      <c r="F105" s="11">
-        <f t="shared" si="14"/>
-        <v>9.9928452073072549E-3</v>
-      </c>
-      <c r="G105" s="11">
-        <f t="shared" si="12"/>
         <v>9.9928452073072549E-4</v>
       </c>
     </row>
@@ -32402,19 +33422,19 @@
         <v>104</v>
       </c>
       <c r="D106">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E106" s="11">
+        <f t="shared" si="14"/>
+        <v>9999.9963047186375</v>
+      </c>
+      <c r="F106" s="11">
+        <f t="shared" si="15"/>
+        <v>8.1814511577249505E-3</v>
+      </c>
+      <c r="G106" s="11">
         <f t="shared" si="13"/>
-        <v>9999.9963047186375</v>
-      </c>
-      <c r="F106" s="11">
-        <f t="shared" si="14"/>
-        <v>8.1814511577249505E-3</v>
-      </c>
-      <c r="G106" s="11">
-        <f t="shared" si="12"/>
         <v>8.1814511577249505E-4</v>
       </c>
     </row>
@@ -32423,19 +33443,19 @@
         <v>105</v>
       </c>
       <c r="D107">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E107" s="11">
+        <f t="shared" si="14"/>
+        <v>9999.9969745593044</v>
+      </c>
+      <c r="F107" s="11">
+        <f t="shared" si="15"/>
+        <v>6.698406668874668E-3</v>
+      </c>
+      <c r="G107" s="11">
         <f t="shared" si="13"/>
-        <v>9999.9969745593044</v>
-      </c>
-      <c r="F107" s="11">
-        <f t="shared" si="14"/>
-        <v>6.698406668874668E-3</v>
-      </c>
-      <c r="G107" s="11">
-        <f t="shared" si="12"/>
         <v>6.698406668874668E-4</v>
       </c>
     </row>
@@ -32444,19 +33464,19 @@
         <v>106</v>
       </c>
       <c r="D108">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E108" s="11">
+        <f t="shared" si="14"/>
+        <v>9999.9975229785268</v>
+      </c>
+      <c r="F108" s="11">
+        <f t="shared" si="15"/>
+        <v>5.4841922246851027E-3</v>
+      </c>
+      <c r="G108" s="11">
         <f t="shared" si="13"/>
-        <v>9999.9975229785268</v>
-      </c>
-      <c r="F108" s="11">
-        <f t="shared" si="14"/>
-        <v>5.4841922246851027E-3</v>
-      </c>
-      <c r="G108" s="11">
-        <f t="shared" si="12"/>
         <v>5.4841922246851027E-4</v>
       </c>
     </row>
@@ -32465,19 +33485,19 @@
         <v>107</v>
       </c>
       <c r="D109">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E109" s="11">
+        <f t="shared" si="14"/>
+        <v>9999.9979719862531</v>
+      </c>
+      <c r="F109" s="11">
+        <f t="shared" si="15"/>
+        <v>4.4900772627443075E-3</v>
+      </c>
+      <c r="G109" s="11">
         <f t="shared" si="13"/>
-        <v>9999.9979719862531</v>
-      </c>
-      <c r="F109" s="11">
-        <f t="shared" si="14"/>
-        <v>4.4900772627443075E-3</v>
-      </c>
-      <c r="G109" s="11">
-        <f t="shared" si="12"/>
         <v>4.4900772627443075E-4</v>
       </c>
     </row>
@@ -32486,19 +33506,19 @@
         <v>108</v>
       </c>
       <c r="D110">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E110" s="11">
+        <f t="shared" si="14"/>
+        <v>9999.9983396027164</v>
+      </c>
+      <c r="F110" s="11">
+        <f t="shared" si="15"/>
+        <v>3.6761646333616227E-3</v>
+      </c>
+      <c r="G110" s="11">
         <f t="shared" si="13"/>
-        <v>9999.9983396027164</v>
-      </c>
-      <c r="F110" s="11">
-        <f t="shared" si="14"/>
-        <v>3.6761646333616227E-3</v>
-      </c>
-      <c r="G110" s="11">
-        <f t="shared" si="12"/>
         <v>3.6761646333616227E-4</v>
       </c>
     </row>
@@ -32507,19 +33527,19 @@
         <v>109</v>
       </c>
       <c r="D111">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E111" s="11">
+        <f t="shared" si="14"/>
+        <v>9999.9986405816398</v>
+      </c>
+      <c r="F111" s="11">
+        <f t="shared" si="15"/>
+        <v>3.0097892340563703E-3</v>
+      </c>
+      <c r="G111" s="11">
         <f t="shared" si="13"/>
-        <v>9999.9986405816398</v>
-      </c>
-      <c r="F111" s="11">
-        <f t="shared" si="14"/>
-        <v>3.0097892340563703E-3</v>
-      </c>
-      <c r="G111" s="11">
-        <f t="shared" si="12"/>
         <v>3.0097892340563703E-4</v>
       </c>
     </row>
@@ -32528,19 +33548,19 @@
         <v>110</v>
       </c>
       <c r="D112">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E112" s="11">
+        <f t="shared" si="14"/>
+        <v>9999.9988870023535</v>
+      </c>
+      <c r="F112" s="11">
+        <f t="shared" si="15"/>
+        <v>2.464207136654295E-3</v>
+      </c>
+      <c r="G112" s="11">
         <f t="shared" si="13"/>
-        <v>9999.9988870023535</v>
-      </c>
-      <c r="F112" s="11">
-        <f t="shared" si="14"/>
-        <v>2.464207136654295E-3</v>
-      </c>
-      <c r="G112" s="11">
-        <f t="shared" si="12"/>
         <v>2.464207136654295E-4</v>
       </c>
     </row>
@@ -32549,19 +33569,19 @@
         <v>111</v>
       </c>
       <c r="D113">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E113" s="11">
+        <f t="shared" si="14"/>
+        <v>9999.999088754581</v>
+      </c>
+      <c r="F113" s="11">
+        <f t="shared" si="15"/>
+        <v>2.0175222744001076E-3</v>
+      </c>
+      <c r="G113" s="11">
         <f t="shared" si="13"/>
-        <v>9999.999088754581</v>
-      </c>
-      <c r="F113" s="11">
-        <f t="shared" si="14"/>
-        <v>2.0175222744001076E-3</v>
-      </c>
-      <c r="G113" s="11">
-        <f t="shared" si="12"/>
         <v>2.0175222744001076E-4</v>
       </c>
     </row>
@@ -32570,19 +33590,19 @@
         <v>112</v>
       </c>
       <c r="D114">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E114" s="11">
+        <f t="shared" si="14"/>
+        <v>9999.9992539353389</v>
+      </c>
+      <c r="F114" s="11">
+        <f t="shared" si="15"/>
+        <v>1.6518075790372677E-3</v>
+      </c>
+      <c r="G114" s="11">
         <f t="shared" si="13"/>
-        <v>9999.9992539353389</v>
-      </c>
-      <c r="F114" s="11">
-        <f t="shared" si="14"/>
-        <v>1.6518075790372677E-3</v>
-      </c>
-      <c r="G114" s="11">
-        <f t="shared" si="12"/>
         <v>1.6518075790372677E-4</v>
       </c>
     </row>
@@ -32591,19 +33611,19 @@
         <v>113</v>
       </c>
       <c r="D115">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E115" s="11">
+        <f t="shared" si="14"/>
+        <v>9999.9993891739105</v>
+      </c>
+      <c r="F115" s="11">
+        <f t="shared" si="15"/>
+        <v>1.3523857160180341E-3</v>
+      </c>
+      <c r="G115" s="11">
         <f t="shared" si="13"/>
-        <v>9999.9993891739105</v>
-      </c>
-      <c r="F115" s="11">
-        <f t="shared" si="14"/>
-        <v>1.3523857160180341E-3</v>
-      </c>
-      <c r="G115" s="11">
-        <f t="shared" si="12"/>
         <v>1.3523857160180341E-4</v>
       </c>
     </row>
@@ -32612,19 +33632,19 @@
         <v>114</v>
       </c>
       <c r="D116">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E116" s="11">
+        <f t="shared" si="14"/>
+        <v>9999.9994998978891</v>
+      </c>
+      <c r="F116" s="11">
+        <f t="shared" si="15"/>
+        <v>1.1072397865063976E-3</v>
+      </c>
+      <c r="G116" s="11">
         <f t="shared" si="13"/>
-        <v>9999.9994998978891</v>
-      </c>
-      <c r="F116" s="11">
-        <f t="shared" si="14"/>
-        <v>1.1072397865063976E-3</v>
-      </c>
-      <c r="G116" s="11">
-        <f t="shared" si="12"/>
         <v>1.1072397865063976E-4</v>
       </c>
     </row>
@@ -32633,19 +33653,19 @@
         <v>115</v>
       </c>
       <c r="D117">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E117" s="11">
+        <f t="shared" si="14"/>
+        <v>9999.9995905510204</v>
+      </c>
+      <c r="F117" s="11">
+        <f t="shared" si="15"/>
+        <v>9.0653131337603554E-4</v>
+      </c>
+      <c r="G117" s="11">
         <f t="shared" si="13"/>
-        <v>9999.9995905510204</v>
-      </c>
-      <c r="F117" s="11">
-        <f t="shared" si="14"/>
-        <v>9.0653131337603554E-4</v>
-      </c>
-      <c r="G117" s="11">
-        <f t="shared" si="12"/>
         <v>9.0653131337603554E-5</v>
       </c>
     </row>
@@ -32654,19 +33674,19 @@
         <v>116</v>
       </c>
       <c r="D118">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E118" s="11">
+        <f t="shared" si="14"/>
+        <v>9999.999664771527</v>
+      </c>
+      <c r="F118" s="11">
+        <f t="shared" si="15"/>
+        <v>7.4220506576239131E-4</v>
+      </c>
+      <c r="G118" s="11">
         <f t="shared" si="13"/>
-        <v>9999.999664771527</v>
-      </c>
-      <c r="F118" s="11">
-        <f t="shared" si="14"/>
-        <v>7.4220506576239131E-4</v>
-      </c>
-      <c r="G118" s="11">
-        <f t="shared" si="12"/>
         <v>7.4220506576239131E-5</v>
       </c>
     </row>
@@ -32675,19 +33695,19 @@
         <v>117</v>
       </c>
       <c r="D119">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E119" s="11">
+        <f t="shared" si="14"/>
+        <v>9999.9997255381368</v>
+      </c>
+      <c r="F119" s="11">
+        <f t="shared" si="15"/>
+        <v>6.0766609749407507E-4</v>
+      </c>
+      <c r="G119" s="11">
         <f t="shared" si="13"/>
-        <v>9999.9997255381368</v>
-      </c>
-      <c r="F119" s="11">
-        <f t="shared" si="14"/>
-        <v>6.0766609749407507E-4</v>
-      </c>
-      <c r="G119" s="11">
-        <f t="shared" si="12"/>
         <v>6.0766609749407507E-5</v>
       </c>
     </row>
@@ -32696,19 +33716,19 @@
         <v>118</v>
       </c>
       <c r="D120">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E120" s="11">
+        <f t="shared" si="14"/>
+        <v>9999.9997752896306</v>
+      </c>
+      <c r="F120" s="11">
+        <f t="shared" si="15"/>
+        <v>4.9751493861549534E-4</v>
+      </c>
+      <c r="G120" s="11">
         <f t="shared" si="13"/>
-        <v>9999.9997752896306</v>
-      </c>
-      <c r="F120" s="11">
-        <f t="shared" si="14"/>
-        <v>4.9751493861549534E-4</v>
-      </c>
-      <c r="G120" s="11">
-        <f t="shared" si="12"/>
         <v>4.9751493861549534E-5</v>
       </c>
     </row>
@@ -32717,19 +33737,19 @@
         <v>119</v>
       </c>
       <c r="D121">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E121" s="11">
+        <f t="shared" si="14"/>
+        <v>9999.9998160227096</v>
+      </c>
+      <c r="F121" s="11">
+        <f t="shared" si="15"/>
+        <v>4.073307900398504E-4</v>
+      </c>
+      <c r="G121" s="11">
         <f t="shared" si="13"/>
-        <v>9999.9998160227096</v>
-      </c>
-      <c r="F121" s="11">
-        <f t="shared" si="14"/>
-        <v>4.073307900398504E-4</v>
-      </c>
-      <c r="G121" s="11">
-        <f t="shared" si="12"/>
         <v>4.073307900398504E-5</v>
       </c>
     </row>
@@ -32738,19 +33758,19 @@
         <v>120</v>
       </c>
       <c r="D122">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E122" s="11">
+        <f t="shared" si="14"/>
+        <v>9999.9998493721341</v>
+      </c>
+      <c r="F122" s="11">
+        <f t="shared" si="15"/>
+        <v>3.3349424484185874E-4</v>
+      </c>
+      <c r="G122" s="11">
         <f t="shared" si="13"/>
-        <v>9999.9998493721341</v>
-      </c>
-      <c r="F122" s="11">
-        <f t="shared" si="14"/>
-        <v>3.3349424484185874E-4</v>
-      </c>
-      <c r="G122" s="11">
-        <f t="shared" si="12"/>
         <v>3.3349424484185874E-5</v>
       </c>
     </row>
@@ -32759,19 +33779,19 @@
         <v>121</v>
       </c>
       <c r="D123">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E123" s="11">
+        <f t="shared" si="14"/>
+        <v>9999.9998766763329</v>
+      </c>
+      <c r="F123" s="11">
+        <f t="shared" si="15"/>
+        <v>2.7304198738420382E-4</v>
+      </c>
+      <c r="G123" s="11">
         <f t="shared" si="13"/>
-        <v>9999.9998766763329</v>
-      </c>
-      <c r="F123" s="11">
-        <f t="shared" si="14"/>
-        <v>2.7304198738420382E-4</v>
-      </c>
-      <c r="G123" s="11">
-        <f t="shared" si="12"/>
         <v>2.7304198738420382E-5</v>
       </c>
     </row>
@@ -32780,19 +33800,19 @@
         <v>122</v>
       </c>
       <c r="D124">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E124" s="11">
+        <f t="shared" si="14"/>
+        <v>9999.9998990311215</v>
+      </c>
+      <c r="F124" s="11">
+        <f t="shared" si="15"/>
+        <v>2.2354788598022424E-4</v>
+      </c>
+      <c r="G124" s="11">
         <f t="shared" si="13"/>
-        <v>9999.9998990311215</v>
-      </c>
-      <c r="F124" s="11">
-        <f t="shared" si="14"/>
-        <v>2.2354788598022424E-4</v>
-      </c>
-      <c r="G124" s="11">
-        <f t="shared" si="12"/>
         <v>2.2354788598022424E-5</v>
       </c>
     </row>
@@ -32801,19 +33821,19 @@
         <v>123</v>
       </c>
       <c r="D125">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E125" s="11">
+        <f t="shared" si="14"/>
+        <v>9999.9999173336728</v>
+      </c>
+      <c r="F125" s="11">
+        <f t="shared" si="15"/>
+        <v>1.8302551325177774E-4</v>
+      </c>
+      <c r="G125" s="11">
         <f t="shared" si="13"/>
-        <v>9999.9999173336728</v>
-      </c>
-      <c r="F125" s="11">
-        <f t="shared" si="14"/>
-        <v>1.8302551325177774E-4</v>
-      </c>
-      <c r="G125" s="11">
-        <f t="shared" si="12"/>
         <v>1.8302551325177774E-5</v>
       </c>
     </row>
@@ -32822,19 +33842,19 @@
         <v>124</v>
       </c>
       <c r="D126">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E126" s="11">
+        <f t="shared" si="14"/>
+        <v>9999.9999323185348</v>
+      </c>
+      <c r="F126" s="11">
+        <f t="shared" si="15"/>
+        <v>1.4984861991251819E-4</v>
+      </c>
+      <c r="G126" s="11">
         <f t="shared" si="13"/>
-        <v>9999.9999323185348</v>
-      </c>
-      <c r="F126" s="11">
-        <f t="shared" si="14"/>
-        <v>1.4984861991251819E-4</v>
-      </c>
-      <c r="G126" s="11">
-        <f t="shared" si="12"/>
         <v>1.4984861991251819E-5</v>
       </c>
     </row>
@@ -32843,19 +33863,19 @@
         <v>125</v>
       </c>
       <c r="D127">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E127" s="11">
+        <f t="shared" si="14"/>
+        <v>9999.9999445871035</v>
+      </c>
+      <c r="F127" s="11">
+        <f t="shared" si="15"/>
+        <v>1.2268568752915598E-4</v>
+      </c>
+      <c r="G127" s="11">
         <f t="shared" si="13"/>
-        <v>9999.9999445871035</v>
-      </c>
-      <c r="F127" s="11">
-        <f t="shared" si="14"/>
-        <v>1.2268568752915598E-4</v>
-      </c>
-      <c r="G127" s="11">
-        <f t="shared" si="12"/>
         <v>1.2268568752915598E-5</v>
       </c>
     </row>
@@ -32864,19 +33884,19 @@
         <v>126</v>
       </c>
       <c r="D128">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E128" s="11">
+        <f t="shared" si="14"/>
+        <v>9999.9999546317576</v>
+      </c>
+      <c r="F128" s="11">
+        <f t="shared" si="15"/>
+        <v>1.0044654118246399E-4</v>
+      </c>
+      <c r="G128" s="11">
         <f t="shared" si="13"/>
-        <v>9999.9999546317576</v>
-      </c>
-      <c r="F128" s="11">
-        <f t="shared" si="14"/>
-        <v>1.0044654118246399E-4</v>
-      </c>
-      <c r="G128" s="11">
-        <f t="shared" si="12"/>
         <v>1.0044654118246399E-5</v>
       </c>
     </row>
@@ -32885,19 +33905,19 @@
         <v>127</v>
       </c>
       <c r="D129">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E129" s="11">
+        <f t="shared" si="14"/>
+        <v>9999.9999628556252</v>
+      </c>
+      <c r="F129" s="11">
+        <f t="shared" si="15"/>
+        <v>8.2238675531698391E-5</v>
+      </c>
+      <c r="G129" s="11">
         <f t="shared" si="13"/>
-        <v>9999.9999628556252</v>
-      </c>
-      <c r="F129" s="11">
-        <f t="shared" si="14"/>
-        <v>8.2238675531698391E-5</v>
-      </c>
-      <c r="G129" s="11">
-        <f t="shared" si="12"/>
         <v>8.2238675531698391E-6</v>
       </c>
     </row>
@@ -32906,19 +33926,19 @@
         <v>128</v>
       </c>
       <c r="D130">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E130" s="11">
+        <f t="shared" si="14"/>
+        <v>9999.9999695887582</v>
+      </c>
+      <c r="F130" s="11">
+        <f t="shared" si="15"/>
+        <v>6.7331329773878679E-5</v>
+      </c>
+      <c r="G130" s="11">
         <f t="shared" si="13"/>
-        <v>9999.9999695887582</v>
-      </c>
-      <c r="F130" s="11">
-        <f t="shared" si="14"/>
-        <v>6.7331329773878679E-5</v>
-      </c>
-      <c r="G130" s="11">
-        <f t="shared" si="12"/>
         <v>6.7331329773878679E-6</v>
       </c>
     </row>
@@ -32927,19 +33947,19 @@
         <v>129</v>
       </c>
       <c r="D131">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E131" s="11">
-        <f t="shared" ref="E131:E149" si="15">$K$2/(1+$K$5*EXP(-$K$4*B131))</f>
+        <f t="shared" ref="E131:E149" si="16">$K$2/(1+$K$5*EXP(-$K$4*B131))</f>
         <v>9999.999975101382</v>
       </c>
       <c r="F131" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5.512623829417862E-5</v>
       </c>
       <c r="G131" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>5.512623829417862E-6</v>
       </c>
     </row>
@@ -32948,19 +33968,19 @@
         <v>130</v>
       </c>
       <c r="D132">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E132" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>9999.9999796147349</v>
       </c>
       <c r="F132" s="11">
-        <f t="shared" ref="F132:F149" si="16">(E132-E131)*10</f>
+        <f t="shared" ref="F132:F149" si="17">(E132-E131)*10</f>
         <v>4.513352905632928E-5</v>
       </c>
       <c r="G132" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4.513352905632928E-6</v>
       </c>
     </row>
@@ -32969,19 +33989,19 @@
         <v>131</v>
       </c>
       <c r="D133">
-        <f t="shared" ref="D133:D149" si="17">C133-C132</f>
+        <f t="shared" ref="D133:D149" si="18">C133-C132</f>
         <v>0</v>
       </c>
       <c r="E133" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>9999.9999833099573</v>
       </c>
       <c r="F133" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3.6952224036213011E-5</v>
       </c>
       <c r="G133" s="11">
-        <f t="shared" ref="G133:G149" si="18">E133-E132</f>
+        <f t="shared" ref="G133:G149" si="19">E133-E132</f>
         <v>3.6952224036213011E-6</v>
       </c>
     </row>
@@ -32990,19 +34010,19 @@
         <v>132</v>
       </c>
       <c r="D134">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="E134" s="11">
+        <f t="shared" si="16"/>
+        <v>9999.9999863353478</v>
+      </c>
+      <c r="F134" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E134" s="11">
-        <f t="shared" si="15"/>
-        <v>9999.9999863353478</v>
-      </c>
-      <c r="F134" s="11">
-        <f t="shared" si="16"/>
         <v>3.0253904697019607E-5</v>
       </c>
       <c r="G134" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>3.0253904697019607E-6</v>
       </c>
     </row>
@@ -33011,19 +34031,19 @@
         <v>133</v>
       </c>
       <c r="D135">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="E135" s="11">
+        <f t="shared" si="16"/>
+        <v>9999.9999888123293</v>
+      </c>
+      <c r="F135" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E135" s="11">
-        <f t="shared" si="15"/>
-        <v>9999.9999888123293</v>
-      </c>
-      <c r="F135" s="11">
-        <f t="shared" si="16"/>
         <v>2.4769815354375169E-5</v>
       </c>
       <c r="G135" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2.4769815354375169E-6</v>
       </c>
     </row>
@@ -33032,19 +34052,19 @@
         <v>134</v>
       </c>
       <c r="D136">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="E136" s="11">
+        <f t="shared" si="16"/>
+        <v>9999.9999908403097</v>
+      </c>
+      <c r="F136" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E136" s="11">
-        <f t="shared" si="15"/>
-        <v>9999.9999908403097</v>
-      </c>
-      <c r="F136" s="11">
-        <f t="shared" si="16"/>
         <v>2.0279803720768541E-5</v>
       </c>
       <c r="G136" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2.0279803720768541E-6</v>
       </c>
     </row>
@@ -33053,19 +34073,19 @@
         <v>135</v>
       </c>
       <c r="D137">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="E137" s="11">
+        <f t="shared" si="16"/>
+        <v>9999.9999925006814</v>
+      </c>
+      <c r="F137" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E137" s="11">
-        <f t="shared" si="15"/>
-        <v>9999.9999925006814</v>
-      </c>
-      <c r="F137" s="11">
-        <f t="shared" si="16"/>
         <v>1.6603717085672542E-5</v>
       </c>
       <c r="G137" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.6603717085672542E-6</v>
       </c>
     </row>
@@ -33074,19 +34094,19 @@
         <v>136</v>
       </c>
       <c r="D138">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="E138" s="11">
+        <f t="shared" si="16"/>
+        <v>9999.9999938600758</v>
+      </c>
+      <c r="F138" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E138" s="11">
-        <f t="shared" si="15"/>
-        <v>9999.9999938600758</v>
-      </c>
-      <c r="F138" s="11">
-        <f t="shared" si="16"/>
         <v>1.3593944458989426E-5</v>
       </c>
       <c r="G138" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.3593944458989426E-6</v>
       </c>
     </row>
@@ -33095,19 +34115,19 @@
         <v>137</v>
       </c>
       <c r="D139">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="E139" s="11">
+        <f t="shared" si="16"/>
+        <v>9999.9999949730536</v>
+      </c>
+      <c r="F139" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E139" s="11">
-        <f t="shared" si="15"/>
-        <v>9999.9999949730536</v>
-      </c>
-      <c r="F139" s="11">
-        <f t="shared" si="16"/>
         <v>1.112977770389989E-5</v>
       </c>
       <c r="G139" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.112977770389989E-6</v>
       </c>
     </row>
@@ -33116,19 +34136,19 @@
         <v>138</v>
       </c>
       <c r="D140">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="E140" s="11">
+        <f t="shared" si="16"/>
+        <v>9999.9999958842855</v>
+      </c>
+      <c r="F140" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E140" s="11">
-        <f t="shared" si="15"/>
-        <v>9999.9999958842855</v>
-      </c>
-      <c r="F140" s="11">
-        <f t="shared" si="16"/>
         <v>9.1123183665331453E-6</v>
       </c>
       <c r="G140" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>9.1123183665331453E-7</v>
       </c>
     </row>
@@ -33137,19 +34157,19 @@
         <v>139</v>
       </c>
       <c r="D141">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="E141" s="11">
+        <f t="shared" si="16"/>
+        <v>9999.9999966303385</v>
+      </c>
+      <c r="F141" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E141" s="11">
-        <f t="shared" si="15"/>
-        <v>9999.9999966303385</v>
-      </c>
-      <c r="F141" s="11">
-        <f t="shared" si="16"/>
         <v>7.460530468961224E-6</v>
       </c>
       <c r="G141" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>7.460530468961224E-7</v>
       </c>
     </row>
@@ -33158,19 +34178,19 @@
         <v>140</v>
       </c>
       <c r="D142">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="E142" s="11">
+        <f t="shared" si="16"/>
+        <v>9999.9999972411533</v>
+      </c>
+      <c r="F142" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E142" s="11">
-        <f t="shared" si="15"/>
-        <v>9999.9999972411533</v>
-      </c>
-      <c r="F142" s="11">
-        <f t="shared" si="16"/>
         <v>6.1081482272129506E-6</v>
       </c>
       <c r="G142" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>6.1081482272129506E-7</v>
       </c>
     </row>
@@ -33179,19 +34199,19 @@
         <v>141</v>
       </c>
       <c r="D143">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="E143" s="11">
+        <f t="shared" si="16"/>
+        <v>9999.9999977412499</v>
+      </c>
+      <c r="F143" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E143" s="11">
-        <f t="shared" si="15"/>
-        <v>9999.9999977412499</v>
-      </c>
-      <c r="F143" s="11">
-        <f t="shared" si="16"/>
         <v>5.0009657570626587E-6</v>
       </c>
       <c r="G143" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>5.0009657570626587E-7</v>
       </c>
     </row>
@@ -33200,19 +34220,19 @@
         <v>142</v>
       </c>
       <c r="D144">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="E144" s="11">
+        <f t="shared" si="16"/>
+        <v>9999.9999981506899</v>
+      </c>
+      <c r="F144" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E144" s="11">
-        <f t="shared" si="15"/>
-        <v>9999.9999981506899</v>
-      </c>
-      <c r="F144" s="11">
-        <f t="shared" si="16"/>
         <v>4.0943996282294393E-6</v>
       </c>
       <c r="G144" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>4.0943996282294393E-7</v>
       </c>
     </row>
@@ -33221,19 +34241,19 @@
         <v>143</v>
       </c>
       <c r="D145">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="E145" s="11">
+        <f t="shared" si="16"/>
+        <v>9999.9999984859132</v>
+      </c>
+      <c r="F145" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E145" s="11">
-        <f t="shared" si="15"/>
-        <v>9999.9999984859132</v>
-      </c>
-      <c r="F145" s="11">
-        <f t="shared" si="16"/>
         <v>3.3522337616886944E-6</v>
       </c>
       <c r="G145" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>3.3522337616886944E-7</v>
       </c>
     </row>
@@ -33242,19 +34262,19 @@
         <v>144</v>
       </c>
       <c r="D146">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="E146" s="11">
+        <f t="shared" si="16"/>
+        <v>9999.9999987603715</v>
+      </c>
+      <c r="F146" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E146" s="11">
-        <f t="shared" si="15"/>
-        <v>9999.9999987603715</v>
-      </c>
-      <c r="F146" s="11">
-        <f t="shared" si="16"/>
         <v>2.7445821615401655E-6</v>
       </c>
       <c r="G146" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2.7445821615401655E-7</v>
       </c>
     </row>
@@ -33263,19 +34283,19 @@
         <v>145</v>
       </c>
       <c r="D147">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="E147" s="11">
+        <f t="shared" si="16"/>
+        <v>9999.9999989850767</v>
+      </c>
+      <c r="F147" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E147" s="11">
-        <f t="shared" si="15"/>
-        <v>9999.9999989850767</v>
-      </c>
-      <c r="F147" s="11">
-        <f t="shared" si="16"/>
         <v>2.2470521798823029E-6</v>
       </c>
       <c r="G147" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2.2470521798823029E-7</v>
       </c>
     </row>
@@ -33284,19 +34304,19 @@
         <v>146</v>
       </c>
       <c r="D148">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="E148" s="11">
+        <f t="shared" si="16"/>
+        <v>9999.9999991690511</v>
+      </c>
+      <c r="F148" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E148" s="11">
-        <f t="shared" si="15"/>
-        <v>9999.9999991690511</v>
-      </c>
-      <c r="F148" s="11">
-        <f t="shared" si="16"/>
         <v>1.8397440726403147E-6</v>
       </c>
       <c r="G148" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.8397440726403147E-7</v>
       </c>
     </row>
@@ -33305,19 +34325,19 @@
         <v>147</v>
       </c>
       <c r="D149">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="E149" s="11">
+        <f t="shared" si="16"/>
+        <v>9999.999999319678</v>
+      </c>
+      <c r="F149" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E149" s="11">
-        <f t="shared" si="15"/>
-        <v>9999.999999319678</v>
-      </c>
-      <c r="F149" s="11">
-        <f t="shared" si="16"/>
         <v>1.5062687452882528E-6</v>
       </c>
       <c r="G149" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.5062687452882528E-7</v>
       </c>
     </row>
@@ -33336,8 +34356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37:I38"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -33396,7 +34416,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="3">
-        <f>Dati!J3</f>
+        <f>Dati!K3</f>
         <v>0</v>
       </c>
       <c r="F3" s="11">
@@ -33423,7 +34443,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="3">
-        <f>Dati!J4</f>
+        <f>Dati!K4</f>
         <v>0</v>
       </c>
       <c r="D4">
@@ -33466,7 +34486,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="3">
-        <f>Dati!J5</f>
+        <f>Dati!K5</f>
         <v>0</v>
       </c>
       <c r="D5">
@@ -33490,7 +34510,7 @@
         <v>0.42852209210034164</v>
       </c>
       <c r="I5" s="11">
-        <f t="shared" ref="I5:I38" si="5">C5-F5</f>
+        <f t="shared" ref="I5:I40" si="5">C5-F5</f>
         <v>-2.3670678976232833</v>
       </c>
       <c r="J5" s="11"/>
@@ -33510,7 +34530,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="3">
-        <f>Dati!J6</f>
+        <f>Dati!K6</f>
         <v>0</v>
       </c>
       <c r="D6">
@@ -33547,7 +34567,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="3">
-        <f>Dati!J7</f>
+        <f>Dati!K7</f>
         <v>0</v>
       </c>
       <c r="D7">
@@ -33584,7 +34604,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="3">
-        <f>Dati!J8</f>
+        <f>Dati!K8</f>
         <v>0</v>
       </c>
       <c r="D8">
@@ -33628,7 +34648,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="3">
-        <f>Dati!J9</f>
+        <f>Dati!K9</f>
         <v>0</v>
       </c>
       <c r="D9">
@@ -33672,7 +34692,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="3">
-        <f>Dati!J10</f>
+        <f>Dati!K10</f>
         <v>0</v>
       </c>
       <c r="D10">
@@ -33709,7 +34729,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="3">
-        <f>Dati!J11</f>
+        <f>Dati!K11</f>
         <v>0</v>
       </c>
       <c r="D11">
@@ -33746,7 +34766,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="3">
-        <f>Dati!J12</f>
+        <f>Dati!K12</f>
         <v>0</v>
       </c>
       <c r="D12">
@@ -33790,7 +34810,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="3">
-        <f>Dati!J13</f>
+        <f>Dati!K13</f>
         <v>2</v>
       </c>
       <c r="D13">
@@ -33834,7 +34854,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="3">
-        <f>Dati!J14</f>
+        <f>Dati!K14</f>
         <v>4</v>
       </c>
       <c r="D14">
@@ -33871,7 +34891,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="3">
-        <f>Dati!J15</f>
+        <f>Dati!K15</f>
         <v>5</v>
       </c>
       <c r="D15">
@@ -33908,7 +34928,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="3">
-        <f>Dati!J16</f>
+        <f>Dati!K16</f>
         <v>5</v>
       </c>
       <c r="D16">
@@ -33945,7 +34965,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="3">
-        <f>Dati!J17</f>
+        <f>Dati!K17</f>
         <v>13</v>
       </c>
       <c r="D17">
@@ -33982,7 +35002,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="3">
-        <f>Dati!J18</f>
+        <f>Dati!K18</f>
         <v>17</v>
       </c>
       <c r="D18">
@@ -34019,7 +35039,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="3">
-        <f>Dati!J19</f>
+        <f>Dati!K19</f>
         <v>21</v>
       </c>
       <c r="D19">
@@ -34056,7 +35076,7 @@
         <v>18</v>
       </c>
       <c r="C20" s="3">
-        <f>Dati!J20</f>
+        <f>Dati!K20</f>
         <v>26</v>
       </c>
       <c r="D20">
@@ -34093,7 +35113,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="3">
-        <f>Dati!J21</f>
+        <f>Dati!K21</f>
         <v>46</v>
       </c>
       <c r="D21">
@@ -34130,7 +35150,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="3">
-        <f>Dati!J22</f>
+        <f>Dati!K22</f>
         <v>59</v>
       </c>
       <c r="D22">
@@ -34167,7 +35187,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="3">
-        <f>Dati!J23</f>
+        <f>Dati!K23</f>
         <v>81</v>
       </c>
       <c r="D23">
@@ -34204,7 +35224,7 @@
         <v>22</v>
       </c>
       <c r="C24" s="3">
-        <f>Dati!J24</f>
+        <f>Dati!K24</f>
         <v>111</v>
       </c>
       <c r="D24">
@@ -34241,7 +35261,7 @@
         <v>23</v>
       </c>
       <c r="C25" s="3">
-        <f>Dati!J25</f>
+        <f>Dati!K25</f>
         <v>133</v>
       </c>
       <c r="D25">
@@ -34278,7 +35298,7 @@
         <v>24</v>
       </c>
       <c r="C26" s="3">
-        <f>Dati!J26</f>
+        <f>Dati!K26</f>
         <v>154</v>
       </c>
       <c r="D26">
@@ -34315,7 +35335,7 @@
         <v>25</v>
       </c>
       <c r="C27" s="3">
-        <f>Dati!J27</f>
+        <f>Dati!K27</f>
         <v>175</v>
       </c>
       <c r="D27">
@@ -34352,7 +35372,7 @@
         <v>26</v>
       </c>
       <c r="C28" s="3">
-        <f>Dati!J28</f>
+        <f>Dati!K28</f>
         <v>209</v>
       </c>
       <c r="D28">
@@ -34389,7 +35409,7 @@
         <v>27</v>
       </c>
       <c r="C29" s="3">
-        <f>Dati!J29</f>
+        <f>Dati!K29</f>
         <v>238</v>
       </c>
       <c r="D29">
@@ -34426,7 +35446,7 @@
         <v>28</v>
       </c>
       <c r="C30" s="3">
-        <f>Dati!J30</f>
+        <f>Dati!K30</f>
         <v>283</v>
       </c>
       <c r="D30">
@@ -34463,7 +35483,7 @@
         <v>29</v>
       </c>
       <c r="C31" s="3">
-        <f>Dati!J31</f>
+        <f>Dati!K31</f>
         <v>315</v>
       </c>
       <c r="D31">
@@ -34500,7 +35520,7 @@
         <v>30</v>
       </c>
       <c r="C32" s="3">
-        <f>Dati!J32</f>
+        <f>Dati!K32</f>
         <v>374</v>
       </c>
       <c r="D32">
@@ -34537,7 +35557,7 @@
         <v>31</v>
       </c>
       <c r="C33" s="3">
-        <f>Dati!J33</f>
+        <f>Dati!K33</f>
         <v>449</v>
       </c>
       <c r="D33">
@@ -34574,7 +35594,7 @@
         <v>32</v>
       </c>
       <c r="C34" s="3">
-        <f>Dati!J34</f>
+        <f>Dati!K34</f>
         <v>449</v>
       </c>
       <c r="D34">
@@ -34611,7 +35631,7 @@
         <v>33</v>
       </c>
       <c r="C35" s="3">
-        <f>Dati!J35</f>
+        <f>Dati!K35</f>
         <v>569</v>
       </c>
       <c r="D35">
@@ -34648,7 +35668,7 @@
         <v>34</v>
       </c>
       <c r="C36" s="3">
-        <f>Dati!J36</f>
+        <f>Dati!K36</f>
         <v>617</v>
       </c>
       <c r="D36">
@@ -34685,7 +35705,7 @@
         <v>35</v>
       </c>
       <c r="C37" s="3">
-        <f>Dati!J37</f>
+        <f>Dati!K37</f>
         <v>684</v>
       </c>
       <c r="D37">
@@ -34722,7 +35742,7 @@
         <v>36</v>
       </c>
       <c r="C38" s="3">
-        <f>Dati!J38</f>
+        <f>Dati!K38</f>
         <v>749</v>
       </c>
       <c r="D38">
@@ -34758,7 +35778,18 @@
       <c r="B39" s="10">
         <v>37</v>
       </c>
-      <c r="C39" s="3"/>
+      <c r="C39" s="3">
+        <f>Dati!K39</f>
+        <v>854</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ref="D39:D40" si="12">C39-C38</f>
+        <v>105</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ref="E39:E40" si="13">10*(C39-C38)</f>
+        <v>1050</v>
+      </c>
       <c r="F39" s="11">
         <f t="shared" si="9"/>
         <v>879.93034041283602</v>
@@ -34771,7 +35802,10 @@
         <f t="shared" si="4"/>
         <v>73.781500415558298</v>
       </c>
-      <c r="I39" s="11"/>
+      <c r="I39" s="11">
+        <f t="shared" si="5"/>
+        <v>-25.930340412836017</v>
+      </c>
       <c r="J39" s="11"/>
     </row>
     <row r="40" spans="1:10">
@@ -34781,7 +35815,18 @@
       <c r="B40" s="10">
         <v>38</v>
       </c>
-      <c r="C40" s="3"/>
+      <c r="C40" s="3">
+        <f>Dati!K40</f>
+        <v>886</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="12"/>
+        <v>32</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="13"/>
+        <v>320</v>
+      </c>
       <c r="F40" s="11">
         <f t="shared" si="9"/>
         <v>951.20718673198485</v>
@@ -34794,7 +35839,10 @@
         <f t="shared" si="4"/>
         <v>71.276846319148831</v>
       </c>
-      <c r="I40" s="11"/>
+      <c r="I40" s="11">
+        <f t="shared" si="5"/>
+        <v>-65.207186731984848</v>
+      </c>
       <c r="J40" s="11"/>
     </row>
     <row r="41" spans="1:10">
@@ -35243,7 +36291,7 @@
       </c>
       <c r="C60" s="3"/>
       <c r="F60" s="11">
-        <f t="shared" ref="F60:F67" si="12">$L$2/(1+$L$5*EXP(-$L$4*B60))</f>
+        <f t="shared" ref="F60:F67" si="14">$L$2/(1+$L$5*EXP(-$L$4*B60))</f>
         <v>1484.3151101381839</v>
       </c>
       <c r="G60" s="11">
@@ -35266,7 +36314,7 @@
       </c>
       <c r="C61" s="3"/>
       <c r="F61" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1487.1339111704256</v>
       </c>
       <c r="G61" s="11">
@@ -35289,7 +36337,7 @@
       </c>
       <c r="C62" s="3"/>
       <c r="F62" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1489.4497336647862</v>
       </c>
       <c r="G62" s="11">
@@ -35312,7 +36360,7 @@
       </c>
       <c r="C63" s="3"/>
       <c r="F63" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1491.3511455614687</v>
       </c>
       <c r="G63" s="11">
@@ -35335,7 +36383,7 @@
       </c>
       <c r="C64" s="3"/>
       <c r="F64" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1492.9115081360642</v>
       </c>
       <c r="G64" s="11">
@@ -35358,7 +36406,7 @@
       </c>
       <c r="C65" s="3"/>
       <c r="F65" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1494.1914580219316</v>
       </c>
       <c r="G65" s="11">
@@ -35381,7 +36429,7 @@
       </c>
       <c r="C66" s="3"/>
       <c r="F66" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1495.2410275387863</v>
       </c>
       <c r="G66" s="11">
@@ -35404,7 +36452,7 @@
       </c>
       <c r="C67" s="3"/>
       <c r="F67" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1496.1014408176516</v>
       </c>
       <c r="G67" s="11">
@@ -35431,10 +36479,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:E39"/>
+      <selection activeCell="A38" sqref="A38:E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -35466,7 +36514,7 @@
         <v>43885.75</v>
       </c>
       <c r="B3" s="3">
-        <f>Dati!K3</f>
+        <f>Dati!L3</f>
         <v>3</v>
       </c>
     </row>
@@ -35475,7 +36523,7 @@
         <v>43886</v>
       </c>
       <c r="B4" s="3">
-        <f>Dati!K4</f>
+        <f>Dati!L4</f>
         <v>3</v>
       </c>
       <c r="C4">
@@ -35488,7 +36536,7 @@
         <v>43887</v>
       </c>
       <c r="B5" s="3">
-        <f>Dati!K5</f>
+        <f>Dati!L5</f>
         <v>3</v>
       </c>
       <c r="C5">
@@ -35505,7 +36553,7 @@
         <v>43888</v>
       </c>
       <c r="B6" s="3">
-        <f>Dati!K6</f>
+        <f>Dati!L6</f>
         <v>2</v>
       </c>
       <c r="C6">
@@ -35526,7 +36574,7 @@
         <v>43889</v>
       </c>
       <c r="B7" s="3">
-        <f>Dati!K7</f>
+        <f>Dati!L7</f>
         <v>11</v>
       </c>
       <c r="C7">
@@ -35547,7 +36595,7 @@
         <v>43890</v>
       </c>
       <c r="B8" s="3">
-        <f>Dati!K8</f>
+        <f>Dati!L8</f>
         <v>11</v>
       </c>
       <c r="C8">
@@ -35568,7 +36616,7 @@
         <v>43891</v>
       </c>
       <c r="B9" s="3">
-        <f>Dati!K9</f>
+        <f>Dati!L9</f>
         <v>49</v>
       </c>
       <c r="C9">
@@ -35589,7 +36637,7 @@
         <v>43892</v>
       </c>
       <c r="B10" s="3">
-        <f>Dati!K10</f>
+        <f>Dati!L10</f>
         <v>51</v>
       </c>
       <c r="C10">
@@ -35610,7 +36658,7 @@
         <v>43893</v>
       </c>
       <c r="B11" s="3">
-        <f>Dati!K11</f>
+        <f>Dati!L11</f>
         <v>56</v>
       </c>
       <c r="C11">
@@ -35631,7 +36679,7 @@
         <v>43894</v>
       </c>
       <c r="B12" s="3">
-        <f>Dati!K12</f>
+        <f>Dati!L12</f>
         <v>82</v>
       </c>
       <c r="C12">
@@ -35652,7 +36700,7 @@
         <v>43895</v>
       </c>
       <c r="B13" s="3">
-        <f>Dati!K13</f>
+        <f>Dati!L13</f>
         <v>108</v>
       </c>
       <c r="C13">
@@ -35673,7 +36721,7 @@
         <v>43896</v>
       </c>
       <c r="B14" s="3">
-        <f>Dati!K14</f>
+        <f>Dati!L14</f>
         <v>143</v>
       </c>
       <c r="C14">
@@ -35694,7 +36742,7 @@
         <v>43897</v>
       </c>
       <c r="B15" s="3">
-        <f>Dati!K15</f>
+        <f>Dati!L15</f>
         <v>207</v>
       </c>
       <c r="C15">
@@ -35715,7 +36763,7 @@
         <v>43898</v>
       </c>
       <c r="B16" s="3">
-        <f>Dati!K16</f>
+        <f>Dati!L16</f>
         <v>360</v>
       </c>
       <c r="C16">
@@ -35736,7 +36784,7 @@
         <v>43899</v>
       </c>
       <c r="B17" s="3">
-        <f>Dati!K17</f>
+        <f>Dati!L17</f>
         <v>350</v>
       </c>
       <c r="C17">
@@ -35757,7 +36805,7 @@
         <v>43900</v>
       </c>
       <c r="B18" s="3">
-        <f>Dati!K18</f>
+        <f>Dati!L18</f>
         <v>453</v>
       </c>
       <c r="C18">
@@ -35778,7 +36826,7 @@
         <v>43901</v>
       </c>
       <c r="B19" s="3">
-        <f>Dati!K19</f>
+        <f>Dati!L19</f>
         <v>501</v>
       </c>
       <c r="C19">
@@ -35799,7 +36847,7 @@
         <v>43902</v>
       </c>
       <c r="B20" s="3">
-        <f>Dati!K20</f>
+        <f>Dati!L20</f>
         <v>580</v>
       </c>
       <c r="C20">
@@ -35820,7 +36868,7 @@
         <v>43903</v>
       </c>
       <c r="B21" s="3">
-        <f>Dati!K21</f>
+        <f>Dati!L21</f>
         <v>840</v>
       </c>
       <c r="C21">
@@ -35841,7 +36889,7 @@
         <v>43904</v>
       </c>
       <c r="B22" s="3">
-        <f>Dati!K22</f>
+        <f>Dati!L22</f>
         <v>873</v>
       </c>
       <c r="C22">
@@ -35862,7 +36910,7 @@
         <v>43905</v>
       </c>
       <c r="B23" s="3">
-        <f>Dati!K23</f>
+        <f>Dati!L23</f>
         <v>1111</v>
       </c>
       <c r="C23">
@@ -35883,7 +36931,7 @@
         <v>43906</v>
       </c>
       <c r="B24" s="3">
-        <f>Dati!K24</f>
+        <f>Dati!L24</f>
         <v>1516</v>
       </c>
       <c r="C24">
@@ -35904,7 +36952,7 @@
         <v>43907</v>
       </c>
       <c r="B25" s="3">
-        <f>Dati!K25</f>
+        <f>Dati!L25</f>
         <v>1897</v>
       </c>
       <c r="C25">
@@ -35925,7 +36973,7 @@
         <v>43908</v>
       </c>
       <c r="B26" s="3">
-        <f>Dati!K26</f>
+        <f>Dati!L26</f>
         <v>2341</v>
       </c>
       <c r="C26">
@@ -35946,7 +36994,7 @@
         <v>43909</v>
       </c>
       <c r="B27" s="3">
-        <f>Dati!K27</f>
+        <f>Dati!L27</f>
         <v>2932</v>
       </c>
       <c r="C27">
@@ -35967,7 +37015,7 @@
         <v>43910</v>
       </c>
       <c r="B28" s="3">
-        <f>Dati!K28</f>
+        <f>Dati!L28</f>
         <v>3461</v>
       </c>
       <c r="C28">
@@ -35988,7 +37036,7 @@
         <v>43911</v>
       </c>
       <c r="B29" s="3">
-        <f>Dati!K29</f>
+        <f>Dati!L29</f>
         <v>3752</v>
       </c>
       <c r="C29">
@@ -36009,7 +37057,7 @@
         <v>43912</v>
       </c>
       <c r="B30" s="3">
-        <f>Dati!K30</f>
+        <f>Dati!L30</f>
         <v>4420</v>
       </c>
       <c r="C30">
@@ -36030,7 +37078,7 @@
         <v>43913</v>
       </c>
       <c r="B31" s="3">
-        <f>Dati!K31</f>
+        <f>Dati!L31</f>
         <v>4861</v>
       </c>
       <c r="C31">
@@ -36051,7 +37099,7 @@
         <v>43914</v>
       </c>
       <c r="B32" s="3">
-        <f>Dati!K32</f>
+        <f>Dati!L32</f>
         <v>5515</v>
       </c>
       <c r="C32">
@@ -36072,7 +37120,7 @@
         <v>43915</v>
       </c>
       <c r="B33" s="3">
-        <f>Dati!K33</f>
+        <f>Dati!L33</f>
         <v>6024</v>
       </c>
       <c r="C33">
@@ -36093,7 +37141,7 @@
         <v>43916</v>
       </c>
       <c r="B34" s="3">
-        <f>Dati!K34</f>
+        <f>Dati!L34</f>
         <v>6534</v>
       </c>
       <c r="C34">
@@ -36114,7 +37162,7 @@
         <v>43917</v>
       </c>
       <c r="B35" s="3">
-        <f>Dati!K35</f>
+        <f>Dati!L35</f>
         <v>7092</v>
       </c>
       <c r="C35">
@@ -36135,7 +37183,7 @@
         <v>43918</v>
       </c>
       <c r="B36" s="3">
-        <f>Dati!K36</f>
+        <f>Dati!L36</f>
         <v>7671</v>
       </c>
       <c r="C36">
@@ -36156,7 +37204,7 @@
         <v>43919</v>
       </c>
       <c r="B37" s="3">
-        <f>Dati!K37</f>
+        <f>Dati!L37</f>
         <v>8206</v>
       </c>
       <c r="C37">
@@ -36177,25 +37225,63 @@
         <v>43920</v>
       </c>
       <c r="B38" s="3">
-        <f>Dati!K38</f>
+        <f>Dati!L38</f>
         <v>8712</v>
       </c>
       <c r="C38">
-        <f t="shared" ref="C38:C39" si="6">B38-B37</f>
+        <f t="shared" ref="C38" si="6">B38-B37</f>
         <v>506</v>
       </c>
       <c r="D38">
-        <f t="shared" ref="D38:D39" si="7">C38-C37</f>
+        <f t="shared" ref="D38" si="7">C38-C37</f>
         <v>-29</v>
       </c>
       <c r="E38">
-        <f t="shared" ref="E38:E39" si="8">D38-D37</f>
+        <f t="shared" ref="E38" si="8">D38-D37</f>
         <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="2"/>
-      <c r="B39" s="3"/>
+      <c r="A39" s="2">
+        <v>43921</v>
+      </c>
+      <c r="B39" s="3">
+        <f>Dati!L39</f>
+        <v>9301</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ref="C39:C40" si="9">B39-B38</f>
+        <v>589</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ref="D39:D40" si="10">C39-C38</f>
+        <v>83</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ref="E39:E40" si="11">D39-D38</f>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="2">
+        <v>43922</v>
+      </c>
+      <c r="B40" s="3">
+        <f>Dati!L40</f>
+        <v>9795</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="9"/>
+        <v>494</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="10"/>
+        <v>-95</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="11"/>
+        <v>-178</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
@@ -36209,10 +37295,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:E38"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -36971,6 +38057,48 @@
         <v>9</v>
       </c>
     </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="2">
+        <v>43921</v>
+      </c>
+      <c r="B39" s="3">
+        <f>Dati!D39</f>
+        <v>452</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ref="C39:C40" si="9">B39-B38</f>
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ref="D39:D40" si="10">C39-C38</f>
+        <v>-9</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ref="E39:E40" si="11">D39-D38</f>
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="2">
+        <v>43922</v>
+      </c>
+      <c r="B40" s="3">
+        <f>Dati!D40</f>
+        <v>453</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
   <drawing r:id="rId1"/>
@@ -36979,10 +38107,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:E38"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -37015,7 +38143,7 @@
         <v>43885.75</v>
       </c>
       <c r="B3" s="3">
-        <f>Dati!I3</f>
+        <f>Dati!J3</f>
         <v>0</v>
       </c>
     </row>
@@ -37024,7 +38152,7 @@
         <v>43886</v>
       </c>
       <c r="B4" s="3">
-        <f>Dati!I4</f>
+        <f>Dati!J4</f>
         <v>0</v>
       </c>
       <c r="C4">
@@ -37037,7 +38165,7 @@
         <v>43887</v>
       </c>
       <c r="B5" s="3">
-        <f>Dati!I5</f>
+        <f>Dati!J5</f>
         <v>0</v>
       </c>
       <c r="C5">
@@ -37054,7 +38182,7 @@
         <v>43888</v>
       </c>
       <c r="B6" s="3">
-        <f>Dati!I6</f>
+        <f>Dati!J6</f>
         <v>0</v>
       </c>
       <c r="C6">
@@ -37075,7 +38203,7 @@
         <v>43889</v>
       </c>
       <c r="B7" s="3">
-        <f>Dati!I7</f>
+        <f>Dati!J7</f>
         <v>0</v>
       </c>
       <c r="C7">
@@ -37096,7 +38224,7 @@
         <v>43890</v>
       </c>
       <c r="B8" s="3">
-        <f>Dati!I8</f>
+        <f>Dati!J8</f>
         <v>0</v>
       </c>
       <c r="C8">
@@ -37117,7 +38245,7 @@
         <v>43891</v>
       </c>
       <c r="B9" s="3">
-        <f>Dati!I9</f>
+        <f>Dati!J9</f>
         <v>0</v>
       </c>
       <c r="C9">
@@ -37138,7 +38266,7 @@
         <v>43892</v>
       </c>
       <c r="B10" s="3">
-        <f>Dati!I10</f>
+        <f>Dati!J10</f>
         <v>0</v>
       </c>
       <c r="C10">
@@ -37159,7 +38287,7 @@
         <v>43893</v>
       </c>
       <c r="B11" s="3">
-        <f>Dati!I11</f>
+        <f>Dati!J11</f>
         <v>0</v>
       </c>
       <c r="C11">
@@ -37180,7 +38308,7 @@
         <v>43894</v>
       </c>
       <c r="B12" s="3">
-        <f>Dati!I12</f>
+        <f>Dati!J12</f>
         <v>0</v>
       </c>
       <c r="C12">
@@ -37201,7 +38329,7 @@
         <v>43895</v>
       </c>
       <c r="B13" s="3">
-        <f>Dati!I13</f>
+        <f>Dati!J13</f>
         <v>0</v>
       </c>
       <c r="C13">
@@ -37222,7 +38350,7 @@
         <v>43896</v>
       </c>
       <c r="B14" s="3">
-        <f>Dati!I14</f>
+        <f>Dati!J14</f>
         <v>0</v>
       </c>
       <c r="C14">
@@ -37243,7 +38371,7 @@
         <v>43897</v>
       </c>
       <c r="B15" s="3">
-        <f>Dati!I15</f>
+        <f>Dati!J15</f>
         <v>0</v>
       </c>
       <c r="C15">
@@ -37264,7 +38392,7 @@
         <v>43898</v>
       </c>
       <c r="B16" s="3">
-        <f>Dati!I16</f>
+        <f>Dati!J16</f>
         <v>0</v>
       </c>
       <c r="C16">
@@ -37285,7 +38413,7 @@
         <v>43899</v>
       </c>
       <c r="B17" s="3">
-        <f>Dati!I17</f>
+        <f>Dati!J17</f>
         <v>0</v>
       </c>
       <c r="C17">
@@ -37306,7 +38434,7 @@
         <v>43900</v>
       </c>
       <c r="B18" s="3">
-        <f>Dati!I18</f>
+        <f>Dati!J18</f>
         <v>0</v>
       </c>
       <c r="C18">
@@ -37327,7 +38455,7 @@
         <v>43901</v>
       </c>
       <c r="B19" s="3">
-        <f>Dati!I19</f>
+        <f>Dati!J19</f>
         <v>0</v>
       </c>
       <c r="C19">
@@ -37348,7 +38476,7 @@
         <v>43902</v>
       </c>
       <c r="B20" s="3">
-        <f>Dati!I20</f>
+        <f>Dati!J20</f>
         <v>0</v>
       </c>
       <c r="C20">
@@ -37369,7 +38497,7 @@
         <v>43903</v>
       </c>
       <c r="B21" s="3">
-        <f>Dati!I21</f>
+        <f>Dati!J21</f>
         <v>0</v>
       </c>
       <c r="C21">
@@ -37390,7 +38518,7 @@
         <v>43904</v>
       </c>
       <c r="B22" s="3">
-        <f>Dati!I22</f>
+        <f>Dati!J22</f>
         <v>0</v>
       </c>
       <c r="C22">
@@ -37411,7 +38539,7 @@
         <v>43905</v>
       </c>
       <c r="B23" s="3">
-        <f>Dati!I23</f>
+        <f>Dati!J23</f>
         <v>0</v>
       </c>
       <c r="C23">
@@ -37432,7 +38560,7 @@
         <v>43906</v>
       </c>
       <c r="B24" s="3">
-        <f>Dati!I24</f>
+        <f>Dati!J24</f>
         <v>0</v>
       </c>
       <c r="C24">
@@ -37453,7 +38581,7 @@
         <v>43907</v>
       </c>
       <c r="B25" s="3">
-        <f>Dati!I25</f>
+        <f>Dati!J25</f>
         <v>0</v>
       </c>
       <c r="C25">
@@ -37474,7 +38602,7 @@
         <v>43908</v>
       </c>
       <c r="B26" s="3">
-        <f>Dati!I26</f>
+        <f>Dati!J26</f>
         <v>0</v>
       </c>
       <c r="C26">
@@ -37495,7 +38623,7 @@
         <v>43909</v>
       </c>
       <c r="B27" s="3">
-        <f>Dati!I27</f>
+        <f>Dati!J27</f>
         <v>3</v>
       </c>
       <c r="C27">
@@ -37516,7 +38644,7 @@
         <v>43910</v>
       </c>
       <c r="B28" s="3">
-        <f>Dati!I28</f>
+        <f>Dati!J28</f>
         <v>8</v>
       </c>
       <c r="C28">
@@ -37537,7 +38665,7 @@
         <v>43911</v>
       </c>
       <c r="B29" s="3">
-        <f>Dati!I29</f>
+        <f>Dati!J29</f>
         <v>8</v>
       </c>
       <c r="C29">
@@ -37558,7 +38686,7 @@
         <v>43912</v>
       </c>
       <c r="B30" s="3">
-        <f>Dati!I30</f>
+        <f>Dati!J30</f>
         <v>10</v>
       </c>
       <c r="C30">
@@ -37579,7 +38707,7 @@
         <v>43913</v>
       </c>
       <c r="B31" s="3">
-        <f>Dati!I31</f>
+        <f>Dati!J31</f>
         <v>17</v>
       </c>
       <c r="C31">
@@ -37600,7 +38728,7 @@
         <v>43914</v>
       </c>
       <c r="B32" s="3">
-        <f>Dati!I32</f>
+        <f>Dati!J32</f>
         <v>17</v>
       </c>
       <c r="C32">
@@ -37621,7 +38749,7 @@
         <v>43915</v>
       </c>
       <c r="B33" s="3">
-        <f>Dati!I33</f>
+        <f>Dati!J33</f>
         <v>19</v>
       </c>
       <c r="C33">
@@ -37642,7 +38770,7 @@
         <v>43916</v>
       </c>
       <c r="B34" s="3">
-        <f>Dati!I34</f>
+        <f>Dati!J34</f>
         <v>135</v>
       </c>
       <c r="C34">
@@ -37663,7 +38791,7 @@
         <v>43917</v>
       </c>
       <c r="B35" s="3">
-        <f>Dati!I35</f>
+        <f>Dati!J35</f>
         <v>176</v>
       </c>
       <c r="C35">
@@ -37684,7 +38812,7 @@
         <v>43918</v>
       </c>
       <c r="B36" s="3">
-        <f>Dati!I36</f>
+        <f>Dati!J36</f>
         <v>203</v>
       </c>
       <c r="C36">
@@ -37705,7 +38833,7 @@
         <v>43919</v>
       </c>
       <c r="B37" s="3">
-        <f>Dati!I37</f>
+        <f>Dati!J37</f>
         <v>254</v>
       </c>
       <c r="C37">
@@ -37726,7 +38854,7 @@
         <v>43920</v>
       </c>
       <c r="B38" s="3">
-        <f>Dati!I38</f>
+        <f>Dati!J38</f>
         <v>308</v>
       </c>
       <c r="C38">
@@ -37740,6 +38868,48 @@
       <c r="E38">
         <f t="shared" ref="E38" si="8">D38-D37</f>
         <v>-21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="2">
+        <v>43921</v>
+      </c>
+      <c r="B39" s="3">
+        <f>Dati!J39</f>
+        <v>365</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ref="C39:C40" si="9">B39-B38</f>
+        <v>57</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ref="D39:D40" si="10">C39-C38</f>
+        <v>3</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ref="E39:E40" si="11">D39-D38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="2">
+        <v>43922</v>
+      </c>
+      <c r="B40" s="3">
+        <f>Dati!J40</f>
+        <v>439</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="9"/>
+        <v>74</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="10"/>
+        <v>17</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="11"/>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -37754,10 +38924,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:E38"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -37790,7 +38960,7 @@
         <v>43885.75</v>
       </c>
       <c r="B3" s="3">
-        <f>Dati!J3</f>
+        <f>Dati!K3</f>
         <v>0</v>
       </c>
     </row>
@@ -37799,7 +38969,7 @@
         <v>43886</v>
       </c>
       <c r="B4" s="3">
-        <f>Dati!J4</f>
+        <f>Dati!K4</f>
         <v>0</v>
       </c>
       <c r="C4">
@@ -37812,7 +38982,7 @@
         <v>43887</v>
       </c>
       <c r="B5" s="3">
-        <f>Dati!J5</f>
+        <f>Dati!K5</f>
         <v>0</v>
       </c>
       <c r="C5">
@@ -37829,7 +38999,7 @@
         <v>43888</v>
       </c>
       <c r="B6" s="3">
-        <f>Dati!J6</f>
+        <f>Dati!K6</f>
         <v>0</v>
       </c>
       <c r="C6">
@@ -37850,7 +39020,7 @@
         <v>43889</v>
       </c>
       <c r="B7" s="3">
-        <f>Dati!J7</f>
+        <f>Dati!K7</f>
         <v>0</v>
       </c>
       <c r="C7">
@@ -37871,7 +39041,7 @@
         <v>43890</v>
       </c>
       <c r="B8" s="3">
-        <f>Dati!J8</f>
+        <f>Dati!K8</f>
         <v>0</v>
       </c>
       <c r="C8">
@@ -37892,7 +39062,7 @@
         <v>43891</v>
       </c>
       <c r="B9" s="3">
-        <f>Dati!J9</f>
+        <f>Dati!K9</f>
         <v>0</v>
       </c>
       <c r="C9">
@@ -37913,7 +39083,7 @@
         <v>43892</v>
       </c>
       <c r="B10" s="3">
-        <f>Dati!J10</f>
+        <f>Dati!K10</f>
         <v>0</v>
       </c>
       <c r="C10">
@@ -37934,7 +39104,7 @@
         <v>43893</v>
       </c>
       <c r="B11" s="3">
-        <f>Dati!J11</f>
+        <f>Dati!K11</f>
         <v>0</v>
       </c>
       <c r="C11">
@@ -37955,7 +39125,7 @@
         <v>43894</v>
       </c>
       <c r="B12" s="3">
-        <f>Dati!J12</f>
+        <f>Dati!K12</f>
         <v>0</v>
       </c>
       <c r="C12">
@@ -37976,7 +39146,7 @@
         <v>43895</v>
       </c>
       <c r="B13" s="3">
-        <f>Dati!J13</f>
+        <f>Dati!K13</f>
         <v>2</v>
       </c>
       <c r="C13">
@@ -37997,7 +39167,7 @@
         <v>43896</v>
       </c>
       <c r="B14" s="3">
-        <f>Dati!J14</f>
+        <f>Dati!K14</f>
         <v>4</v>
       </c>
       <c r="C14">
@@ -38018,7 +39188,7 @@
         <v>43897</v>
       </c>
       <c r="B15" s="3">
-        <f>Dati!J15</f>
+        <f>Dati!K15</f>
         <v>5</v>
       </c>
       <c r="C15">
@@ -38039,7 +39209,7 @@
         <v>43898</v>
       </c>
       <c r="B16" s="3">
-        <f>Dati!J16</f>
+        <f>Dati!K16</f>
         <v>5</v>
       </c>
       <c r="C16">
@@ -38060,7 +39230,7 @@
         <v>43899</v>
       </c>
       <c r="B17" s="3">
-        <f>Dati!J17</f>
+        <f>Dati!K17</f>
         <v>13</v>
       </c>
       <c r="C17">
@@ -38081,7 +39251,7 @@
         <v>43900</v>
       </c>
       <c r="B18" s="3">
-        <f>Dati!J18</f>
+        <f>Dati!K18</f>
         <v>17</v>
       </c>
       <c r="C18">
@@ -38102,7 +39272,7 @@
         <v>43901</v>
       </c>
       <c r="B19" s="3">
-        <f>Dati!J19</f>
+        <f>Dati!K19</f>
         <v>21</v>
       </c>
       <c r="C19">
@@ -38123,7 +39293,7 @@
         <v>43902</v>
       </c>
       <c r="B20" s="3">
-        <f>Dati!J20</f>
+        <f>Dati!K20</f>
         <v>26</v>
       </c>
       <c r="C20">
@@ -38144,7 +39314,7 @@
         <v>43903</v>
       </c>
       <c r="B21" s="3">
-        <f>Dati!J21</f>
+        <f>Dati!K21</f>
         <v>46</v>
       </c>
       <c r="C21">
@@ -38165,7 +39335,7 @@
         <v>43904</v>
       </c>
       <c r="B22" s="3">
-        <f>Dati!J22</f>
+        <f>Dati!K22</f>
         <v>59</v>
       </c>
       <c r="C22">
@@ -38186,7 +39356,7 @@
         <v>43905</v>
       </c>
       <c r="B23" s="3">
-        <f>Dati!J23</f>
+        <f>Dati!K23</f>
         <v>81</v>
       </c>
       <c r="C23">
@@ -38207,7 +39377,7 @@
         <v>43906</v>
       </c>
       <c r="B24" s="3">
-        <f>Dati!J24</f>
+        <f>Dati!K24</f>
         <v>111</v>
       </c>
       <c r="C24">
@@ -38228,7 +39398,7 @@
         <v>43907</v>
       </c>
       <c r="B25" s="3">
-        <f>Dati!J25</f>
+        <f>Dati!K25</f>
         <v>133</v>
       </c>
       <c r="C25">
@@ -38249,7 +39419,7 @@
         <v>43908</v>
       </c>
       <c r="B26" s="3">
-        <f>Dati!J26</f>
+        <f>Dati!K26</f>
         <v>154</v>
       </c>
       <c r="C26">
@@ -38270,7 +39440,7 @@
         <v>43909</v>
       </c>
       <c r="B27" s="3">
-        <f>Dati!J27</f>
+        <f>Dati!K27</f>
         <v>175</v>
       </c>
       <c r="C27">
@@ -38291,7 +39461,7 @@
         <v>43910</v>
       </c>
       <c r="B28" s="3">
-        <f>Dati!J28</f>
+        <f>Dati!K28</f>
         <v>209</v>
       </c>
       <c r="C28">
@@ -38312,7 +39482,7 @@
         <v>43911</v>
       </c>
       <c r="B29" s="3">
-        <f>Dati!J29</f>
+        <f>Dati!K29</f>
         <v>238</v>
       </c>
       <c r="C29">
@@ -38333,7 +39503,7 @@
         <v>43912</v>
       </c>
       <c r="B30" s="3">
-        <f>Dati!J30</f>
+        <f>Dati!K30</f>
         <v>283</v>
       </c>
       <c r="C30">
@@ -38354,7 +39524,7 @@
         <v>43913</v>
       </c>
       <c r="B31" s="3">
-        <f>Dati!J31</f>
+        <f>Dati!K31</f>
         <v>315</v>
       </c>
       <c r="C31">
@@ -38375,7 +39545,7 @@
         <v>43914</v>
       </c>
       <c r="B32" s="3">
-        <f>Dati!J32</f>
+        <f>Dati!K32</f>
         <v>374</v>
       </c>
       <c r="C32">
@@ -38396,7 +39566,7 @@
         <v>43915</v>
       </c>
       <c r="B33" s="3">
-        <f>Dati!J33</f>
+        <f>Dati!K33</f>
         <v>449</v>
       </c>
       <c r="C33">
@@ -38417,7 +39587,7 @@
         <v>43916</v>
       </c>
       <c r="B34" s="3">
-        <f>Dati!J34</f>
+        <f>Dati!K34</f>
         <v>449</v>
       </c>
       <c r="C34">
@@ -38438,7 +39608,7 @@
         <v>43917</v>
       </c>
       <c r="B35" s="3">
-        <f>Dati!J35</f>
+        <f>Dati!K35</f>
         <v>569</v>
       </c>
       <c r="C35">
@@ -38459,7 +39629,7 @@
         <v>43918</v>
       </c>
       <c r="B36" s="3">
-        <f>Dati!J36</f>
+        <f>Dati!K36</f>
         <v>617</v>
       </c>
       <c r="C36">
@@ -38480,7 +39650,7 @@
         <v>43919</v>
       </c>
       <c r="B37" s="3">
-        <f>Dati!J37</f>
+        <f>Dati!K37</f>
         <v>684</v>
       </c>
       <c r="C37">
@@ -38501,7 +39671,7 @@
         <v>43920</v>
       </c>
       <c r="B38" s="3">
-        <f>Dati!J38</f>
+        <f>Dati!K38</f>
         <v>749</v>
       </c>
       <c r="C38">
@@ -38515,6 +39685,48 @@
       <c r="E38">
         <f t="shared" ref="E38" si="8">D38-D37</f>
         <v>-21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="2">
+        <v>43921</v>
+      </c>
+      <c r="B39" s="3">
+        <f>Dati!K39</f>
+        <v>854</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ref="C39:C40" si="9">B39-B38</f>
+        <v>105</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ref="D39:D40" si="10">C39-C38</f>
+        <v>40</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ref="E39:E40" si="11">D39-D38</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="2">
+        <v>43922</v>
+      </c>
+      <c r="B40" s="3">
+        <f>Dati!K40</f>
+        <v>886</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="9"/>
+        <v>32</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="10"/>
+        <v>-73</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="11"/>
+        <v>-113</v>
       </c>
     </row>
   </sheetData>
@@ -38529,10 +39741,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:E38"/>
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -39292,6 +40504,48 @@
         <v>469</v>
       </c>
     </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="2">
+        <v>43921</v>
+      </c>
+      <c r="B39" s="3">
+        <f>Dati!E39</f>
+        <v>3626</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ref="C39:C40" si="9">B39-B38</f>
+        <v>189</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ref="D39:D40" si="10">C39-C38</f>
+        <v>180</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ref="E39:E40" si="11">D39-D38</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="2">
+        <v>43922</v>
+      </c>
+      <c r="B40" s="3">
+        <f>Dati!E40</f>
+        <v>3599</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="9"/>
+        <v>-27</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="10"/>
+        <v>-216</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="11"/>
+        <v>-396</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -39304,10 +40558,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:E38"/>
+    <sheetView topLeftCell="H13" workbookViewId="0">
+      <selection activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -40068,6 +41322,48 @@
         <v>57</v>
       </c>
     </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="2">
+        <v>43921</v>
+      </c>
+      <c r="B39" s="3">
+        <f>Dati!G39</f>
+        <v>8082</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ref="C39:C40" si="9">B39-B38</f>
+        <v>427</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ref="D39:D40" si="10">C39-C38</f>
+        <v>40</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ref="E39:E40" si="11">D39-D38</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="2">
+        <v>43922</v>
+      </c>
+      <c r="B40" s="3">
+        <f>Dati!G40</f>
+        <v>8470</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="9"/>
+        <v>388</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="10"/>
+        <v>-39</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="11"/>
+        <v>-79</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -40080,10 +41376,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:E38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -40843,6 +42139,48 @@
         <v>-412</v>
       </c>
     </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="2">
+        <v>43921</v>
+      </c>
+      <c r="B39" s="3">
+        <f>Dati!F39</f>
+        <v>4456</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ref="C39:C40" si="9">B39-B38</f>
+        <v>238</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ref="D39:D40" si="10">C39-C38</f>
+        <v>-140</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ref="E39:E40" si="11">D39-D38</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="2">
+        <v>43922</v>
+      </c>
+      <c r="B40" s="3">
+        <f>Dati!F40</f>
+        <v>4871</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="9"/>
+        <v>415</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="10"/>
+        <v>177</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="11"/>
+        <v>317</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -40855,10 +42193,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:N38"/>
+  <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -40910,7 +42248,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="3">
-        <f>Dati!L3</f>
+        <f>Dati!M3</f>
         <v>141</v>
       </c>
       <c r="H3" s="5"/>
@@ -40926,7 +42264,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="3">
-        <f>Dati!L4</f>
+        <f>Dati!M4</f>
         <v>141</v>
       </c>
       <c r="D4">
@@ -40958,7 +42296,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="3">
-        <f>Dati!L5</f>
+        <f>Dati!M5</f>
         <v>156</v>
       </c>
       <c r="D5">
@@ -40994,7 +42332,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="3">
-        <f>Dati!L6</f>
+        <f>Dati!M6</f>
         <v>156</v>
       </c>
       <c r="D6">
@@ -41030,7 +42368,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="3">
-        <f>Dati!L7</f>
+        <f>Dati!M7</f>
         <v>227</v>
       </c>
       <c r="D7">
@@ -41066,7 +42404,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="3">
-        <f>Dati!L8</f>
+        <f>Dati!M8</f>
         <v>308</v>
       </c>
       <c r="D8">
@@ -41102,7 +42440,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="3">
-        <f>Dati!L9</f>
+        <f>Dati!M9</f>
         <v>362</v>
       </c>
       <c r="D9">
@@ -41138,7 +42476,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="3">
-        <f>Dati!L10</f>
+        <f>Dati!M10</f>
         <v>434</v>
       </c>
       <c r="D10">
@@ -41174,7 +42512,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="3">
-        <f>Dati!L11</f>
+        <f>Dati!M11</f>
         <v>458</v>
       </c>
       <c r="D11">
@@ -41217,7 +42555,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="3">
-        <f>Dati!L12</f>
+        <f>Dati!M12</f>
         <v>543</v>
       </c>
       <c r="D12">
@@ -41253,7 +42591,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="3">
-        <f>Dati!L13</f>
+        <f>Dati!M13</f>
         <v>543</v>
       </c>
       <c r="D13">
@@ -41289,7 +42627,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="3">
-        <f>Dati!L14</f>
+        <f>Dati!M14</f>
         <v>793</v>
       </c>
       <c r="D14">
@@ -41325,7 +42663,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="3">
-        <f>Dati!L15</f>
+        <f>Dati!M15</f>
         <v>1046</v>
       </c>
       <c r="D15">
@@ -41361,7 +42699,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="3">
-        <f>Dati!L16</f>
+        <f>Dati!M16</f>
         <v>1636</v>
       </c>
       <c r="D16">
@@ -41397,7 +42735,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="3">
-        <f>Dati!L17</f>
+        <f>Dati!M17</f>
         <v>1681</v>
       </c>
       <c r="D17">
@@ -41433,7 +42771,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="3">
-        <f>Dati!L18</f>
+        <f>Dati!M18</f>
         <v>2374</v>
       </c>
       <c r="D18">
@@ -41469,7 +42807,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="3">
-        <f>Dati!L19</f>
+        <f>Dati!M19</f>
         <v>2431</v>
       </c>
       <c r="D19">
@@ -41505,7 +42843,7 @@
         <v>18</v>
       </c>
       <c r="C20" s="3">
-        <f>Dati!L20</f>
+        <f>Dati!M20</f>
         <v>2879</v>
       </c>
       <c r="D20">
@@ -41541,7 +42879,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="3">
-        <f>Dati!L21</f>
+        <f>Dati!M21</f>
         <v>3105</v>
       </c>
       <c r="D21">
@@ -41577,7 +42915,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="3">
-        <f>Dati!L22</f>
+        <f>Dati!M22</f>
         <v>3680</v>
       </c>
       <c r="D22">
@@ -41613,7 +42951,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="3">
-        <f>Dati!L23</f>
+        <f>Dati!M23</f>
         <v>4375</v>
       </c>
       <c r="D23">
@@ -41649,7 +42987,7 @@
         <v>22</v>
       </c>
       <c r="C24" s="3">
-        <f>Dati!L24</f>
+        <f>Dati!M24</f>
         <v>5588</v>
       </c>
       <c r="D24">
@@ -41685,7 +43023,7 @@
         <v>23</v>
       </c>
       <c r="C25" s="3">
-        <f>Dati!L25</f>
+        <f>Dati!M25</f>
         <v>6543</v>
       </c>
       <c r="D25">
@@ -41721,7 +43059,7 @@
         <v>24</v>
       </c>
       <c r="C26" s="3">
-        <f>Dati!L26</f>
+        <f>Dati!M26</f>
         <v>7516</v>
       </c>
       <c r="D26">
@@ -41757,7 +43095,7 @@
         <v>25</v>
       </c>
       <c r="C27" s="3">
-        <f>Dati!L27</f>
+        <f>Dati!M27</f>
         <v>8853</v>
       </c>
       <c r="D27">
@@ -41793,7 +43131,7 @@
         <v>26</v>
       </c>
       <c r="C28" s="3">
-        <f>Dati!L28</f>
+        <f>Dati!M28</f>
         <v>9975</v>
       </c>
       <c r="D28">
@@ -41829,7 +43167,7 @@
         <v>27</v>
       </c>
       <c r="C29" s="3">
-        <f>Dati!L29</f>
+        <f>Dati!M29</f>
         <v>10701</v>
       </c>
       <c r="D29">
@@ -41865,7 +43203,7 @@
         <v>28</v>
       </c>
       <c r="C30" s="3">
-        <f>Dati!L30</f>
+        <f>Dati!M30</f>
         <v>12701</v>
       </c>
       <c r="D30">
@@ -41901,7 +43239,7 @@
         <v>29</v>
       </c>
       <c r="C31" s="3">
-        <f>Dati!L31</f>
+        <f>Dati!M31</f>
         <v>13560</v>
       </c>
       <c r="D31">
@@ -41937,7 +43275,7 @@
         <v>30</v>
       </c>
       <c r="C32" s="3">
-        <f>Dati!L32</f>
+        <f>Dati!M32</f>
         <v>15469</v>
       </c>
       <c r="D32">
@@ -41973,7 +43311,7 @@
         <v>31</v>
       </c>
       <c r="C33" s="3">
-        <f>Dati!L33</f>
+        <f>Dati!M33</f>
         <v>16655</v>
       </c>
       <c r="D33">
@@ -42009,7 +43347,7 @@
         <v>32</v>
       </c>
       <c r="C34" s="3">
-        <f>Dati!L34</f>
+        <f>Dati!M34</f>
         <v>18054</v>
       </c>
       <c r="D34">
@@ -42045,7 +43383,7 @@
         <v>33</v>
       </c>
       <c r="C35" s="3">
-        <f>Dati!L35</f>
+        <f>Dati!M35</f>
         <v>19705</v>
       </c>
       <c r="D35">
@@ -42081,7 +43419,7 @@
         <v>34</v>
       </c>
       <c r="C36" s="3">
-        <f>Dati!L36</f>
+        <f>Dati!M36</f>
         <v>21511</v>
       </c>
       <c r="D36">
@@ -42117,7 +43455,7 @@
         <v>35</v>
       </c>
       <c r="C37" s="3">
-        <f>Dati!L37</f>
+        <f>Dati!M37</f>
         <v>24058</v>
       </c>
       <c r="D37">
@@ -42153,7 +43491,7 @@
         <v>36</v>
       </c>
       <c r="C38" s="3">
-        <f>Dati!L38</f>
+        <f>Dati!M38</f>
         <v>25478</v>
       </c>
       <c r="D38">
@@ -42179,6 +43517,78 @@
       <c r="K38" s="6">
         <f t="shared" ref="K38" si="11">100/I38</f>
         <v>30.045529476411023</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="2">
+        <v>43921</v>
+      </c>
+      <c r="B39" s="10">
+        <v>37</v>
+      </c>
+      <c r="C39" s="3">
+        <f>Dati!M39</f>
+        <v>27658</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ref="D39:D40" si="12">C39-C38</f>
+        <v>2180</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ref="E39:E40" si="13">D39-D38</f>
+        <v>760</v>
+      </c>
+      <c r="H39" s="5">
+        <f>C39/Casi_totali!B39</f>
+        <v>2.973658746371358</v>
+      </c>
+      <c r="I39" s="5">
+        <f>C39/Positivi!B39</f>
+        <v>3.4221727295223956</v>
+      </c>
+      <c r="J39" s="6">
+        <f t="shared" ref="J39:J40" si="14">100/H39</f>
+        <v>33.628606551449849</v>
+      </c>
+      <c r="K39" s="6">
+        <f t="shared" ref="K39:K40" si="15">100/I39</f>
+        <v>29.221201822257573</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="2">
+        <v>43922</v>
+      </c>
+      <c r="B40" s="10">
+        <v>38</v>
+      </c>
+      <c r="C40" s="3">
+        <f>Dati!M40</f>
+        <v>30060</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="12"/>
+        <v>2402</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="13"/>
+        <v>222</v>
+      </c>
+      <c r="H40" s="5">
+        <f>C40/Casi_totali!B40</f>
+        <v>3.0689127105666154</v>
+      </c>
+      <c r="I40" s="5">
+        <f>C40/Positivi!B40</f>
+        <v>3.548996458087367</v>
+      </c>
+      <c r="J40" s="6">
+        <f t="shared" si="14"/>
+        <v>32.584830339321357</v>
+      </c>
+      <c r="K40" s="6">
+        <f t="shared" si="15"/>
+        <v>28.176979374584167</v>
       </c>
     </row>
   </sheetData>
